--- a/DataGenerator/XLSXS/EventScript.xlsx
+++ b/DataGenerator/XLSXS/EventScript.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="506">
   <si>
     <t>스크립트 넘버</t>
   </si>
@@ -866,8 +866,7 @@
 이번에 제출할 과제는 조별로 진행할 예정입니다.</t>
   </si>
   <si>
-    <t>앞에 학번 확인하시고, 조별로 역할 분담해서
-다음 주까지 준비해 올 수 있도록 하세요.</t>
+    <t>앞에 학번 확인하시고, 조별로 역할 분담해서 다음 주까지 준비해 올 수 있도록 하세요.</t>
   </si>
   <si>
     <t>안녕하세요! 23학번 김컴순입니다!</t>
@@ -885,7 +884,7 @@
     <t>반갑습니다. 22학번 이미대예요.</t>
   </si>
   <si>
-    <t>저희 우선은 역할부터 나눌까요? 우선 조장부터 기입을 해야 하는데...
+    <t>저희 일단 역할부터 나눌까요?
 혹시 조장 하고 싶으신 분 계신가요?</t>
   </si>
   <si>
@@ -921,15 +920,14 @@
 리더 역할을 수행하며 많은 것을 배울 수 있었다.</t>
   </si>
   <si>
-    <t>아무도 없으신가요? 그러면 조장은 제가 맡겠습니다.
-생각해 둔 게 있어서, 그것대로 한 번 진행해볼게요.</t>
+    <t>아무도 없으신가요? 그러면 조장은 제가 맡겠습니다. 생각해 둔 게 있어서, 그대로 한 번 진행해볼게요.</t>
   </si>
   <si>
     <t>앗, 네! 시켜주실 것 있으면 바로 말해주세요.</t>
   </si>
   <si>
-    <t>그러면 학생B 님은 이걸 맡아 주시고... 
-컴순님은 이걸 맡아 주시겠어요?</t>
+    <t>그러면 미대 님은 이걸 맡아 주시고...
+컴순 님은 이걸 맡아 주시겠어요?</t>
   </si>
   <si>
     <t>네, 그렇게 하겠습니다!</t>
@@ -1662,6 +1660,9 @@
 뭐 할 만한 것 없을까?</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>아직 도착까진 멀었으니까…
 좀 자야겠다.</t>
   </si>
@@ -1670,7 +1671,8 @@
 어디지?</t>
   </si>
   <si>
-    <t>이번 역은 상수, 상수역입니다. 내리실 문은…</t>
+    <t>이번 역은 상수, 상수역입니다.
+내리실 문은…</t>
   </si>
   <si>
     <t>내, 내릴게요!!!!!!</t>
@@ -1971,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2121,6 +2123,12 @@
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2128,9 +2136,6 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -14377,7 +14382,7 @@
       <c r="C257" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D257" s="12" t="s">
+      <c r="D257" s="13" t="s">
         <v>227</v>
       </c>
       <c r="E257" s="16" t="str">
@@ -15130,7 +15135,7 @@
       <c r="C273" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D273" s="33" t="s">
+      <c r="D273" s="39" t="s">
         <v>243</v>
       </c>
       <c r="E273" s="16" t="str">
@@ -15224,7 +15229,7 @@
       <c r="C275" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D275" s="33" t="s">
+      <c r="D275" s="39" t="s">
         <v>245</v>
       </c>
       <c r="E275" s="16" t="str">
@@ -25104,7 +25109,9 @@
       <c r="K485" s="10"/>
       <c r="L485" s="10"/>
       <c r="M485" s="10"/>
-      <c r="N485" s="10"/>
+      <c r="N485" s="51" t="s">
+        <v>452</v>
+      </c>
       <c r="O485" s="10"/>
       <c r="P485" s="10"/>
       <c r="Q485" s="10"/>
@@ -25130,7 +25137,7 @@
         <v>46</v>
       </c>
       <c r="D486" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E486" s="16" t="str">
         <f t="shared" si="53"/>
@@ -25224,7 +25231,7 @@
         <v>46</v>
       </c>
       <c r="D488" s="26" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E488" s="16" t="str">
         <f t="shared" si="53"/>
@@ -25270,8 +25277,8 @@
       <c r="C489" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="D489" s="26" t="s">
-        <v>454</v>
+      <c r="D489" s="52" t="s">
+        <v>455</v>
       </c>
       <c r="E489" s="16" t="str">
         <f t="shared" si="53"/>
@@ -25318,7 +25325,7 @@
         <v>46</v>
       </c>
       <c r="D490" s="26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E490" s="13" t="s">
         <v>76</v>
@@ -25364,7 +25371,7 @@
         <v>23</v>
       </c>
       <c r="D491" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E491" s="16" t="str">
         <f t="shared" ref="E491:E503" si="54">IF(OR(C491="Narration", C491="Player"), "none", "basic")</f>
@@ -25411,7 +25418,7 @@
         <v>46</v>
       </c>
       <c r="D492" s="27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E492" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25458,7 +25465,7 @@
         <v>46</v>
       </c>
       <c r="D493" s="27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E493" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25551,8 +25558,8 @@
       <c r="C495" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="D495" s="27" t="s">
-        <v>454</v>
+      <c r="D495" s="39" t="s">
+        <v>455</v>
       </c>
       <c r="E495" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25599,7 +25606,7 @@
         <v>46</v>
       </c>
       <c r="D496" s="27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E496" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25646,7 +25653,7 @@
         <v>23</v>
       </c>
       <c r="D497" s="30" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E497" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25693,7 +25700,7 @@
         <v>46</v>
       </c>
       <c r="D498" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E498" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25740,7 +25747,7 @@
         <v>46</v>
       </c>
       <c r="D499" s="16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E499" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25787,7 +25794,7 @@
         <v>46</v>
       </c>
       <c r="D500" s="16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E500" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25836,7 +25843,7 @@
         <v>46</v>
       </c>
       <c r="D501" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E501" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25883,7 +25890,7 @@
         <v>46</v>
       </c>
       <c r="D502" s="26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E502" s="16" t="str">
         <f t="shared" si="54"/>
@@ -25977,7 +25984,7 @@
         <v>46</v>
       </c>
       <c r="D504" s="26" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E504" s="13" t="s">
         <v>76</v>
@@ -26023,7 +26030,7 @@
         <v>23</v>
       </c>
       <c r="D505" s="26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E505" s="16" t="str">
         <f>IF(OR(C505="Narration", C505="Player"), "none", "basic")</f>
@@ -26070,7 +26077,7 @@
         <v>46</v>
       </c>
       <c r="D506" s="27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E506" s="13" t="s">
         <v>48</v>
@@ -26116,7 +26123,7 @@
         <v>46</v>
       </c>
       <c r="D507" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E507" s="13" t="s">
         <v>48</v>
@@ -26162,7 +26169,7 @@
         <v>23</v>
       </c>
       <c r="D508" s="30" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E508" s="16" t="str">
         <f>IF(OR(C508="Narration", C508="Player"), "none", "basic")</f>
@@ -26209,7 +26216,7 @@
         <v>46</v>
       </c>
       <c r="D509" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E509" s="13" t="s">
         <v>76</v>
@@ -26255,7 +26262,7 @@
         <v>46</v>
       </c>
       <c r="D510" s="16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E510" s="16" t="str">
         <f t="shared" ref="E510:E520" si="55">IF(OR(C510="Narration", C510="Player"), "none", "basic")</f>
@@ -26302,7 +26309,7 @@
         <v>46</v>
       </c>
       <c r="D511" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E511" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26351,7 +26358,7 @@
         <v>46</v>
       </c>
       <c r="D512" s="26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E512" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26445,7 +26452,7 @@
         <v>46</v>
       </c>
       <c r="D514" s="26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E514" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26492,7 +26499,7 @@
         <v>23</v>
       </c>
       <c r="D515" s="26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E515" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26538,8 +26545,8 @@
       <c r="C516" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D516" s="51" t="s">
-        <v>477</v>
+      <c r="D516" s="53" t="s">
+        <v>478</v>
       </c>
       <c r="E516" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26585,8 +26592,8 @@
       <c r="C517" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D517" s="52" t="s">
-        <v>478</v>
+      <c r="D517" s="54" t="s">
+        <v>479</v>
       </c>
       <c r="E517" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26632,8 +26639,8 @@
       <c r="C518" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D518" s="53" t="s">
-        <v>479</v>
+      <c r="D518" s="55" t="s">
+        <v>480</v>
       </c>
       <c r="E518" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26680,7 +26687,7 @@
         <v>46</v>
       </c>
       <c r="D519" s="16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E519" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26727,7 +26734,7 @@
         <v>229</v>
       </c>
       <c r="D520" s="16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E520" s="16" t="str">
         <f t="shared" si="55"/>
@@ -26774,7 +26781,7 @@
         <v>46</v>
       </c>
       <c r="D521" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E521" s="13" t="s">
         <v>48</v>
@@ -26820,7 +26827,7 @@
         <v>229</v>
       </c>
       <c r="D522" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E522" s="16" t="str">
         <f t="shared" ref="E522:E529" si="56">IF(OR(C522="Narration", C522="Player"), "none", "basic")</f>
@@ -26867,7 +26874,7 @@
         <v>46</v>
       </c>
       <c r="D523" s="16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E523" s="16" t="str">
         <f t="shared" si="56"/>
@@ -26914,7 +26921,7 @@
         <v>229</v>
       </c>
       <c r="D524" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E524" s="16" t="str">
         <f t="shared" si="56"/>
@@ -26963,7 +26970,7 @@
         <v>229</v>
       </c>
       <c r="D525" s="26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E525" s="16" t="str">
         <f t="shared" si="56"/>
@@ -27009,7 +27016,7 @@
       <c r="C526" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D526" s="54" t="s">
+      <c r="D526" s="52" t="s">
         <v>79</v>
       </c>
       <c r="E526" s="16" t="str">
@@ -27057,7 +27064,7 @@
         <v>355</v>
       </c>
       <c r="D527" s="26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E527" s="16" t="str">
         <f t="shared" si="56"/>
@@ -27104,7 +27111,7 @@
         <v>229</v>
       </c>
       <c r="D528" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E528" s="16" t="str">
         <f t="shared" si="56"/>
@@ -27151,7 +27158,7 @@
         <v>46</v>
       </c>
       <c r="D529" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E529" s="16" t="str">
         <f t="shared" si="56"/>
@@ -27198,7 +27205,7 @@
         <v>46</v>
       </c>
       <c r="D530" s="26" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E530" s="13" t="s">
         <v>48</v>
@@ -27244,7 +27251,7 @@
         <v>23</v>
       </c>
       <c r="D531" s="26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E531" s="16" t="str">
         <f t="shared" ref="E531:E532" si="57">IF(OR(C531="Narration", C531="Player"), "none", "basic")</f>
@@ -27290,8 +27297,8 @@
       <c r="C532" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D532" s="52" t="s">
-        <v>492</v>
+      <c r="D532" s="54" t="s">
+        <v>493</v>
       </c>
       <c r="E532" s="16" t="str">
         <f t="shared" si="57"/>
@@ -27337,8 +27344,8 @@
       <c r="C533" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D533" s="52" t="s">
-        <v>493</v>
+      <c r="D533" s="54" t="s">
+        <v>494</v>
       </c>
       <c r="E533" s="13" t="s">
         <v>48</v>
@@ -27383,8 +27390,8 @@
       <c r="C534" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D534" s="51" t="s">
-        <v>494</v>
+      <c r="D534" s="53" t="s">
+        <v>495</v>
       </c>
       <c r="E534" s="16" t="str">
         <f t="shared" ref="E534:E535" si="58">IF(OR(C534="Narration", C534="Player"), "none", "basic")</f>
@@ -27430,8 +27437,8 @@
       <c r="C535" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D535" s="53" t="s">
-        <v>495</v>
+      <c r="D535" s="55" t="s">
+        <v>496</v>
       </c>
       <c r="E535" s="16" t="str">
         <f t="shared" si="58"/>
@@ -27478,7 +27485,7 @@
         <v>46</v>
       </c>
       <c r="D536" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E536" s="13" t="s">
         <v>48</v>
@@ -27524,7 +27531,7 @@
         <v>46</v>
       </c>
       <c r="D537" s="16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E537" s="16" t="str">
         <f t="shared" ref="E537:E539" si="59">IF(OR(C537="Narration", C537="Player"), "none", "basic")</f>
@@ -27571,7 +27578,7 @@
         <v>46</v>
       </c>
       <c r="D538" s="16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E538" s="16" t="str">
         <f t="shared" si="59"/>
@@ -27618,7 +27625,7 @@
         <v>46</v>
       </c>
       <c r="D539" s="16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E539" s="16" t="str">
         <f t="shared" si="59"/>
@@ -27665,7 +27672,7 @@
         <v>46</v>
       </c>
       <c r="D540" s="16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E540" s="13" t="s">
         <v>76</v>
@@ -27711,7 +27718,7 @@
         <v>46</v>
       </c>
       <c r="D541" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E541" s="13" t="s">
         <v>76</v>
@@ -27757,7 +27764,7 @@
         <v>46</v>
       </c>
       <c r="D542" s="16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E542" s="13" t="s">
         <v>76</v>
@@ -27803,7 +27810,7 @@
         <v>46</v>
       </c>
       <c r="D543" s="16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E543" s="13" t="s">
         <v>48</v>
@@ -27849,7 +27856,7 @@
         <v>23</v>
       </c>
       <c r="D544" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E544" s="16" t="str">
         <f>IF(OR(C544="Narration", C544="Player"), "none", "basic")</f>
@@ -27886,7 +27893,7 @@
       <c r="AA544" s="10"/>
     </row>
     <row r="545">
-      <c r="A545" s="55"/>
+      <c r="A545" s="56"/>
       <c r="B545" s="10"/>
       <c r="C545" s="10"/>
       <c r="D545" s="10"/>
@@ -27915,7 +27922,7 @@
       <c r="AA545" s="10"/>
     </row>
     <row r="546">
-      <c r="A546" s="55"/>
+      <c r="A546" s="56"/>
       <c r="B546" s="10"/>
       <c r="C546" s="10"/>
       <c r="D546" s="10"/>
@@ -27944,7 +27951,7 @@
       <c r="AA546" s="10"/>
     </row>
     <row r="547">
-      <c r="A547" s="55"/>
+      <c r="A547" s="56"/>
       <c r="B547" s="10"/>
       <c r="C547" s="10"/>
       <c r="D547" s="10"/>
@@ -27973,7 +27980,7 @@
       <c r="AA547" s="10"/>
     </row>
     <row r="548">
-      <c r="A548" s="55"/>
+      <c r="A548" s="56"/>
       <c r="B548" s="10"/>
       <c r="C548" s="10"/>
       <c r="D548" s="10"/>
@@ -28002,7 +28009,7 @@
       <c r="AA548" s="10"/>
     </row>
     <row r="549">
-      <c r="A549" s="55"/>
+      <c r="A549" s="56"/>
       <c r="B549" s="10"/>
       <c r="C549" s="10"/>
       <c r="D549" s="10"/>
@@ -28031,7 +28038,7 @@
       <c r="AA549" s="10"/>
     </row>
     <row r="550">
-      <c r="A550" s="55"/>
+      <c r="A550" s="56"/>
       <c r="B550" s="10"/>
       <c r="C550" s="10"/>
       <c r="D550" s="10"/>
@@ -28060,7 +28067,7 @@
       <c r="AA550" s="10"/>
     </row>
     <row r="551">
-      <c r="A551" s="55"/>
+      <c r="A551" s="56"/>
       <c r="B551" s="10"/>
       <c r="C551" s="10"/>
       <c r="D551" s="10"/>
@@ -28089,7 +28096,7 @@
       <c r="AA551" s="10"/>
     </row>
     <row r="552">
-      <c r="A552" s="55"/>
+      <c r="A552" s="56"/>
       <c r="B552" s="10"/>
       <c r="C552" s="10"/>
       <c r="D552" s="10"/>
@@ -28118,7 +28125,7 @@
       <c r="AA552" s="10"/>
     </row>
     <row r="553">
-      <c r="A553" s="55"/>
+      <c r="A553" s="56"/>
       <c r="B553" s="10"/>
       <c r="C553" s="10"/>
       <c r="D553" s="10"/>
@@ -28147,7 +28154,7 @@
       <c r="AA553" s="10"/>
     </row>
     <row r="554">
-      <c r="A554" s="55"/>
+      <c r="A554" s="56"/>
       <c r="B554" s="10"/>
       <c r="C554" s="10"/>
       <c r="D554" s="10"/>
@@ -28176,7 +28183,7 @@
       <c r="AA554" s="10"/>
     </row>
     <row r="555">
-      <c r="A555" s="55"/>
+      <c r="A555" s="56"/>
       <c r="B555" s="10"/>
       <c r="C555" s="10"/>
       <c r="D555" s="10"/>
@@ -28205,7 +28212,7 @@
       <c r="AA555" s="10"/>
     </row>
     <row r="556">
-      <c r="A556" s="55"/>
+      <c r="A556" s="56"/>
       <c r="B556" s="10"/>
       <c r="C556" s="10"/>
       <c r="D556" s="10"/>
@@ -28234,7 +28241,7 @@
       <c r="AA556" s="10"/>
     </row>
     <row r="557">
-      <c r="A557" s="55"/>
+      <c r="A557" s="56"/>
       <c r="B557" s="10"/>
       <c r="C557" s="10"/>
       <c r="D557" s="10"/>
@@ -28263,7 +28270,7 @@
       <c r="AA557" s="10"/>
     </row>
     <row r="558">
-      <c r="A558" s="55"/>
+      <c r="A558" s="56"/>
       <c r="B558" s="10"/>
       <c r="C558" s="10"/>
       <c r="D558" s="10"/>
@@ -28292,7 +28299,7 @@
       <c r="AA558" s="10"/>
     </row>
     <row r="559">
-      <c r="A559" s="55"/>
+      <c r="A559" s="56"/>
       <c r="B559" s="10"/>
       <c r="C559" s="10"/>
       <c r="D559" s="10"/>
@@ -28321,7 +28328,7 @@
       <c r="AA559" s="10"/>
     </row>
     <row r="560">
-      <c r="A560" s="55"/>
+      <c r="A560" s="56"/>
       <c r="B560" s="10"/>
       <c r="C560" s="10"/>
       <c r="D560" s="10"/>
@@ -28350,7 +28357,7 @@
       <c r="AA560" s="10"/>
     </row>
     <row r="561">
-      <c r="A561" s="55"/>
+      <c r="A561" s="56"/>
       <c r="B561" s="10"/>
       <c r="C561" s="10"/>
       <c r="D561" s="10"/>
@@ -28379,7 +28386,7 @@
       <c r="AA561" s="10"/>
     </row>
     <row r="562">
-      <c r="A562" s="55"/>
+      <c r="A562" s="56"/>
       <c r="B562" s="10"/>
       <c r="C562" s="10"/>
       <c r="D562" s="10"/>
@@ -28408,7 +28415,7 @@
       <c r="AA562" s="10"/>
     </row>
     <row r="563">
-      <c r="A563" s="55"/>
+      <c r="A563" s="56"/>
       <c r="B563" s="10"/>
       <c r="C563" s="10"/>
       <c r="D563" s="10"/>
@@ -28437,7 +28444,7 @@
       <c r="AA563" s="10"/>
     </row>
     <row r="564">
-      <c r="A564" s="55"/>
+      <c r="A564" s="56"/>
       <c r="B564" s="10"/>
       <c r="C564" s="10"/>
       <c r="D564" s="10"/>
@@ -28466,7 +28473,7 @@
       <c r="AA564" s="10"/>
     </row>
     <row r="565">
-      <c r="A565" s="55"/>
+      <c r="A565" s="56"/>
       <c r="B565" s="10"/>
       <c r="C565" s="10"/>
       <c r="D565" s="10"/>
@@ -28495,7 +28502,7 @@
       <c r="AA565" s="10"/>
     </row>
     <row r="566">
-      <c r="A566" s="55"/>
+      <c r="A566" s="56"/>
       <c r="B566" s="10"/>
       <c r="C566" s="10"/>
       <c r="D566" s="10"/>
@@ -28524,7 +28531,7 @@
       <c r="AA566" s="10"/>
     </row>
     <row r="567">
-      <c r="A567" s="55"/>
+      <c r="A567" s="56"/>
       <c r="B567" s="10"/>
       <c r="C567" s="10"/>
       <c r="D567" s="10"/>
@@ -28553,7 +28560,7 @@
       <c r="AA567" s="10"/>
     </row>
     <row r="568">
-      <c r="A568" s="55"/>
+      <c r="A568" s="56"/>
       <c r="B568" s="10"/>
       <c r="C568" s="10"/>
       <c r="D568" s="10"/>
@@ -28582,7 +28589,7 @@
       <c r="AA568" s="10"/>
     </row>
     <row r="569">
-      <c r="A569" s="55"/>
+      <c r="A569" s="56"/>
       <c r="B569" s="10"/>
       <c r="C569" s="10"/>
       <c r="D569" s="10"/>
@@ -28611,7 +28618,7 @@
       <c r="AA569" s="10"/>
     </row>
     <row r="570">
-      <c r="A570" s="55"/>
+      <c r="A570" s="56"/>
       <c r="B570" s="10"/>
       <c r="C570" s="10"/>
       <c r="D570" s="10"/>
@@ -28640,7 +28647,7 @@
       <c r="AA570" s="10"/>
     </row>
     <row r="571">
-      <c r="A571" s="55"/>
+      <c r="A571" s="56"/>
       <c r="B571" s="10"/>
       <c r="C571" s="10"/>
       <c r="D571" s="10"/>
@@ -28669,7 +28676,7 @@
       <c r="AA571" s="10"/>
     </row>
     <row r="572">
-      <c r="A572" s="55"/>
+      <c r="A572" s="56"/>
       <c r="B572" s="10"/>
       <c r="C572" s="10"/>
       <c r="D572" s="10"/>
@@ -28698,7 +28705,7 @@
       <c r="AA572" s="10"/>
     </row>
     <row r="573">
-      <c r="A573" s="55"/>
+      <c r="A573" s="56"/>
       <c r="B573" s="10"/>
       <c r="C573" s="10"/>
       <c r="D573" s="10"/>
@@ -28727,7 +28734,7 @@
       <c r="AA573" s="10"/>
     </row>
     <row r="574">
-      <c r="A574" s="55"/>
+      <c r="A574" s="56"/>
       <c r="B574" s="10"/>
       <c r="C574" s="10"/>
       <c r="D574" s="10"/>
@@ -28756,7 +28763,7 @@
       <c r="AA574" s="10"/>
     </row>
     <row r="575">
-      <c r="A575" s="55"/>
+      <c r="A575" s="56"/>
       <c r="B575" s="10"/>
       <c r="C575" s="10"/>
       <c r="D575" s="10"/>
@@ -28785,7 +28792,7 @@
       <c r="AA575" s="10"/>
     </row>
     <row r="576">
-      <c r="A576" s="55"/>
+      <c r="A576" s="56"/>
       <c r="B576" s="10"/>
       <c r="C576" s="10"/>
       <c r="D576" s="10"/>
@@ -28814,7 +28821,7 @@
       <c r="AA576" s="10"/>
     </row>
     <row r="577">
-      <c r="A577" s="55"/>
+      <c r="A577" s="56"/>
       <c r="B577" s="10"/>
       <c r="C577" s="10"/>
       <c r="D577" s="10"/>
@@ -28843,7 +28850,7 @@
       <c r="AA577" s="10"/>
     </row>
     <row r="578">
-      <c r="A578" s="55"/>
+      <c r="A578" s="56"/>
       <c r="B578" s="10"/>
       <c r="C578" s="10"/>
       <c r="D578" s="10"/>
@@ -28872,7 +28879,7 @@
       <c r="AA578" s="10"/>
     </row>
     <row r="579">
-      <c r="A579" s="55"/>
+      <c r="A579" s="56"/>
       <c r="B579" s="10"/>
       <c r="C579" s="10"/>
       <c r="D579" s="10"/>
@@ -28901,7 +28908,7 @@
       <c r="AA579" s="10"/>
     </row>
     <row r="580">
-      <c r="A580" s="55"/>
+      <c r="A580" s="56"/>
       <c r="B580" s="10"/>
       <c r="C580" s="10"/>
       <c r="D580" s="10"/>
@@ -28930,7 +28937,7 @@
       <c r="AA580" s="10"/>
     </row>
     <row r="581">
-      <c r="A581" s="55"/>
+      <c r="A581" s="56"/>
       <c r="B581" s="10"/>
       <c r="C581" s="10"/>
       <c r="D581" s="10"/>
@@ -28959,7 +28966,7 @@
       <c r="AA581" s="10"/>
     </row>
     <row r="582">
-      <c r="A582" s="55"/>
+      <c r="A582" s="56"/>
       <c r="B582" s="10"/>
       <c r="C582" s="10"/>
       <c r="D582" s="10"/>
@@ -28988,7 +28995,7 @@
       <c r="AA582" s="10"/>
     </row>
     <row r="583">
-      <c r="A583" s="55"/>
+      <c r="A583" s="56"/>
       <c r="B583" s="10"/>
       <c r="C583" s="10"/>
       <c r="D583" s="10"/>
@@ -29017,7 +29024,7 @@
       <c r="AA583" s="10"/>
     </row>
     <row r="584">
-      <c r="A584" s="55"/>
+      <c r="A584" s="56"/>
       <c r="B584" s="10"/>
       <c r="C584" s="10"/>
       <c r="D584" s="10"/>
@@ -29046,7 +29053,7 @@
       <c r="AA584" s="10"/>
     </row>
     <row r="585">
-      <c r="A585" s="55"/>
+      <c r="A585" s="56"/>
       <c r="B585" s="10"/>
       <c r="C585" s="10"/>
       <c r="D585" s="10"/>
@@ -29075,7 +29082,7 @@
       <c r="AA585" s="10"/>
     </row>
     <row r="586">
-      <c r="A586" s="55"/>
+      <c r="A586" s="56"/>
       <c r="B586" s="10"/>
       <c r="C586" s="10"/>
       <c r="D586" s="10"/>
@@ -29104,7 +29111,7 @@
       <c r="AA586" s="10"/>
     </row>
     <row r="587">
-      <c r="A587" s="55"/>
+      <c r="A587" s="56"/>
       <c r="B587" s="10"/>
       <c r="C587" s="10"/>
       <c r="D587" s="10"/>
@@ -29133,7 +29140,7 @@
       <c r="AA587" s="10"/>
     </row>
     <row r="588">
-      <c r="A588" s="55"/>
+      <c r="A588" s="56"/>
       <c r="B588" s="10"/>
       <c r="C588" s="10"/>
       <c r="D588" s="10"/>
@@ -29162,7 +29169,7 @@
       <c r="AA588" s="10"/>
     </row>
     <row r="589">
-      <c r="A589" s="55"/>
+      <c r="A589" s="56"/>
       <c r="B589" s="10"/>
       <c r="C589" s="10"/>
       <c r="D589" s="10"/>
@@ -29191,7 +29198,7 @@
       <c r="AA589" s="10"/>
     </row>
     <row r="590">
-      <c r="A590" s="55"/>
+      <c r="A590" s="56"/>
       <c r="B590" s="10"/>
       <c r="C590" s="10"/>
       <c r="D590" s="10"/>
@@ -29220,7 +29227,7 @@
       <c r="AA590" s="10"/>
     </row>
     <row r="591">
-      <c r="A591" s="55"/>
+      <c r="A591" s="56"/>
       <c r="B591" s="10"/>
       <c r="C591" s="10"/>
       <c r="D591" s="10"/>
@@ -29249,7 +29256,7 @@
       <c r="AA591" s="10"/>
     </row>
     <row r="592">
-      <c r="A592" s="55"/>
+      <c r="A592" s="56"/>
       <c r="B592" s="10"/>
       <c r="C592" s="10"/>
       <c r="D592" s="10"/>
@@ -29278,7 +29285,7 @@
       <c r="AA592" s="10"/>
     </row>
     <row r="593">
-      <c r="A593" s="55"/>
+      <c r="A593" s="56"/>
       <c r="B593" s="10"/>
       <c r="C593" s="10"/>
       <c r="D593" s="10"/>
@@ -29307,7 +29314,7 @@
       <c r="AA593" s="10"/>
     </row>
     <row r="594">
-      <c r="A594" s="55"/>
+      <c r="A594" s="56"/>
       <c r="B594" s="10"/>
       <c r="C594" s="10"/>
       <c r="D594" s="10"/>
@@ -29336,7 +29343,7 @@
       <c r="AA594" s="10"/>
     </row>
     <row r="595">
-      <c r="A595" s="55"/>
+      <c r="A595" s="56"/>
       <c r="B595" s="10"/>
       <c r="C595" s="10"/>
       <c r="D595" s="10"/>
@@ -29365,7 +29372,7 @@
       <c r="AA595" s="10"/>
     </row>
     <row r="596">
-      <c r="A596" s="55"/>
+      <c r="A596" s="56"/>
       <c r="B596" s="10"/>
       <c r="C596" s="10"/>
       <c r="D596" s="10"/>
@@ -29394,7 +29401,7 @@
       <c r="AA596" s="10"/>
     </row>
     <row r="597">
-      <c r="A597" s="55"/>
+      <c r="A597" s="56"/>
       <c r="B597" s="10"/>
       <c r="C597" s="10"/>
       <c r="D597" s="10"/>
@@ -29423,7 +29430,7 @@
       <c r="AA597" s="10"/>
     </row>
     <row r="598">
-      <c r="A598" s="55"/>
+      <c r="A598" s="56"/>
       <c r="B598" s="10"/>
       <c r="C598" s="10"/>
       <c r="D598" s="10"/>
@@ -29452,7 +29459,7 @@
       <c r="AA598" s="10"/>
     </row>
     <row r="599">
-      <c r="A599" s="55"/>
+      <c r="A599" s="56"/>
       <c r="B599" s="10"/>
       <c r="C599" s="10"/>
       <c r="D599" s="10"/>
@@ -29481,7 +29488,7 @@
       <c r="AA599" s="10"/>
     </row>
     <row r="600">
-      <c r="A600" s="55"/>
+      <c r="A600" s="56"/>
       <c r="B600" s="10"/>
       <c r="C600" s="10"/>
       <c r="D600" s="10"/>
@@ -29510,7 +29517,7 @@
       <c r="AA600" s="10"/>
     </row>
     <row r="601">
-      <c r="A601" s="55"/>
+      <c r="A601" s="56"/>
       <c r="B601" s="10"/>
       <c r="C601" s="10"/>
       <c r="D601" s="10"/>
@@ -29539,7 +29546,7 @@
       <c r="AA601" s="10"/>
     </row>
     <row r="602">
-      <c r="A602" s="55"/>
+      <c r="A602" s="56"/>
       <c r="B602" s="10"/>
       <c r="C602" s="10"/>
       <c r="D602" s="10"/>
@@ -29568,7 +29575,7 @@
       <c r="AA602" s="10"/>
     </row>
     <row r="603">
-      <c r="A603" s="55"/>
+      <c r="A603" s="56"/>
       <c r="B603" s="10"/>
       <c r="C603" s="10"/>
       <c r="D603" s="10"/>
@@ -29597,7 +29604,7 @@
       <c r="AA603" s="10"/>
     </row>
     <row r="604">
-      <c r="A604" s="55"/>
+      <c r="A604" s="56"/>
       <c r="B604" s="10"/>
       <c r="C604" s="10"/>
       <c r="D604" s="10"/>
@@ -29626,7 +29633,7 @@
       <c r="AA604" s="10"/>
     </row>
     <row r="605">
-      <c r="A605" s="55"/>
+      <c r="A605" s="56"/>
       <c r="B605" s="10"/>
       <c r="C605" s="10"/>
       <c r="D605" s="10"/>
@@ -29655,7 +29662,7 @@
       <c r="AA605" s="10"/>
     </row>
     <row r="606">
-      <c r="A606" s="55"/>
+      <c r="A606" s="56"/>
       <c r="B606" s="10"/>
       <c r="C606" s="10"/>
       <c r="D606" s="10"/>
@@ -29684,7 +29691,7 @@
       <c r="AA606" s="10"/>
     </row>
     <row r="607">
-      <c r="A607" s="55"/>
+      <c r="A607" s="56"/>
       <c r="B607" s="10"/>
       <c r="C607" s="10"/>
       <c r="D607" s="10"/>
@@ -29713,7 +29720,7 @@
       <c r="AA607" s="10"/>
     </row>
     <row r="608">
-      <c r="A608" s="55"/>
+      <c r="A608" s="56"/>
       <c r="B608" s="10"/>
       <c r="C608" s="10"/>
       <c r="D608" s="10"/>
@@ -29742,7 +29749,7 @@
       <c r="AA608" s="10"/>
     </row>
     <row r="609">
-      <c r="A609" s="55"/>
+      <c r="A609" s="56"/>
       <c r="B609" s="10"/>
       <c r="C609" s="10"/>
       <c r="D609" s="10"/>
@@ -29771,7 +29778,7 @@
       <c r="AA609" s="10"/>
     </row>
     <row r="610">
-      <c r="A610" s="55"/>
+      <c r="A610" s="56"/>
       <c r="B610" s="10"/>
       <c r="C610" s="10"/>
       <c r="D610" s="10"/>
@@ -29800,7 +29807,7 @@
       <c r="AA610" s="10"/>
     </row>
     <row r="611">
-      <c r="A611" s="55"/>
+      <c r="A611" s="56"/>
       <c r="B611" s="10"/>
       <c r="C611" s="10"/>
       <c r="D611" s="10"/>
@@ -29829,7 +29836,7 @@
       <c r="AA611" s="10"/>
     </row>
     <row r="612">
-      <c r="A612" s="55"/>
+      <c r="A612" s="56"/>
       <c r="B612" s="10"/>
       <c r="C612" s="10"/>
       <c r="D612" s="10"/>
@@ -29858,7 +29865,7 @@
       <c r="AA612" s="10"/>
     </row>
     <row r="613">
-      <c r="A613" s="55"/>
+      <c r="A613" s="56"/>
       <c r="B613" s="10"/>
       <c r="C613" s="10"/>
       <c r="D613" s="10"/>
@@ -29887,7 +29894,7 @@
       <c r="AA613" s="10"/>
     </row>
     <row r="614">
-      <c r="A614" s="55"/>
+      <c r="A614" s="56"/>
       <c r="B614" s="10"/>
       <c r="C614" s="10"/>
       <c r="D614" s="10"/>
@@ -29916,7 +29923,7 @@
       <c r="AA614" s="10"/>
     </row>
     <row r="615">
-      <c r="A615" s="55"/>
+      <c r="A615" s="56"/>
       <c r="B615" s="10"/>
       <c r="C615" s="10"/>
       <c r="D615" s="10"/>
@@ -29945,7 +29952,7 @@
       <c r="AA615" s="10"/>
     </row>
     <row r="616">
-      <c r="A616" s="55"/>
+      <c r="A616" s="56"/>
       <c r="B616" s="10"/>
       <c r="C616" s="10"/>
       <c r="D616" s="10"/>
@@ -29974,7 +29981,7 @@
       <c r="AA616" s="10"/>
     </row>
     <row r="617">
-      <c r="A617" s="55"/>
+      <c r="A617" s="56"/>
       <c r="B617" s="10"/>
       <c r="C617" s="10"/>
       <c r="D617" s="10"/>
@@ -30003,7 +30010,7 @@
       <c r="AA617" s="10"/>
     </row>
     <row r="618">
-      <c r="A618" s="55"/>
+      <c r="A618" s="56"/>
       <c r="B618" s="10"/>
       <c r="C618" s="10"/>
       <c r="D618" s="10"/>
@@ -30032,7 +30039,7 @@
       <c r="AA618" s="10"/>
     </row>
     <row r="619">
-      <c r="A619" s="55"/>
+      <c r="A619" s="56"/>
       <c r="B619" s="10"/>
       <c r="C619" s="10"/>
       <c r="D619" s="10"/>
@@ -30061,7 +30068,7 @@
       <c r="AA619" s="10"/>
     </row>
     <row r="620">
-      <c r="A620" s="55"/>
+      <c r="A620" s="56"/>
       <c r="B620" s="10"/>
       <c r="C620" s="10"/>
       <c r="D620" s="10"/>
@@ -30090,7 +30097,7 @@
       <c r="AA620" s="10"/>
     </row>
     <row r="621">
-      <c r="A621" s="55"/>
+      <c r="A621" s="56"/>
       <c r="B621" s="10"/>
       <c r="C621" s="10"/>
       <c r="D621" s="10"/>
@@ -30119,7 +30126,7 @@
       <c r="AA621" s="10"/>
     </row>
     <row r="622">
-      <c r="A622" s="55"/>
+      <c r="A622" s="56"/>
       <c r="B622" s="10"/>
       <c r="C622" s="10"/>
       <c r="D622" s="10"/>
@@ -30148,7 +30155,7 @@
       <c r="AA622" s="10"/>
     </row>
     <row r="623">
-      <c r="A623" s="55"/>
+      <c r="A623" s="56"/>
       <c r="B623" s="10"/>
       <c r="C623" s="10"/>
       <c r="D623" s="10"/>
@@ -30177,7 +30184,7 @@
       <c r="AA623" s="10"/>
     </row>
     <row r="624">
-      <c r="A624" s="55"/>
+      <c r="A624" s="56"/>
       <c r="B624" s="10"/>
       <c r="C624" s="10"/>
       <c r="D624" s="10"/>
@@ -30206,7 +30213,7 @@
       <c r="AA624" s="10"/>
     </row>
     <row r="625">
-      <c r="A625" s="55"/>
+      <c r="A625" s="56"/>
       <c r="B625" s="10"/>
       <c r="C625" s="10"/>
       <c r="D625" s="10"/>
@@ -30235,7 +30242,7 @@
       <c r="AA625" s="10"/>
     </row>
     <row r="626">
-      <c r="A626" s="55"/>
+      <c r="A626" s="56"/>
       <c r="B626" s="10"/>
       <c r="C626" s="10"/>
       <c r="D626" s="10"/>
@@ -30264,7 +30271,7 @@
       <c r="AA626" s="10"/>
     </row>
     <row r="627">
-      <c r="A627" s="55"/>
+      <c r="A627" s="56"/>
       <c r="B627" s="10"/>
       <c r="C627" s="10"/>
       <c r="D627" s="10"/>
@@ -30293,7 +30300,7 @@
       <c r="AA627" s="10"/>
     </row>
     <row r="628">
-      <c r="A628" s="55"/>
+      <c r="A628" s="56"/>
       <c r="B628" s="10"/>
       <c r="C628" s="10"/>
       <c r="D628" s="10"/>
@@ -30322,7 +30329,7 @@
       <c r="AA628" s="10"/>
     </row>
     <row r="629">
-      <c r="A629" s="55"/>
+      <c r="A629" s="56"/>
       <c r="B629" s="10"/>
       <c r="C629" s="10"/>
       <c r="D629" s="10"/>
@@ -30351,7 +30358,7 @@
       <c r="AA629" s="10"/>
     </row>
     <row r="630">
-      <c r="A630" s="55"/>
+      <c r="A630" s="56"/>
       <c r="B630" s="10"/>
       <c r="C630" s="10"/>
       <c r="D630" s="10"/>
@@ -30380,7 +30387,7 @@
       <c r="AA630" s="10"/>
     </row>
     <row r="631">
-      <c r="A631" s="55"/>
+      <c r="A631" s="56"/>
       <c r="B631" s="10"/>
       <c r="C631" s="10"/>
       <c r="D631" s="10"/>
@@ -30409,7 +30416,7 @@
       <c r="AA631" s="10"/>
     </row>
     <row r="632">
-      <c r="A632" s="55"/>
+      <c r="A632" s="56"/>
       <c r="B632" s="10"/>
       <c r="C632" s="10"/>
       <c r="D632" s="10"/>
@@ -30438,7 +30445,7 @@
       <c r="AA632" s="10"/>
     </row>
     <row r="633">
-      <c r="A633" s="55"/>
+      <c r="A633" s="56"/>
       <c r="B633" s="10"/>
       <c r="C633" s="10"/>
       <c r="D633" s="10"/>
@@ -30467,7 +30474,7 @@
       <c r="AA633" s="10"/>
     </row>
     <row r="634">
-      <c r="A634" s="55"/>
+      <c r="A634" s="56"/>
       <c r="B634" s="10"/>
       <c r="C634" s="10"/>
       <c r="D634" s="10"/>
@@ -30496,7 +30503,7 @@
       <c r="AA634" s="10"/>
     </row>
     <row r="635">
-      <c r="A635" s="55"/>
+      <c r="A635" s="56"/>
       <c r="B635" s="10"/>
       <c r="C635" s="10"/>
       <c r="D635" s="10"/>
@@ -30525,7 +30532,7 @@
       <c r="AA635" s="10"/>
     </row>
     <row r="636">
-      <c r="A636" s="55"/>
+      <c r="A636" s="56"/>
       <c r="B636" s="10"/>
       <c r="C636" s="10"/>
       <c r="D636" s="10"/>
@@ -30554,7 +30561,7 @@
       <c r="AA636" s="10"/>
     </row>
     <row r="637">
-      <c r="A637" s="55"/>
+      <c r="A637" s="56"/>
       <c r="B637" s="10"/>
       <c r="C637" s="10"/>
       <c r="D637" s="10"/>
@@ -30583,7 +30590,7 @@
       <c r="AA637" s="10"/>
     </row>
     <row r="638">
-      <c r="A638" s="55"/>
+      <c r="A638" s="56"/>
       <c r="B638" s="10"/>
       <c r="C638" s="10"/>
       <c r="D638" s="10"/>
@@ -30612,7 +30619,7 @@
       <c r="AA638" s="10"/>
     </row>
     <row r="639">
-      <c r="A639" s="55"/>
+      <c r="A639" s="56"/>
       <c r="B639" s="10"/>
       <c r="C639" s="10"/>
       <c r="D639" s="10"/>
@@ -30641,7 +30648,7 @@
       <c r="AA639" s="10"/>
     </row>
     <row r="640">
-      <c r="A640" s="55"/>
+      <c r="A640" s="56"/>
       <c r="B640" s="10"/>
       <c r="C640" s="10"/>
       <c r="D640" s="10"/>
@@ -30670,7 +30677,7 @@
       <c r="AA640" s="10"/>
     </row>
     <row r="641">
-      <c r="A641" s="55"/>
+      <c r="A641" s="56"/>
       <c r="B641" s="10"/>
       <c r="C641" s="10"/>
       <c r="D641" s="10"/>
@@ -30699,7 +30706,7 @@
       <c r="AA641" s="10"/>
     </row>
     <row r="642">
-      <c r="A642" s="55"/>
+      <c r="A642" s="56"/>
       <c r="B642" s="10"/>
       <c r="C642" s="10"/>
       <c r="D642" s="10"/>
@@ -30728,7 +30735,7 @@
       <c r="AA642" s="10"/>
     </row>
     <row r="643">
-      <c r="A643" s="55"/>
+      <c r="A643" s="56"/>
       <c r="B643" s="10"/>
       <c r="C643" s="10"/>
       <c r="D643" s="10"/>
@@ -30757,7 +30764,7 @@
       <c r="AA643" s="10"/>
     </row>
     <row r="644">
-      <c r="A644" s="55"/>
+      <c r="A644" s="56"/>
       <c r="B644" s="10"/>
       <c r="C644" s="10"/>
       <c r="D644" s="10"/>
@@ -30786,7 +30793,7 @@
       <c r="AA644" s="10"/>
     </row>
     <row r="645">
-      <c r="A645" s="55"/>
+      <c r="A645" s="56"/>
       <c r="B645" s="10"/>
       <c r="C645" s="10"/>
       <c r="D645" s="10"/>
@@ -30815,7 +30822,7 @@
       <c r="AA645" s="10"/>
     </row>
     <row r="646">
-      <c r="A646" s="55"/>
+      <c r="A646" s="56"/>
       <c r="B646" s="10"/>
       <c r="C646" s="10"/>
       <c r="D646" s="10"/>
@@ -30844,7 +30851,7 @@
       <c r="AA646" s="10"/>
     </row>
     <row r="647">
-      <c r="A647" s="55"/>
+      <c r="A647" s="56"/>
       <c r="B647" s="10"/>
       <c r="C647" s="10"/>
       <c r="D647" s="10"/>
@@ -30873,7 +30880,7 @@
       <c r="AA647" s="10"/>
     </row>
     <row r="648">
-      <c r="A648" s="55"/>
+      <c r="A648" s="56"/>
       <c r="B648" s="10"/>
       <c r="C648" s="10"/>
       <c r="D648" s="10"/>
@@ -30902,7 +30909,7 @@
       <c r="AA648" s="10"/>
     </row>
     <row r="649">
-      <c r="A649" s="55"/>
+      <c r="A649" s="56"/>
       <c r="B649" s="10"/>
       <c r="C649" s="10"/>
       <c r="D649" s="10"/>
@@ -30931,7 +30938,7 @@
       <c r="AA649" s="10"/>
     </row>
     <row r="650">
-      <c r="A650" s="55"/>
+      <c r="A650" s="56"/>
       <c r="B650" s="10"/>
       <c r="C650" s="10"/>
       <c r="D650" s="10"/>
@@ -30960,7 +30967,7 @@
       <c r="AA650" s="10"/>
     </row>
     <row r="651">
-      <c r="A651" s="55"/>
+      <c r="A651" s="56"/>
       <c r="B651" s="10"/>
       <c r="C651" s="10"/>
       <c r="D651" s="10"/>
@@ -30989,7 +30996,7 @@
       <c r="AA651" s="10"/>
     </row>
     <row r="652">
-      <c r="A652" s="55"/>
+      <c r="A652" s="56"/>
       <c r="B652" s="10"/>
       <c r="C652" s="10"/>
       <c r="D652" s="10"/>
@@ -31018,7 +31025,7 @@
       <c r="AA652" s="10"/>
     </row>
     <row r="653">
-      <c r="A653" s="55"/>
+      <c r="A653" s="56"/>
       <c r="B653" s="10"/>
       <c r="C653" s="10"/>
       <c r="D653" s="10"/>
@@ -31047,7 +31054,7 @@
       <c r="AA653" s="10"/>
     </row>
     <row r="654">
-      <c r="A654" s="55"/>
+      <c r="A654" s="56"/>
       <c r="B654" s="10"/>
       <c r="C654" s="10"/>
       <c r="D654" s="10"/>
@@ -31076,7 +31083,7 @@
       <c r="AA654" s="10"/>
     </row>
     <row r="655">
-      <c r="A655" s="55"/>
+      <c r="A655" s="56"/>
       <c r="B655" s="10"/>
       <c r="C655" s="10"/>
       <c r="D655" s="10"/>
@@ -31105,7 +31112,7 @@
       <c r="AA655" s="10"/>
     </row>
     <row r="656">
-      <c r="A656" s="55"/>
+      <c r="A656" s="56"/>
       <c r="B656" s="10"/>
       <c r="C656" s="10"/>
       <c r="D656" s="10"/>
@@ -31134,7 +31141,7 @@
       <c r="AA656" s="10"/>
     </row>
     <row r="657">
-      <c r="A657" s="55"/>
+      <c r="A657" s="56"/>
       <c r="B657" s="10"/>
       <c r="C657" s="10"/>
       <c r="D657" s="10"/>
@@ -31163,7 +31170,7 @@
       <c r="AA657" s="10"/>
     </row>
     <row r="658">
-      <c r="A658" s="55"/>
+      <c r="A658" s="56"/>
       <c r="B658" s="10"/>
       <c r="C658" s="10"/>
       <c r="D658" s="10"/>
@@ -31192,7 +31199,7 @@
       <c r="AA658" s="10"/>
     </row>
     <row r="659">
-      <c r="A659" s="55"/>
+      <c r="A659" s="56"/>
       <c r="B659" s="10"/>
       <c r="C659" s="10"/>
       <c r="D659" s="10"/>
@@ -31221,7 +31228,7 @@
       <c r="AA659" s="10"/>
     </row>
     <row r="660">
-      <c r="A660" s="55"/>
+      <c r="A660" s="56"/>
       <c r="B660" s="10"/>
       <c r="C660" s="10"/>
       <c r="D660" s="10"/>
@@ -31250,7 +31257,7 @@
       <c r="AA660" s="10"/>
     </row>
     <row r="661">
-      <c r="A661" s="55"/>
+      <c r="A661" s="56"/>
       <c r="B661" s="10"/>
       <c r="C661" s="10"/>
       <c r="D661" s="10"/>
@@ -31279,7 +31286,7 @@
       <c r="AA661" s="10"/>
     </row>
     <row r="662">
-      <c r="A662" s="55"/>
+      <c r="A662" s="56"/>
       <c r="B662" s="10"/>
       <c r="C662" s="10"/>
       <c r="D662" s="10"/>
@@ -31308,7 +31315,7 @@
       <c r="AA662" s="10"/>
     </row>
     <row r="663">
-      <c r="A663" s="55"/>
+      <c r="A663" s="56"/>
       <c r="B663" s="10"/>
       <c r="C663" s="10"/>
       <c r="D663" s="10"/>
@@ -31337,7 +31344,7 @@
       <c r="AA663" s="10"/>
     </row>
     <row r="664">
-      <c r="A664" s="55"/>
+      <c r="A664" s="56"/>
       <c r="B664" s="10"/>
       <c r="C664" s="10"/>
       <c r="D664" s="10"/>
@@ -31366,7 +31373,7 @@
       <c r="AA664" s="10"/>
     </row>
     <row r="665">
-      <c r="A665" s="55"/>
+      <c r="A665" s="56"/>
       <c r="B665" s="10"/>
       <c r="C665" s="10"/>
       <c r="D665" s="10"/>
@@ -31395,7 +31402,7 @@
       <c r="AA665" s="10"/>
     </row>
     <row r="666">
-      <c r="A666" s="55"/>
+      <c r="A666" s="56"/>
       <c r="B666" s="10"/>
       <c r="C666" s="10"/>
       <c r="D666" s="10"/>
@@ -31424,7 +31431,7 @@
       <c r="AA666" s="10"/>
     </row>
     <row r="667">
-      <c r="A667" s="55"/>
+      <c r="A667" s="56"/>
       <c r="B667" s="10"/>
       <c r="C667" s="10"/>
       <c r="D667" s="10"/>
@@ -31453,7 +31460,7 @@
       <c r="AA667" s="10"/>
     </row>
     <row r="668">
-      <c r="A668" s="55"/>
+      <c r="A668" s="56"/>
       <c r="B668" s="10"/>
       <c r="C668" s="10"/>
       <c r="D668" s="10"/>
@@ -31482,7 +31489,7 @@
       <c r="AA668" s="10"/>
     </row>
     <row r="669">
-      <c r="A669" s="55"/>
+      <c r="A669" s="56"/>
       <c r="B669" s="10"/>
       <c r="C669" s="10"/>
       <c r="D669" s="10"/>
@@ -31511,7 +31518,7 @@
       <c r="AA669" s="10"/>
     </row>
     <row r="670">
-      <c r="A670" s="55"/>
+      <c r="A670" s="56"/>
       <c r="B670" s="10"/>
       <c r="C670" s="10"/>
       <c r="D670" s="10"/>
@@ -31540,7 +31547,7 @@
       <c r="AA670" s="10"/>
     </row>
     <row r="671">
-      <c r="A671" s="55"/>
+      <c r="A671" s="56"/>
       <c r="B671" s="10"/>
       <c r="C671" s="10"/>
       <c r="D671" s="10"/>
@@ -31569,7 +31576,7 @@
       <c r="AA671" s="10"/>
     </row>
     <row r="672">
-      <c r="A672" s="55"/>
+      <c r="A672" s="56"/>
       <c r="B672" s="10"/>
       <c r="C672" s="10"/>
       <c r="D672" s="10"/>
@@ -31598,7 +31605,7 @@
       <c r="AA672" s="10"/>
     </row>
     <row r="673">
-      <c r="A673" s="55"/>
+      <c r="A673" s="56"/>
       <c r="B673" s="10"/>
       <c r="C673" s="10"/>
       <c r="D673" s="10"/>
@@ -31627,7 +31634,7 @@
       <c r="AA673" s="10"/>
     </row>
     <row r="674">
-      <c r="A674" s="55"/>
+      <c r="A674" s="56"/>
       <c r="B674" s="10"/>
       <c r="C674" s="10"/>
       <c r="D674" s="10"/>
@@ -31656,7 +31663,7 @@
       <c r="AA674" s="10"/>
     </row>
     <row r="675">
-      <c r="A675" s="55"/>
+      <c r="A675" s="56"/>
       <c r="B675" s="10"/>
       <c r="C675" s="10"/>
       <c r="D675" s="10"/>
@@ -31685,7 +31692,7 @@
       <c r="AA675" s="10"/>
     </row>
     <row r="676">
-      <c r="A676" s="55"/>
+      <c r="A676" s="56"/>
       <c r="B676" s="10"/>
       <c r="C676" s="10"/>
       <c r="D676" s="10"/>
@@ -31714,7 +31721,7 @@
       <c r="AA676" s="10"/>
     </row>
     <row r="677">
-      <c r="A677" s="55"/>
+      <c r="A677" s="56"/>
       <c r="B677" s="10"/>
       <c r="C677" s="10"/>
       <c r="D677" s="10"/>
@@ -31743,7 +31750,7 @@
       <c r="AA677" s="10"/>
     </row>
     <row r="678">
-      <c r="A678" s="55"/>
+      <c r="A678" s="56"/>
       <c r="B678" s="10"/>
       <c r="C678" s="10"/>
       <c r="D678" s="10"/>
@@ -31772,7 +31779,7 @@
       <c r="AA678" s="10"/>
     </row>
     <row r="679">
-      <c r="A679" s="55"/>
+      <c r="A679" s="56"/>
       <c r="B679" s="10"/>
       <c r="C679" s="10"/>
       <c r="D679" s="10"/>
@@ -31801,7 +31808,7 @@
       <c r="AA679" s="10"/>
     </row>
     <row r="680">
-      <c r="A680" s="55"/>
+      <c r="A680" s="56"/>
       <c r="B680" s="10"/>
       <c r="C680" s="10"/>
       <c r="D680" s="10"/>
@@ -31830,7 +31837,7 @@
       <c r="AA680" s="10"/>
     </row>
     <row r="681">
-      <c r="A681" s="55"/>
+      <c r="A681" s="56"/>
       <c r="B681" s="10"/>
       <c r="C681" s="10"/>
       <c r="D681" s="10"/>
@@ -31859,7 +31866,7 @@
       <c r="AA681" s="10"/>
     </row>
     <row r="682">
-      <c r="A682" s="55"/>
+      <c r="A682" s="56"/>
       <c r="B682" s="10"/>
       <c r="C682" s="10"/>
       <c r="D682" s="10"/>
@@ -31888,7 +31895,7 @@
       <c r="AA682" s="10"/>
     </row>
     <row r="683">
-      <c r="A683" s="55"/>
+      <c r="A683" s="56"/>
       <c r="B683" s="10"/>
       <c r="C683" s="10"/>
       <c r="D683" s="10"/>
@@ -31917,7 +31924,7 @@
       <c r="AA683" s="10"/>
     </row>
     <row r="684">
-      <c r="A684" s="55"/>
+      <c r="A684" s="56"/>
       <c r="B684" s="10"/>
       <c r="C684" s="10"/>
       <c r="D684" s="10"/>
@@ -31946,7 +31953,7 @@
       <c r="AA684" s="10"/>
     </row>
     <row r="685">
-      <c r="A685" s="55"/>
+      <c r="A685" s="56"/>
       <c r="B685" s="10"/>
       <c r="C685" s="10"/>
       <c r="D685" s="10"/>
@@ -31975,7 +31982,7 @@
       <c r="AA685" s="10"/>
     </row>
     <row r="686">
-      <c r="A686" s="55"/>
+      <c r="A686" s="56"/>
       <c r="B686" s="10"/>
       <c r="C686" s="10"/>
       <c r="D686" s="10"/>
@@ -32004,7 +32011,7 @@
       <c r="AA686" s="10"/>
     </row>
     <row r="687">
-      <c r="A687" s="55"/>
+      <c r="A687" s="56"/>
       <c r="B687" s="10"/>
       <c r="C687" s="10"/>
       <c r="D687" s="10"/>
@@ -32033,7 +32040,7 @@
       <c r="AA687" s="10"/>
     </row>
     <row r="688">
-      <c r="A688" s="55"/>
+      <c r="A688" s="56"/>
       <c r="B688" s="10"/>
       <c r="C688" s="10"/>
       <c r="D688" s="10"/>
@@ -32062,7 +32069,7 @@
       <c r="AA688" s="10"/>
     </row>
     <row r="689">
-      <c r="A689" s="55"/>
+      <c r="A689" s="56"/>
       <c r="B689" s="10"/>
       <c r="C689" s="10"/>
       <c r="D689" s="10"/>
@@ -32091,7 +32098,7 @@
       <c r="AA689" s="10"/>
     </row>
     <row r="690">
-      <c r="A690" s="55"/>
+      <c r="A690" s="56"/>
       <c r="B690" s="10"/>
       <c r="C690" s="10"/>
       <c r="D690" s="10"/>
@@ -32120,7 +32127,7 @@
       <c r="AA690" s="10"/>
     </row>
     <row r="691">
-      <c r="A691" s="55"/>
+      <c r="A691" s="56"/>
       <c r="B691" s="10"/>
       <c r="C691" s="10"/>
       <c r="D691" s="10"/>
@@ -32149,7 +32156,7 @@
       <c r="AA691" s="10"/>
     </row>
     <row r="692">
-      <c r="A692" s="55"/>
+      <c r="A692" s="56"/>
       <c r="B692" s="10"/>
       <c r="C692" s="10"/>
       <c r="D692" s="10"/>
@@ -32178,7 +32185,7 @@
       <c r="AA692" s="10"/>
     </row>
     <row r="693">
-      <c r="A693" s="55"/>
+      <c r="A693" s="56"/>
       <c r="B693" s="10"/>
       <c r="C693" s="10"/>
       <c r="D693" s="10"/>
@@ -32207,7 +32214,7 @@
       <c r="AA693" s="10"/>
     </row>
     <row r="694">
-      <c r="A694" s="55"/>
+      <c r="A694" s="56"/>
       <c r="B694" s="10"/>
       <c r="C694" s="10"/>
       <c r="D694" s="10"/>
@@ -32236,7 +32243,7 @@
       <c r="AA694" s="10"/>
     </row>
     <row r="695">
-      <c r="A695" s="55"/>
+      <c r="A695" s="56"/>
       <c r="B695" s="10"/>
       <c r="C695" s="10"/>
       <c r="D695" s="10"/>
@@ -32265,7 +32272,7 @@
       <c r="AA695" s="10"/>
     </row>
     <row r="696">
-      <c r="A696" s="55"/>
+      <c r="A696" s="56"/>
       <c r="B696" s="10"/>
       <c r="C696" s="10"/>
       <c r="D696" s="10"/>
@@ -32294,7 +32301,7 @@
       <c r="AA696" s="10"/>
     </row>
     <row r="697">
-      <c r="A697" s="55"/>
+      <c r="A697" s="56"/>
       <c r="B697" s="10"/>
       <c r="C697" s="10"/>
       <c r="D697" s="10"/>
@@ -32323,7 +32330,7 @@
       <c r="AA697" s="10"/>
     </row>
     <row r="698">
-      <c r="A698" s="55"/>
+      <c r="A698" s="56"/>
       <c r="B698" s="10"/>
       <c r="C698" s="10"/>
       <c r="D698" s="10"/>
@@ -32352,7 +32359,7 @@
       <c r="AA698" s="10"/>
     </row>
     <row r="699">
-      <c r="A699" s="55"/>
+      <c r="A699" s="56"/>
       <c r="B699" s="10"/>
       <c r="C699" s="10"/>
       <c r="D699" s="10"/>
@@ -32381,7 +32388,7 @@
       <c r="AA699" s="10"/>
     </row>
     <row r="700">
-      <c r="A700" s="55"/>
+      <c r="A700" s="56"/>
       <c r="B700" s="10"/>
       <c r="C700" s="10"/>
       <c r="D700" s="10"/>
@@ -32410,7 +32417,7 @@
       <c r="AA700" s="10"/>
     </row>
     <row r="701">
-      <c r="A701" s="55"/>
+      <c r="A701" s="56"/>
       <c r="B701" s="10"/>
       <c r="C701" s="10"/>
       <c r="D701" s="10"/>
@@ -32439,7 +32446,7 @@
       <c r="AA701" s="10"/>
     </row>
     <row r="702">
-      <c r="A702" s="55"/>
+      <c r="A702" s="56"/>
       <c r="B702" s="10"/>
       <c r="C702" s="10"/>
       <c r="D702" s="10"/>
@@ -32468,7 +32475,7 @@
       <c r="AA702" s="10"/>
     </row>
     <row r="703">
-      <c r="A703" s="55"/>
+      <c r="A703" s="56"/>
       <c r="B703" s="10"/>
       <c r="C703" s="10"/>
       <c r="D703" s="10"/>
@@ -32497,7 +32504,7 @@
       <c r="AA703" s="10"/>
     </row>
     <row r="704">
-      <c r="A704" s="55"/>
+      <c r="A704" s="56"/>
       <c r="B704" s="10"/>
       <c r="C704" s="10"/>
       <c r="D704" s="10"/>
@@ -32526,7 +32533,7 @@
       <c r="AA704" s="10"/>
     </row>
     <row r="705">
-      <c r="A705" s="55"/>
+      <c r="A705" s="56"/>
       <c r="B705" s="10"/>
       <c r="C705" s="10"/>
       <c r="D705" s="10"/>
@@ -32555,7 +32562,7 @@
       <c r="AA705" s="10"/>
     </row>
     <row r="706">
-      <c r="A706" s="55"/>
+      <c r="A706" s="56"/>
       <c r="B706" s="10"/>
       <c r="C706" s="10"/>
       <c r="D706" s="10"/>
@@ -32584,7 +32591,7 @@
       <c r="AA706" s="10"/>
     </row>
     <row r="707">
-      <c r="A707" s="55"/>
+      <c r="A707" s="56"/>
       <c r="B707" s="10"/>
       <c r="C707" s="10"/>
       <c r="D707" s="10"/>
@@ -32613,7 +32620,7 @@
       <c r="AA707" s="10"/>
     </row>
     <row r="708">
-      <c r="A708" s="55"/>
+      <c r="A708" s="56"/>
       <c r="B708" s="10"/>
       <c r="C708" s="10"/>
       <c r="D708" s="10"/>
@@ -32642,7 +32649,7 @@
       <c r="AA708" s="10"/>
     </row>
     <row r="709">
-      <c r="A709" s="55"/>
+      <c r="A709" s="56"/>
       <c r="B709" s="10"/>
       <c r="C709" s="10"/>
       <c r="D709" s="10"/>
@@ -32671,7 +32678,7 @@
       <c r="AA709" s="10"/>
     </row>
     <row r="710">
-      <c r="A710" s="55"/>
+      <c r="A710" s="56"/>
       <c r="B710" s="10"/>
       <c r="C710" s="10"/>
       <c r="D710" s="10"/>
@@ -32700,7 +32707,7 @@
       <c r="AA710" s="10"/>
     </row>
     <row r="711">
-      <c r="A711" s="55"/>
+      <c r="A711" s="56"/>
       <c r="B711" s="10"/>
       <c r="C711" s="10"/>
       <c r="D711" s="10"/>
@@ -32729,7 +32736,7 @@
       <c r="AA711" s="10"/>
     </row>
     <row r="712">
-      <c r="A712" s="55"/>
+      <c r="A712" s="56"/>
       <c r="B712" s="10"/>
       <c r="C712" s="10"/>
       <c r="D712" s="10"/>
@@ -32758,7 +32765,7 @@
       <c r="AA712" s="10"/>
     </row>
     <row r="713">
-      <c r="A713" s="55"/>
+      <c r="A713" s="56"/>
       <c r="B713" s="10"/>
       <c r="C713" s="10"/>
       <c r="D713" s="10"/>
@@ -32787,7 +32794,7 @@
       <c r="AA713" s="10"/>
     </row>
     <row r="714">
-      <c r="A714" s="55"/>
+      <c r="A714" s="56"/>
       <c r="B714" s="10"/>
       <c r="C714" s="10"/>
       <c r="D714" s="10"/>
@@ -32816,7 +32823,7 @@
       <c r="AA714" s="10"/>
     </row>
     <row r="715">
-      <c r="A715" s="55"/>
+      <c r="A715" s="56"/>
       <c r="B715" s="10"/>
       <c r="C715" s="10"/>
       <c r="D715" s="10"/>
@@ -32845,7 +32852,7 @@
       <c r="AA715" s="10"/>
     </row>
     <row r="716">
-      <c r="A716" s="55"/>
+      <c r="A716" s="56"/>
       <c r="B716" s="10"/>
       <c r="C716" s="10"/>
       <c r="D716" s="10"/>
@@ -32874,7 +32881,7 @@
       <c r="AA716" s="10"/>
     </row>
     <row r="717">
-      <c r="A717" s="55"/>
+      <c r="A717" s="56"/>
       <c r="B717" s="10"/>
       <c r="C717" s="10"/>
       <c r="D717" s="10"/>
@@ -32903,7 +32910,7 @@
       <c r="AA717" s="10"/>
     </row>
     <row r="718">
-      <c r="A718" s="55"/>
+      <c r="A718" s="56"/>
       <c r="B718" s="10"/>
       <c r="C718" s="10"/>
       <c r="D718" s="10"/>
@@ -32932,7 +32939,7 @@
       <c r="AA718" s="10"/>
     </row>
     <row r="719">
-      <c r="A719" s="55"/>
+      <c r="A719" s="56"/>
       <c r="B719" s="10"/>
       <c r="C719" s="10"/>
       <c r="D719" s="10"/>
@@ -32961,7 +32968,7 @@
       <c r="AA719" s="10"/>
     </row>
     <row r="720">
-      <c r="A720" s="55"/>
+      <c r="A720" s="56"/>
       <c r="B720" s="10"/>
       <c r="C720" s="10"/>
       <c r="D720" s="10"/>
@@ -32990,7 +32997,7 @@
       <c r="AA720" s="10"/>
     </row>
     <row r="721">
-      <c r="A721" s="55"/>
+      <c r="A721" s="56"/>
       <c r="B721" s="10"/>
       <c r="C721" s="10"/>
       <c r="D721" s="10"/>
@@ -33019,7 +33026,7 @@
       <c r="AA721" s="10"/>
     </row>
     <row r="722">
-      <c r="A722" s="55"/>
+      <c r="A722" s="56"/>
       <c r="B722" s="10"/>
       <c r="C722" s="10"/>
       <c r="D722" s="10"/>
@@ -33048,7 +33055,7 @@
       <c r="AA722" s="10"/>
     </row>
     <row r="723">
-      <c r="A723" s="55"/>
+      <c r="A723" s="56"/>
       <c r="B723" s="10"/>
       <c r="C723" s="10"/>
       <c r="D723" s="10"/>
@@ -33077,7 +33084,7 @@
       <c r="AA723" s="10"/>
     </row>
     <row r="724">
-      <c r="A724" s="55"/>
+      <c r="A724" s="56"/>
       <c r="B724" s="10"/>
       <c r="C724" s="10"/>
       <c r="D724" s="10"/>
@@ -33106,7 +33113,7 @@
       <c r="AA724" s="10"/>
     </row>
     <row r="725">
-      <c r="A725" s="55"/>
+      <c r="A725" s="56"/>
       <c r="B725" s="10"/>
       <c r="C725" s="10"/>
       <c r="D725" s="10"/>
@@ -33135,7 +33142,7 @@
       <c r="AA725" s="10"/>
     </row>
     <row r="726">
-      <c r="A726" s="55"/>
+      <c r="A726" s="56"/>
       <c r="B726" s="10"/>
       <c r="C726" s="10"/>
       <c r="D726" s="10"/>
@@ -33164,7 +33171,7 @@
       <c r="AA726" s="10"/>
     </row>
     <row r="727">
-      <c r="A727" s="55"/>
+      <c r="A727" s="56"/>
       <c r="B727" s="10"/>
       <c r="C727" s="10"/>
       <c r="D727" s="10"/>
@@ -33193,7 +33200,7 @@
       <c r="AA727" s="10"/>
     </row>
     <row r="728">
-      <c r="A728" s="55"/>
+      <c r="A728" s="56"/>
       <c r="B728" s="10"/>
       <c r="C728" s="10"/>
       <c r="D728" s="10"/>
@@ -33222,7 +33229,7 @@
       <c r="AA728" s="10"/>
     </row>
     <row r="729">
-      <c r="A729" s="55"/>
+      <c r="A729" s="56"/>
       <c r="B729" s="10"/>
       <c r="C729" s="10"/>
       <c r="D729" s="10"/>
@@ -33251,7 +33258,7 @@
       <c r="AA729" s="10"/>
     </row>
     <row r="730">
-      <c r="A730" s="55"/>
+      <c r="A730" s="56"/>
       <c r="B730" s="10"/>
       <c r="C730" s="10"/>
       <c r="D730" s="10"/>
@@ -33280,7 +33287,7 @@
       <c r="AA730" s="10"/>
     </row>
     <row r="731">
-      <c r="A731" s="55"/>
+      <c r="A731" s="56"/>
       <c r="B731" s="10"/>
       <c r="C731" s="10"/>
       <c r="D731" s="10"/>
@@ -33309,7 +33316,7 @@
       <c r="AA731" s="10"/>
     </row>
     <row r="732">
-      <c r="A732" s="55"/>
+      <c r="A732" s="56"/>
       <c r="B732" s="10"/>
       <c r="C732" s="10"/>
       <c r="D732" s="10"/>
@@ -33338,7 +33345,7 @@
       <c r="AA732" s="10"/>
     </row>
     <row r="733">
-      <c r="A733" s="55"/>
+      <c r="A733" s="56"/>
       <c r="B733" s="10"/>
       <c r="C733" s="10"/>
       <c r="D733" s="10"/>
@@ -33367,7 +33374,7 @@
       <c r="AA733" s="10"/>
     </row>
     <row r="734">
-      <c r="A734" s="55"/>
+      <c r="A734" s="56"/>
       <c r="B734" s="10"/>
       <c r="C734" s="10"/>
       <c r="D734" s="10"/>
@@ -33396,7 +33403,7 @@
       <c r="AA734" s="10"/>
     </row>
     <row r="735">
-      <c r="A735" s="55"/>
+      <c r="A735" s="56"/>
       <c r="B735" s="10"/>
       <c r="C735" s="10"/>
       <c r="D735" s="10"/>
@@ -33425,7 +33432,7 @@
       <c r="AA735" s="10"/>
     </row>
     <row r="736">
-      <c r="A736" s="55"/>
+      <c r="A736" s="56"/>
       <c r="B736" s="10"/>
       <c r="C736" s="10"/>
       <c r="D736" s="10"/>
@@ -33454,7 +33461,7 @@
       <c r="AA736" s="10"/>
     </row>
     <row r="737">
-      <c r="A737" s="55"/>
+      <c r="A737" s="56"/>
       <c r="B737" s="10"/>
       <c r="C737" s="10"/>
       <c r="D737" s="10"/>
@@ -33483,7 +33490,7 @@
       <c r="AA737" s="10"/>
     </row>
     <row r="738">
-      <c r="A738" s="55"/>
+      <c r="A738" s="56"/>
       <c r="B738" s="10"/>
       <c r="C738" s="10"/>
       <c r="D738" s="10"/>
@@ -33512,7 +33519,7 @@
       <c r="AA738" s="10"/>
     </row>
     <row r="739">
-      <c r="A739" s="55"/>
+      <c r="A739" s="56"/>
       <c r="B739" s="10"/>
       <c r="C739" s="10"/>
       <c r="D739" s="10"/>
@@ -33541,7 +33548,7 @@
       <c r="AA739" s="10"/>
     </row>
     <row r="740">
-      <c r="A740" s="55"/>
+      <c r="A740" s="56"/>
       <c r="B740" s="10"/>
       <c r="C740" s="10"/>
       <c r="D740" s="10"/>
@@ -33570,7 +33577,7 @@
       <c r="AA740" s="10"/>
     </row>
     <row r="741">
-      <c r="A741" s="55"/>
+      <c r="A741" s="56"/>
       <c r="B741" s="10"/>
       <c r="C741" s="10"/>
       <c r="D741" s="10"/>
@@ -33599,7 +33606,7 @@
       <c r="AA741" s="10"/>
     </row>
     <row r="742">
-      <c r="A742" s="55"/>
+      <c r="A742" s="56"/>
       <c r="B742" s="10"/>
       <c r="C742" s="10"/>
       <c r="D742" s="10"/>
@@ -33628,7 +33635,7 @@
       <c r="AA742" s="10"/>
     </row>
     <row r="743">
-      <c r="A743" s="55"/>
+      <c r="A743" s="56"/>
       <c r="B743" s="10"/>
       <c r="C743" s="10"/>
       <c r="D743" s="10"/>
@@ -33657,7 +33664,7 @@
       <c r="AA743" s="10"/>
     </row>
     <row r="744">
-      <c r="A744" s="55"/>
+      <c r="A744" s="56"/>
       <c r="B744" s="10"/>
       <c r="C744" s="10"/>
       <c r="D744" s="10"/>
@@ -33686,7 +33693,7 @@
       <c r="AA744" s="10"/>
     </row>
     <row r="745">
-      <c r="A745" s="55"/>
+      <c r="A745" s="56"/>
       <c r="B745" s="10"/>
       <c r="C745" s="10"/>
       <c r="D745" s="10"/>
@@ -33715,7 +33722,7 @@
       <c r="AA745" s="10"/>
     </row>
     <row r="746">
-      <c r="A746" s="55"/>
+      <c r="A746" s="56"/>
       <c r="B746" s="10"/>
       <c r="C746" s="10"/>
       <c r="D746" s="10"/>
@@ -33744,7 +33751,7 @@
       <c r="AA746" s="10"/>
     </row>
     <row r="747">
-      <c r="A747" s="55"/>
+      <c r="A747" s="56"/>
       <c r="B747" s="10"/>
       <c r="C747" s="10"/>
       <c r="D747" s="10"/>
@@ -33773,7 +33780,7 @@
       <c r="AA747" s="10"/>
     </row>
     <row r="748">
-      <c r="A748" s="55"/>
+      <c r="A748" s="56"/>
       <c r="B748" s="10"/>
       <c r="C748" s="10"/>
       <c r="D748" s="10"/>
@@ -33802,7 +33809,7 @@
       <c r="AA748" s="10"/>
     </row>
     <row r="749">
-      <c r="A749" s="55"/>
+      <c r="A749" s="56"/>
       <c r="B749" s="10"/>
       <c r="C749" s="10"/>
       <c r="D749" s="10"/>
@@ -33831,7 +33838,7 @@
       <c r="AA749" s="10"/>
     </row>
     <row r="750">
-      <c r="A750" s="55"/>
+      <c r="A750" s="56"/>
       <c r="B750" s="10"/>
       <c r="C750" s="10"/>
       <c r="D750" s="10"/>
@@ -33860,7 +33867,7 @@
       <c r="AA750" s="10"/>
     </row>
     <row r="751">
-      <c r="A751" s="55"/>
+      <c r="A751" s="56"/>
       <c r="B751" s="10"/>
       <c r="C751" s="10"/>
       <c r="D751" s="10"/>
@@ -33889,7 +33896,7 @@
       <c r="AA751" s="10"/>
     </row>
     <row r="752">
-      <c r="A752" s="55"/>
+      <c r="A752" s="56"/>
       <c r="B752" s="10"/>
       <c r="C752" s="10"/>
       <c r="D752" s="10"/>
@@ -33918,7 +33925,7 @@
       <c r="AA752" s="10"/>
     </row>
     <row r="753">
-      <c r="A753" s="55"/>
+      <c r="A753" s="56"/>
       <c r="B753" s="10"/>
       <c r="C753" s="10"/>
       <c r="D753" s="10"/>
@@ -33947,7 +33954,7 @@
       <c r="AA753" s="10"/>
     </row>
     <row r="754">
-      <c r="A754" s="55"/>
+      <c r="A754" s="56"/>
       <c r="B754" s="10"/>
       <c r="C754" s="10"/>
       <c r="D754" s="10"/>
@@ -33976,7 +33983,7 @@
       <c r="AA754" s="10"/>
     </row>
     <row r="755">
-      <c r="A755" s="55"/>
+      <c r="A755" s="56"/>
       <c r="B755" s="10"/>
       <c r="C755" s="10"/>
       <c r="D755" s="10"/>
@@ -34005,7 +34012,7 @@
       <c r="AA755" s="10"/>
     </row>
     <row r="756">
-      <c r="A756" s="55"/>
+      <c r="A756" s="56"/>
       <c r="B756" s="10"/>
       <c r="C756" s="10"/>
       <c r="D756" s="10"/>
@@ -34034,7 +34041,7 @@
       <c r="AA756" s="10"/>
     </row>
     <row r="757">
-      <c r="A757" s="55"/>
+      <c r="A757" s="56"/>
       <c r="B757" s="10"/>
       <c r="C757" s="10"/>
       <c r="D757" s="10"/>
@@ -34063,7 +34070,7 @@
       <c r="AA757" s="10"/>
     </row>
     <row r="758">
-      <c r="A758" s="55"/>
+      <c r="A758" s="56"/>
       <c r="B758" s="10"/>
       <c r="C758" s="10"/>
       <c r="D758" s="10"/>
@@ -34092,7 +34099,7 @@
       <c r="AA758" s="10"/>
     </row>
     <row r="759">
-      <c r="A759" s="55"/>
+      <c r="A759" s="56"/>
       <c r="B759" s="10"/>
       <c r="C759" s="10"/>
       <c r="D759" s="10"/>
@@ -34121,7 +34128,7 @@
       <c r="AA759" s="10"/>
     </row>
     <row r="760">
-      <c r="A760" s="55"/>
+      <c r="A760" s="56"/>
       <c r="B760" s="10"/>
       <c r="C760" s="10"/>
       <c r="D760" s="10"/>
@@ -34150,7 +34157,7 @@
       <c r="AA760" s="10"/>
     </row>
     <row r="761">
-      <c r="A761" s="55"/>
+      <c r="A761" s="56"/>
       <c r="B761" s="10"/>
       <c r="C761" s="10"/>
       <c r="D761" s="10"/>
@@ -34179,7 +34186,7 @@
       <c r="AA761" s="10"/>
     </row>
     <row r="762">
-      <c r="A762" s="55"/>
+      <c r="A762" s="56"/>
       <c r="B762" s="10"/>
       <c r="C762" s="10"/>
       <c r="D762" s="10"/>
@@ -34208,7 +34215,7 @@
       <c r="AA762" s="10"/>
     </row>
     <row r="763">
-      <c r="A763" s="55"/>
+      <c r="A763" s="56"/>
       <c r="B763" s="10"/>
       <c r="C763" s="10"/>
       <c r="D763" s="10"/>
@@ -34237,7 +34244,7 @@
       <c r="AA763" s="10"/>
     </row>
     <row r="764">
-      <c r="A764" s="55"/>
+      <c r="A764" s="56"/>
       <c r="B764" s="10"/>
       <c r="C764" s="10"/>
       <c r="D764" s="10"/>
@@ -34266,7 +34273,7 @@
       <c r="AA764" s="10"/>
     </row>
     <row r="765">
-      <c r="A765" s="55"/>
+      <c r="A765" s="56"/>
       <c r="B765" s="10"/>
       <c r="C765" s="10"/>
       <c r="D765" s="10"/>
@@ -34295,7 +34302,7 @@
       <c r="AA765" s="10"/>
     </row>
     <row r="766">
-      <c r="A766" s="55"/>
+      <c r="A766" s="56"/>
       <c r="B766" s="10"/>
       <c r="C766" s="10"/>
       <c r="D766" s="10"/>
@@ -34324,7 +34331,7 @@
       <c r="AA766" s="10"/>
     </row>
     <row r="767">
-      <c r="A767" s="55"/>
+      <c r="A767" s="56"/>
       <c r="B767" s="10"/>
       <c r="C767" s="10"/>
       <c r="D767" s="10"/>
@@ -34353,7 +34360,7 @@
       <c r="AA767" s="10"/>
     </row>
     <row r="768">
-      <c r="A768" s="55"/>
+      <c r="A768" s="56"/>
       <c r="B768" s="10"/>
       <c r="C768" s="10"/>
       <c r="D768" s="10"/>
@@ -34382,7 +34389,7 @@
       <c r="AA768" s="10"/>
     </row>
     <row r="769">
-      <c r="A769" s="55"/>
+      <c r="A769" s="56"/>
       <c r="B769" s="10"/>
       <c r="C769" s="10"/>
       <c r="D769" s="10"/>
@@ -34411,7 +34418,7 @@
       <c r="AA769" s="10"/>
     </row>
     <row r="770">
-      <c r="A770" s="55"/>
+      <c r="A770" s="56"/>
       <c r="B770" s="10"/>
       <c r="C770" s="10"/>
       <c r="D770" s="10"/>
@@ -34440,7 +34447,7 @@
       <c r="AA770" s="10"/>
     </row>
     <row r="771">
-      <c r="A771" s="55"/>
+      <c r="A771" s="56"/>
       <c r="B771" s="10"/>
       <c r="C771" s="10"/>
       <c r="D771" s="10"/>
@@ -34469,7 +34476,7 @@
       <c r="AA771" s="10"/>
     </row>
     <row r="772">
-      <c r="A772" s="55"/>
+      <c r="A772" s="56"/>
       <c r="B772" s="10"/>
       <c r="C772" s="10"/>
       <c r="D772" s="10"/>
@@ -34498,7 +34505,7 @@
       <c r="AA772" s="10"/>
     </row>
     <row r="773">
-      <c r="A773" s="55"/>
+      <c r="A773" s="56"/>
       <c r="B773" s="10"/>
       <c r="C773" s="10"/>
       <c r="D773" s="10"/>
@@ -34527,7 +34534,7 @@
       <c r="AA773" s="10"/>
     </row>
     <row r="774">
-      <c r="A774" s="55"/>
+      <c r="A774" s="56"/>
       <c r="B774" s="10"/>
       <c r="C774" s="10"/>
       <c r="D774" s="10"/>
@@ -34556,7 +34563,7 @@
       <c r="AA774" s="10"/>
     </row>
     <row r="775">
-      <c r="A775" s="55"/>
+      <c r="A775" s="56"/>
       <c r="B775" s="10"/>
       <c r="C775" s="10"/>
       <c r="D775" s="10"/>
@@ -34585,7 +34592,7 @@
       <c r="AA775" s="10"/>
     </row>
     <row r="776">
-      <c r="A776" s="55"/>
+      <c r="A776" s="56"/>
       <c r="B776" s="10"/>
       <c r="C776" s="10"/>
       <c r="D776" s="10"/>
@@ -34614,7 +34621,7 @@
       <c r="AA776" s="10"/>
     </row>
     <row r="777">
-      <c r="A777" s="55"/>
+      <c r="A777" s="56"/>
       <c r="B777" s="10"/>
       <c r="C777" s="10"/>
       <c r="D777" s="10"/>
@@ -34643,7 +34650,7 @@
       <c r="AA777" s="10"/>
     </row>
     <row r="778">
-      <c r="A778" s="55"/>
+      <c r="A778" s="56"/>
       <c r="B778" s="10"/>
       <c r="C778" s="10"/>
       <c r="D778" s="10"/>
@@ -34672,7 +34679,7 @@
       <c r="AA778" s="10"/>
     </row>
     <row r="779">
-      <c r="A779" s="55"/>
+      <c r="A779" s="56"/>
       <c r="B779" s="10"/>
       <c r="C779" s="10"/>
       <c r="D779" s="10"/>
@@ -34701,7 +34708,7 @@
       <c r="AA779" s="10"/>
     </row>
     <row r="780">
-      <c r="A780" s="55"/>
+      <c r="A780" s="56"/>
       <c r="B780" s="10"/>
       <c r="C780" s="10"/>
       <c r="D780" s="10"/>
@@ -34730,7 +34737,7 @@
       <c r="AA780" s="10"/>
     </row>
     <row r="781">
-      <c r="A781" s="55"/>
+      <c r="A781" s="56"/>
       <c r="B781" s="10"/>
       <c r="C781" s="10"/>
       <c r="D781" s="10"/>
@@ -34759,7 +34766,7 @@
       <c r="AA781" s="10"/>
     </row>
     <row r="782">
-      <c r="A782" s="55"/>
+      <c r="A782" s="56"/>
       <c r="B782" s="10"/>
       <c r="C782" s="10"/>
       <c r="D782" s="10"/>
@@ -34788,7 +34795,7 @@
       <c r="AA782" s="10"/>
     </row>
     <row r="783">
-      <c r="A783" s="55"/>
+      <c r="A783" s="56"/>
       <c r="B783" s="10"/>
       <c r="C783" s="10"/>
       <c r="D783" s="10"/>
@@ -34817,7 +34824,7 @@
       <c r="AA783" s="10"/>
     </row>
     <row r="784">
-      <c r="A784" s="55"/>
+      <c r="A784" s="56"/>
       <c r="B784" s="10"/>
       <c r="C784" s="10"/>
       <c r="D784" s="10"/>
@@ -34846,7 +34853,7 @@
       <c r="AA784" s="10"/>
     </row>
     <row r="785">
-      <c r="A785" s="55"/>
+      <c r="A785" s="56"/>
       <c r="B785" s="10"/>
       <c r="C785" s="10"/>
       <c r="D785" s="10"/>
@@ -34875,7 +34882,7 @@
       <c r="AA785" s="10"/>
     </row>
     <row r="786">
-      <c r="A786" s="55"/>
+      <c r="A786" s="56"/>
       <c r="B786" s="10"/>
       <c r="C786" s="10"/>
       <c r="D786" s="10"/>
@@ -34904,7 +34911,7 @@
       <c r="AA786" s="10"/>
     </row>
     <row r="787">
-      <c r="A787" s="55"/>
+      <c r="A787" s="56"/>
       <c r="B787" s="10"/>
       <c r="C787" s="10"/>
       <c r="D787" s="10"/>
@@ -34933,7 +34940,7 @@
       <c r="AA787" s="10"/>
     </row>
     <row r="788">
-      <c r="A788" s="55"/>
+      <c r="A788" s="56"/>
       <c r="B788" s="10"/>
       <c r="C788" s="10"/>
       <c r="D788" s="10"/>
@@ -34962,7 +34969,7 @@
       <c r="AA788" s="10"/>
     </row>
     <row r="789">
-      <c r="A789" s="55"/>
+      <c r="A789" s="56"/>
       <c r="B789" s="10"/>
       <c r="C789" s="10"/>
       <c r="D789" s="10"/>
@@ -34991,7 +34998,7 @@
       <c r="AA789" s="10"/>
     </row>
     <row r="790">
-      <c r="A790" s="55"/>
+      <c r="A790" s="56"/>
       <c r="B790" s="10"/>
       <c r="C790" s="10"/>
       <c r="D790" s="10"/>
@@ -35020,7 +35027,7 @@
       <c r="AA790" s="10"/>
     </row>
     <row r="791">
-      <c r="A791" s="55"/>
+      <c r="A791" s="56"/>
       <c r="B791" s="10"/>
       <c r="C791" s="10"/>
       <c r="D791" s="10"/>
@@ -35049,7 +35056,7 @@
       <c r="AA791" s="10"/>
     </row>
     <row r="792">
-      <c r="A792" s="55"/>
+      <c r="A792" s="56"/>
       <c r="B792" s="10"/>
       <c r="C792" s="10"/>
       <c r="D792" s="10"/>
@@ -35078,7 +35085,7 @@
       <c r="AA792" s="10"/>
     </row>
     <row r="793">
-      <c r="A793" s="55"/>
+      <c r="A793" s="56"/>
       <c r="B793" s="10"/>
       <c r="C793" s="10"/>
       <c r="D793" s="10"/>
@@ -35107,7 +35114,7 @@
       <c r="AA793" s="10"/>
     </row>
     <row r="794">
-      <c r="A794" s="55"/>
+      <c r="A794" s="56"/>
       <c r="B794" s="10"/>
       <c r="C794" s="10"/>
       <c r="D794" s="10"/>
@@ -35136,7 +35143,7 @@
       <c r="AA794" s="10"/>
     </row>
     <row r="795">
-      <c r="A795" s="55"/>
+      <c r="A795" s="56"/>
       <c r="B795" s="10"/>
       <c r="C795" s="10"/>
       <c r="D795" s="10"/>
@@ -35165,7 +35172,7 @@
       <c r="AA795" s="10"/>
     </row>
     <row r="796">
-      <c r="A796" s="55"/>
+      <c r="A796" s="56"/>
       <c r="B796" s="10"/>
       <c r="C796" s="10"/>
       <c r="D796" s="10"/>
@@ -35194,7 +35201,7 @@
       <c r="AA796" s="10"/>
     </row>
     <row r="797">
-      <c r="A797" s="55"/>
+      <c r="A797" s="56"/>
       <c r="B797" s="10"/>
       <c r="C797" s="10"/>
       <c r="D797" s="10"/>
@@ -35223,7 +35230,7 @@
       <c r="AA797" s="10"/>
     </row>
     <row r="798">
-      <c r="A798" s="55"/>
+      <c r="A798" s="56"/>
       <c r="B798" s="10"/>
       <c r="C798" s="10"/>
       <c r="D798" s="10"/>
@@ -35252,7 +35259,7 @@
       <c r="AA798" s="10"/>
     </row>
     <row r="799">
-      <c r="A799" s="55"/>
+      <c r="A799" s="56"/>
       <c r="B799" s="10"/>
       <c r="C799" s="10"/>
       <c r="D799" s="10"/>
@@ -35281,7 +35288,7 @@
       <c r="AA799" s="10"/>
     </row>
     <row r="800">
-      <c r="A800" s="55"/>
+      <c r="A800" s="56"/>
       <c r="B800" s="10"/>
       <c r="C800" s="10"/>
       <c r="D800" s="10"/>
@@ -35310,7 +35317,7 @@
       <c r="AA800" s="10"/>
     </row>
     <row r="801">
-      <c r="A801" s="55"/>
+      <c r="A801" s="56"/>
       <c r="B801" s="10"/>
       <c r="C801" s="10"/>
       <c r="D801" s="10"/>
@@ -35339,7 +35346,7 @@
       <c r="AA801" s="10"/>
     </row>
     <row r="802">
-      <c r="A802" s="55"/>
+      <c r="A802" s="56"/>
       <c r="B802" s="10"/>
       <c r="C802" s="10"/>
       <c r="D802" s="10"/>
@@ -35368,7 +35375,7 @@
       <c r="AA802" s="10"/>
     </row>
     <row r="803">
-      <c r="A803" s="55"/>
+      <c r="A803" s="56"/>
       <c r="B803" s="10"/>
       <c r="C803" s="10"/>
       <c r="D803" s="10"/>
@@ -35397,7 +35404,7 @@
       <c r="AA803" s="10"/>
     </row>
     <row r="804">
-      <c r="A804" s="55"/>
+      <c r="A804" s="56"/>
       <c r="B804" s="10"/>
       <c r="C804" s="10"/>
       <c r="D804" s="10"/>
@@ -35426,7 +35433,7 @@
       <c r="AA804" s="10"/>
     </row>
     <row r="805">
-      <c r="A805" s="55"/>
+      <c r="A805" s="56"/>
       <c r="B805" s="10"/>
       <c r="C805" s="10"/>
       <c r="D805" s="10"/>
@@ -35455,7 +35462,7 @@
       <c r="AA805" s="10"/>
     </row>
     <row r="806">
-      <c r="A806" s="55"/>
+      <c r="A806" s="56"/>
       <c r="B806" s="10"/>
       <c r="C806" s="10"/>
       <c r="D806" s="10"/>
@@ -35484,7 +35491,7 @@
       <c r="AA806" s="10"/>
     </row>
     <row r="807">
-      <c r="A807" s="55"/>
+      <c r="A807" s="56"/>
       <c r="B807" s="10"/>
       <c r="C807" s="10"/>
       <c r="D807" s="10"/>
@@ -35513,7 +35520,7 @@
       <c r="AA807" s="10"/>
     </row>
     <row r="808">
-      <c r="A808" s="55"/>
+      <c r="A808" s="56"/>
       <c r="B808" s="10"/>
       <c r="C808" s="10"/>
       <c r="D808" s="10"/>
@@ -35542,7 +35549,7 @@
       <c r="AA808" s="10"/>
     </row>
     <row r="809">
-      <c r="A809" s="55"/>
+      <c r="A809" s="56"/>
       <c r="B809" s="10"/>
       <c r="C809" s="10"/>
       <c r="D809" s="10"/>
@@ -35571,7 +35578,7 @@
       <c r="AA809" s="10"/>
     </row>
     <row r="810">
-      <c r="A810" s="55"/>
+      <c r="A810" s="56"/>
       <c r="B810" s="10"/>
       <c r="C810" s="10"/>
       <c r="D810" s="10"/>
@@ -35600,7 +35607,7 @@
       <c r="AA810" s="10"/>
     </row>
     <row r="811">
-      <c r="A811" s="55"/>
+      <c r="A811" s="56"/>
       <c r="B811" s="10"/>
       <c r="C811" s="10"/>
       <c r="D811" s="10"/>
@@ -35629,7 +35636,7 @@
       <c r="AA811" s="10"/>
     </row>
     <row r="812">
-      <c r="A812" s="55"/>
+      <c r="A812" s="56"/>
       <c r="B812" s="10"/>
       <c r="C812" s="10"/>
       <c r="D812" s="10"/>
@@ -35658,7 +35665,7 @@
       <c r="AA812" s="10"/>
     </row>
     <row r="813">
-      <c r="A813" s="55"/>
+      <c r="A813" s="56"/>
       <c r="B813" s="10"/>
       <c r="C813" s="10"/>
       <c r="D813" s="10"/>
@@ -35687,7 +35694,7 @@
       <c r="AA813" s="10"/>
     </row>
     <row r="814">
-      <c r="A814" s="55"/>
+      <c r="A814" s="56"/>
       <c r="B814" s="10"/>
       <c r="C814" s="10"/>
       <c r="D814" s="10"/>
@@ -35716,7 +35723,7 @@
       <c r="AA814" s="10"/>
     </row>
     <row r="815">
-      <c r="A815" s="55"/>
+      <c r="A815" s="56"/>
       <c r="B815" s="10"/>
       <c r="C815" s="10"/>
       <c r="D815" s="10"/>
@@ -35745,7 +35752,7 @@
       <c r="AA815" s="10"/>
     </row>
     <row r="816">
-      <c r="A816" s="55"/>
+      <c r="A816" s="56"/>
       <c r="B816" s="10"/>
       <c r="C816" s="10"/>
       <c r="D816" s="10"/>
@@ -35774,7 +35781,7 @@
       <c r="AA816" s="10"/>
     </row>
     <row r="817">
-      <c r="A817" s="55"/>
+      <c r="A817" s="56"/>
       <c r="B817" s="10"/>
       <c r="C817" s="10"/>
       <c r="D817" s="10"/>
@@ -35803,7 +35810,7 @@
       <c r="AA817" s="10"/>
     </row>
     <row r="818">
-      <c r="A818" s="55"/>
+      <c r="A818" s="56"/>
       <c r="B818" s="10"/>
       <c r="C818" s="10"/>
       <c r="D818" s="10"/>
@@ -35832,7 +35839,7 @@
       <c r="AA818" s="10"/>
     </row>
     <row r="819">
-      <c r="A819" s="55"/>
+      <c r="A819" s="56"/>
       <c r="B819" s="10"/>
       <c r="C819" s="10"/>
       <c r="D819" s="10"/>
@@ -35861,7 +35868,7 @@
       <c r="AA819" s="10"/>
     </row>
     <row r="820">
-      <c r="A820" s="55"/>
+      <c r="A820" s="56"/>
       <c r="B820" s="10"/>
       <c r="C820" s="10"/>
       <c r="D820" s="10"/>
@@ -35890,7 +35897,7 @@
       <c r="AA820" s="10"/>
     </row>
     <row r="821">
-      <c r="A821" s="55"/>
+      <c r="A821" s="56"/>
       <c r="B821" s="10"/>
       <c r="C821" s="10"/>
       <c r="D821" s="10"/>
@@ -35919,7 +35926,7 @@
       <c r="AA821" s="10"/>
     </row>
     <row r="822">
-      <c r="A822" s="55"/>
+      <c r="A822" s="56"/>
       <c r="B822" s="10"/>
       <c r="C822" s="10"/>
       <c r="D822" s="10"/>
@@ -35948,7 +35955,7 @@
       <c r="AA822" s="10"/>
     </row>
     <row r="823">
-      <c r="A823" s="55"/>
+      <c r="A823" s="56"/>
       <c r="B823" s="10"/>
       <c r="C823" s="10"/>
       <c r="D823" s="10"/>
@@ -35977,7 +35984,7 @@
       <c r="AA823" s="10"/>
     </row>
     <row r="824">
-      <c r="A824" s="55"/>
+      <c r="A824" s="56"/>
       <c r="B824" s="10"/>
       <c r="C824" s="10"/>
       <c r="D824" s="10"/>
@@ -36006,7 +36013,7 @@
       <c r="AA824" s="10"/>
     </row>
     <row r="825">
-      <c r="A825" s="55"/>
+      <c r="A825" s="56"/>
       <c r="B825" s="10"/>
       <c r="C825" s="10"/>
       <c r="D825" s="10"/>
@@ -36035,7 +36042,7 @@
       <c r="AA825" s="10"/>
     </row>
     <row r="826">
-      <c r="A826" s="55"/>
+      <c r="A826" s="56"/>
       <c r="B826" s="10"/>
       <c r="C826" s="10"/>
       <c r="D826" s="10"/>
@@ -36064,7 +36071,7 @@
       <c r="AA826" s="10"/>
     </row>
     <row r="827">
-      <c r="A827" s="55"/>
+      <c r="A827" s="56"/>
       <c r="B827" s="10"/>
       <c r="C827" s="10"/>
       <c r="D827" s="10"/>
@@ -36093,7 +36100,7 @@
       <c r="AA827" s="10"/>
     </row>
     <row r="828">
-      <c r="A828" s="55"/>
+      <c r="A828" s="56"/>
       <c r="B828" s="10"/>
       <c r="C828" s="10"/>
       <c r="D828" s="10"/>
@@ -36122,7 +36129,7 @@
       <c r="AA828" s="10"/>
     </row>
     <row r="829">
-      <c r="A829" s="55"/>
+      <c r="A829" s="56"/>
       <c r="B829" s="10"/>
       <c r="C829" s="10"/>
       <c r="D829" s="10"/>
@@ -36151,7 +36158,7 @@
       <c r="AA829" s="10"/>
     </row>
     <row r="830">
-      <c r="A830" s="55"/>
+      <c r="A830" s="56"/>
       <c r="B830" s="10"/>
       <c r="C830" s="10"/>
       <c r="D830" s="10"/>
@@ -36180,7 +36187,7 @@
       <c r="AA830" s="10"/>
     </row>
     <row r="831">
-      <c r="A831" s="55"/>
+      <c r="A831" s="56"/>
       <c r="B831" s="10"/>
       <c r="C831" s="10"/>
       <c r="D831" s="10"/>
@@ -36209,7 +36216,7 @@
       <c r="AA831" s="10"/>
     </row>
     <row r="832">
-      <c r="A832" s="55"/>
+      <c r="A832" s="56"/>
       <c r="B832" s="10"/>
       <c r="C832" s="10"/>
       <c r="D832" s="10"/>
@@ -36238,7 +36245,7 @@
       <c r="AA832" s="10"/>
     </row>
     <row r="833">
-      <c r="A833" s="55"/>
+      <c r="A833" s="56"/>
       <c r="B833" s="10"/>
       <c r="C833" s="10"/>
       <c r="D833" s="10"/>
@@ -36267,7 +36274,7 @@
       <c r="AA833" s="10"/>
     </row>
     <row r="834">
-      <c r="A834" s="55"/>
+      <c r="A834" s="56"/>
       <c r="B834" s="10"/>
       <c r="C834" s="10"/>
       <c r="D834" s="10"/>
@@ -36296,7 +36303,7 @@
       <c r="AA834" s="10"/>
     </row>
     <row r="835">
-      <c r="A835" s="55"/>
+      <c r="A835" s="56"/>
       <c r="B835" s="10"/>
       <c r="C835" s="10"/>
       <c r="D835" s="10"/>
@@ -36325,7 +36332,7 @@
       <c r="AA835" s="10"/>
     </row>
     <row r="836">
-      <c r="A836" s="55"/>
+      <c r="A836" s="56"/>
       <c r="B836" s="10"/>
       <c r="C836" s="10"/>
       <c r="D836" s="10"/>
@@ -36354,7 +36361,7 @@
       <c r="AA836" s="10"/>
     </row>
     <row r="837">
-      <c r="A837" s="55"/>
+      <c r="A837" s="56"/>
       <c r="B837" s="10"/>
       <c r="C837" s="10"/>
       <c r="D837" s="10"/>
@@ -36383,7 +36390,7 @@
       <c r="AA837" s="10"/>
     </row>
     <row r="838">
-      <c r="A838" s="55"/>
+      <c r="A838" s="56"/>
       <c r="B838" s="10"/>
       <c r="C838" s="10"/>
       <c r="D838" s="10"/>
@@ -36412,7 +36419,7 @@
       <c r="AA838" s="10"/>
     </row>
     <row r="839">
-      <c r="A839" s="55"/>
+      <c r="A839" s="56"/>
       <c r="B839" s="10"/>
       <c r="C839" s="10"/>
       <c r="D839" s="10"/>
@@ -36441,7 +36448,7 @@
       <c r="AA839" s="10"/>
     </row>
     <row r="840">
-      <c r="A840" s="55"/>
+      <c r="A840" s="56"/>
       <c r="B840" s="10"/>
       <c r="C840" s="10"/>
       <c r="D840" s="10"/>
@@ -36470,7 +36477,7 @@
       <c r="AA840" s="10"/>
     </row>
     <row r="841">
-      <c r="A841" s="55"/>
+      <c r="A841" s="56"/>
       <c r="B841" s="10"/>
       <c r="C841" s="10"/>
       <c r="D841" s="10"/>
@@ -36499,7 +36506,7 @@
       <c r="AA841" s="10"/>
     </row>
     <row r="842">
-      <c r="A842" s="55"/>
+      <c r="A842" s="56"/>
       <c r="B842" s="10"/>
       <c r="C842" s="10"/>
       <c r="D842" s="10"/>
@@ -36528,7 +36535,7 @@
       <c r="AA842" s="10"/>
     </row>
     <row r="843">
-      <c r="A843" s="55"/>
+      <c r="A843" s="56"/>
       <c r="B843" s="10"/>
       <c r="C843" s="10"/>
       <c r="D843" s="10"/>
@@ -36557,7 +36564,7 @@
       <c r="AA843" s="10"/>
     </row>
     <row r="844">
-      <c r="A844" s="55"/>
+      <c r="A844" s="56"/>
       <c r="B844" s="10"/>
       <c r="C844" s="10"/>
       <c r="D844" s="10"/>
@@ -36586,7 +36593,7 @@
       <c r="AA844" s="10"/>
     </row>
     <row r="845">
-      <c r="A845" s="55"/>
+      <c r="A845" s="56"/>
       <c r="B845" s="10"/>
       <c r="C845" s="10"/>
       <c r="D845" s="10"/>
@@ -36615,7 +36622,7 @@
       <c r="AA845" s="10"/>
     </row>
     <row r="846">
-      <c r="A846" s="55"/>
+      <c r="A846" s="56"/>
       <c r="B846" s="10"/>
       <c r="C846" s="10"/>
       <c r="D846" s="10"/>
@@ -36644,7 +36651,7 @@
       <c r="AA846" s="10"/>
     </row>
     <row r="847">
-      <c r="A847" s="55"/>
+      <c r="A847" s="56"/>
       <c r="B847" s="10"/>
       <c r="C847" s="10"/>
       <c r="D847" s="10"/>
@@ -36673,7 +36680,7 @@
       <c r="AA847" s="10"/>
     </row>
     <row r="848">
-      <c r="A848" s="55"/>
+      <c r="A848" s="56"/>
       <c r="B848" s="10"/>
       <c r="C848" s="10"/>
       <c r="D848" s="10"/>
@@ -36702,7 +36709,7 @@
       <c r="AA848" s="10"/>
     </row>
     <row r="849">
-      <c r="A849" s="55"/>
+      <c r="A849" s="56"/>
       <c r="B849" s="10"/>
       <c r="C849" s="10"/>
       <c r="D849" s="10"/>
@@ -36731,7 +36738,7 @@
       <c r="AA849" s="10"/>
     </row>
     <row r="850">
-      <c r="A850" s="55"/>
+      <c r="A850" s="56"/>
       <c r="B850" s="10"/>
       <c r="C850" s="10"/>
       <c r="D850" s="10"/>
@@ -36760,7 +36767,7 @@
       <c r="AA850" s="10"/>
     </row>
     <row r="851">
-      <c r="A851" s="55"/>
+      <c r="A851" s="56"/>
       <c r="B851" s="10"/>
       <c r="C851" s="10"/>
       <c r="D851" s="10"/>
@@ -36789,7 +36796,7 @@
       <c r="AA851" s="10"/>
     </row>
     <row r="852">
-      <c r="A852" s="55"/>
+      <c r="A852" s="56"/>
       <c r="B852" s="10"/>
       <c r="C852" s="10"/>
       <c r="D852" s="10"/>
@@ -36818,7 +36825,7 @@
       <c r="AA852" s="10"/>
     </row>
     <row r="853">
-      <c r="A853" s="55"/>
+      <c r="A853" s="56"/>
       <c r="B853" s="10"/>
       <c r="C853" s="10"/>
       <c r="D853" s="10"/>
@@ -36847,7 +36854,7 @@
       <c r="AA853" s="10"/>
     </row>
     <row r="854">
-      <c r="A854" s="55"/>
+      <c r="A854" s="56"/>
       <c r="B854" s="10"/>
       <c r="C854" s="10"/>
       <c r="D854" s="10"/>
@@ -36876,7 +36883,7 @@
       <c r="AA854" s="10"/>
     </row>
     <row r="855">
-      <c r="A855" s="55"/>
+      <c r="A855" s="56"/>
       <c r="B855" s="10"/>
       <c r="C855" s="10"/>
       <c r="D855" s="10"/>
@@ -36905,7 +36912,7 @@
       <c r="AA855" s="10"/>
     </row>
     <row r="856">
-      <c r="A856" s="55"/>
+      <c r="A856" s="56"/>
       <c r="B856" s="10"/>
       <c r="C856" s="10"/>
       <c r="D856" s="10"/>
@@ -36934,7 +36941,7 @@
       <c r="AA856" s="10"/>
     </row>
     <row r="857">
-      <c r="A857" s="55"/>
+      <c r="A857" s="56"/>
       <c r="B857" s="10"/>
       <c r="C857" s="10"/>
       <c r="D857" s="10"/>
@@ -36963,7 +36970,7 @@
       <c r="AA857" s="10"/>
     </row>
     <row r="858">
-      <c r="A858" s="55"/>
+      <c r="A858" s="56"/>
       <c r="B858" s="10"/>
       <c r="C858" s="10"/>
       <c r="D858" s="10"/>
@@ -36992,7 +36999,7 @@
       <c r="AA858" s="10"/>
     </row>
     <row r="859">
-      <c r="A859" s="55"/>
+      <c r="A859" s="56"/>
       <c r="B859" s="10"/>
       <c r="C859" s="10"/>
       <c r="D859" s="10"/>
@@ -37021,7 +37028,7 @@
       <c r="AA859" s="10"/>
     </row>
     <row r="860">
-      <c r="A860" s="55"/>
+      <c r="A860" s="56"/>
       <c r="B860" s="10"/>
       <c r="C860" s="10"/>
       <c r="D860" s="10"/>
@@ -37050,7 +37057,7 @@
       <c r="AA860" s="10"/>
     </row>
     <row r="861">
-      <c r="A861" s="55"/>
+      <c r="A861" s="56"/>
       <c r="B861" s="10"/>
       <c r="C861" s="10"/>
       <c r="D861" s="10"/>
@@ -37079,7 +37086,7 @@
       <c r="AA861" s="10"/>
     </row>
     <row r="862">
-      <c r="A862" s="55"/>
+      <c r="A862" s="56"/>
       <c r="B862" s="10"/>
       <c r="C862" s="10"/>
       <c r="D862" s="10"/>
@@ -37108,7 +37115,7 @@
       <c r="AA862" s="10"/>
     </row>
     <row r="863">
-      <c r="A863" s="55"/>
+      <c r="A863" s="56"/>
       <c r="B863" s="10"/>
       <c r="C863" s="10"/>
       <c r="D863" s="10"/>
@@ -37137,7 +37144,7 @@
       <c r="AA863" s="10"/>
     </row>
     <row r="864">
-      <c r="A864" s="55"/>
+      <c r="A864" s="56"/>
       <c r="B864" s="10"/>
       <c r="C864" s="10"/>
       <c r="D864" s="10"/>
@@ -37166,7 +37173,7 @@
       <c r="AA864" s="10"/>
     </row>
     <row r="865">
-      <c r="A865" s="55"/>
+      <c r="A865" s="56"/>
       <c r="B865" s="10"/>
       <c r="C865" s="10"/>
       <c r="D865" s="10"/>
@@ -37195,7 +37202,7 @@
       <c r="AA865" s="10"/>
     </row>
     <row r="866">
-      <c r="A866" s="55"/>
+      <c r="A866" s="56"/>
       <c r="B866" s="10"/>
       <c r="C866" s="10"/>
       <c r="D866" s="10"/>
@@ -37224,7 +37231,7 @@
       <c r="AA866" s="10"/>
     </row>
     <row r="867">
-      <c r="A867" s="55"/>
+      <c r="A867" s="56"/>
       <c r="B867" s="10"/>
       <c r="C867" s="10"/>
       <c r="D867" s="10"/>
@@ -37253,7 +37260,7 @@
       <c r="AA867" s="10"/>
     </row>
     <row r="868">
-      <c r="A868" s="55"/>
+      <c r="A868" s="56"/>
       <c r="B868" s="10"/>
       <c r="C868" s="10"/>
       <c r="D868" s="10"/>
@@ -37282,7 +37289,7 @@
       <c r="AA868" s="10"/>
     </row>
     <row r="869">
-      <c r="A869" s="55"/>
+      <c r="A869" s="56"/>
       <c r="B869" s="10"/>
       <c r="C869" s="10"/>
       <c r="D869" s="10"/>
@@ -37311,7 +37318,7 @@
       <c r="AA869" s="10"/>
     </row>
     <row r="870">
-      <c r="A870" s="55"/>
+      <c r="A870" s="56"/>
       <c r="B870" s="10"/>
       <c r="C870" s="10"/>
       <c r="D870" s="10"/>
@@ -37340,7 +37347,7 @@
       <c r="AA870" s="10"/>
     </row>
     <row r="871">
-      <c r="A871" s="55"/>
+      <c r="A871" s="56"/>
       <c r="B871" s="10"/>
       <c r="C871" s="10"/>
       <c r="D871" s="10"/>
@@ -37369,7 +37376,7 @@
       <c r="AA871" s="10"/>
     </row>
     <row r="872">
-      <c r="A872" s="55"/>
+      <c r="A872" s="56"/>
       <c r="B872" s="10"/>
       <c r="C872" s="10"/>
       <c r="D872" s="10"/>
@@ -37398,7 +37405,7 @@
       <c r="AA872" s="10"/>
     </row>
     <row r="873">
-      <c r="A873" s="55"/>
+      <c r="A873" s="56"/>
       <c r="B873" s="10"/>
       <c r="C873" s="10"/>
       <c r="D873" s="10"/>
@@ -37427,7 +37434,7 @@
       <c r="AA873" s="10"/>
     </row>
     <row r="874">
-      <c r="A874" s="55"/>
+      <c r="A874" s="56"/>
       <c r="B874" s="10"/>
       <c r="C874" s="10"/>
       <c r="D874" s="10"/>
@@ -37456,7 +37463,7 @@
       <c r="AA874" s="10"/>
     </row>
     <row r="875">
-      <c r="A875" s="55"/>
+      <c r="A875" s="56"/>
       <c r="B875" s="10"/>
       <c r="C875" s="10"/>
       <c r="D875" s="10"/>
@@ -37485,7 +37492,7 @@
       <c r="AA875" s="10"/>
     </row>
     <row r="876">
-      <c r="A876" s="55"/>
+      <c r="A876" s="56"/>
       <c r="B876" s="10"/>
       <c r="C876" s="10"/>
       <c r="D876" s="10"/>
@@ -37514,7 +37521,7 @@
       <c r="AA876" s="10"/>
     </row>
     <row r="877">
-      <c r="A877" s="55"/>
+      <c r="A877" s="56"/>
       <c r="B877" s="10"/>
       <c r="C877" s="10"/>
       <c r="D877" s="10"/>
@@ -37543,7 +37550,7 @@
       <c r="AA877" s="10"/>
     </row>
     <row r="878">
-      <c r="A878" s="55"/>
+      <c r="A878" s="56"/>
       <c r="B878" s="10"/>
       <c r="C878" s="10"/>
       <c r="D878" s="10"/>
@@ -37572,7 +37579,7 @@
       <c r="AA878" s="10"/>
     </row>
     <row r="879">
-      <c r="A879" s="55"/>
+      <c r="A879" s="56"/>
       <c r="B879" s="10"/>
       <c r="C879" s="10"/>
       <c r="D879" s="10"/>
@@ -37601,7 +37608,7 @@
       <c r="AA879" s="10"/>
     </row>
     <row r="880">
-      <c r="A880" s="55"/>
+      <c r="A880" s="56"/>
       <c r="B880" s="10"/>
       <c r="C880" s="10"/>
       <c r="D880" s="10"/>
@@ -37630,7 +37637,7 @@
       <c r="AA880" s="10"/>
     </row>
     <row r="881">
-      <c r="A881" s="55"/>
+      <c r="A881" s="56"/>
       <c r="B881" s="10"/>
       <c r="C881" s="10"/>
       <c r="D881" s="10"/>
@@ -37659,7 +37666,7 @@
       <c r="AA881" s="10"/>
     </row>
     <row r="882">
-      <c r="A882" s="55"/>
+      <c r="A882" s="56"/>
       <c r="B882" s="10"/>
       <c r="C882" s="10"/>
       <c r="D882" s="10"/>
@@ -37688,7 +37695,7 @@
       <c r="AA882" s="10"/>
     </row>
     <row r="883">
-      <c r="A883" s="55"/>
+      <c r="A883" s="56"/>
       <c r="B883" s="10"/>
       <c r="C883" s="10"/>
       <c r="D883" s="10"/>
@@ -37717,7 +37724,7 @@
       <c r="AA883" s="10"/>
     </row>
     <row r="884">
-      <c r="A884" s="55"/>
+      <c r="A884" s="56"/>
       <c r="B884" s="10"/>
       <c r="C884" s="10"/>
       <c r="D884" s="10"/>
@@ -37746,7 +37753,7 @@
       <c r="AA884" s="10"/>
     </row>
     <row r="885">
-      <c r="A885" s="55"/>
+      <c r="A885" s="56"/>
       <c r="B885" s="10"/>
       <c r="C885" s="10"/>
       <c r="D885" s="10"/>
@@ -37775,7 +37782,7 @@
       <c r="AA885" s="10"/>
     </row>
     <row r="886">
-      <c r="A886" s="55"/>
+      <c r="A886" s="56"/>
       <c r="B886" s="10"/>
       <c r="C886" s="10"/>
       <c r="D886" s="10"/>
@@ -37804,7 +37811,7 @@
       <c r="AA886" s="10"/>
     </row>
     <row r="887">
-      <c r="A887" s="55"/>
+      <c r="A887" s="56"/>
       <c r="B887" s="10"/>
       <c r="C887" s="10"/>
       <c r="D887" s="10"/>
@@ -37833,7 +37840,7 @@
       <c r="AA887" s="10"/>
     </row>
     <row r="888">
-      <c r="A888" s="55"/>
+      <c r="A888" s="56"/>
       <c r="B888" s="10"/>
       <c r="C888" s="10"/>
       <c r="D888" s="10"/>
@@ -37862,7 +37869,7 @@
       <c r="AA888" s="10"/>
     </row>
     <row r="889">
-      <c r="A889" s="55"/>
+      <c r="A889" s="56"/>
       <c r="B889" s="10"/>
       <c r="C889" s="10"/>
       <c r="D889" s="10"/>
@@ -37891,7 +37898,7 @@
       <c r="AA889" s="10"/>
     </row>
     <row r="890">
-      <c r="A890" s="55"/>
+      <c r="A890" s="56"/>
       <c r="B890" s="10"/>
       <c r="C890" s="10"/>
       <c r="D890" s="10"/>
@@ -37920,7 +37927,7 @@
       <c r="AA890" s="10"/>
     </row>
     <row r="891">
-      <c r="A891" s="55"/>
+      <c r="A891" s="56"/>
       <c r="B891" s="10"/>
       <c r="C891" s="10"/>
       <c r="D891" s="10"/>
@@ -37949,7 +37956,7 @@
       <c r="AA891" s="10"/>
     </row>
     <row r="892">
-      <c r="A892" s="55"/>
+      <c r="A892" s="56"/>
       <c r="B892" s="10"/>
       <c r="C892" s="10"/>
       <c r="D892" s="10"/>
@@ -37978,7 +37985,7 @@
       <c r="AA892" s="10"/>
     </row>
     <row r="893">
-      <c r="A893" s="55"/>
+      <c r="A893" s="56"/>
       <c r="B893" s="10"/>
       <c r="C893" s="10"/>
       <c r="D893" s="10"/>
@@ -38007,7 +38014,7 @@
       <c r="AA893" s="10"/>
     </row>
     <row r="894">
-      <c r="A894" s="55"/>
+      <c r="A894" s="56"/>
       <c r="B894" s="10"/>
       <c r="C894" s="10"/>
       <c r="D894" s="10"/>
@@ -38036,7 +38043,7 @@
       <c r="AA894" s="10"/>
     </row>
     <row r="895">
-      <c r="A895" s="55"/>
+      <c r="A895" s="56"/>
       <c r="B895" s="10"/>
       <c r="C895" s="10"/>
       <c r="D895" s="10"/>
@@ -38065,7 +38072,7 @@
       <c r="AA895" s="10"/>
     </row>
     <row r="896">
-      <c r="A896" s="55"/>
+      <c r="A896" s="56"/>
       <c r="B896" s="10"/>
       <c r="C896" s="10"/>
       <c r="D896" s="10"/>
@@ -38094,7 +38101,7 @@
       <c r="AA896" s="10"/>
     </row>
     <row r="897">
-      <c r="A897" s="55"/>
+      <c r="A897" s="56"/>
       <c r="B897" s="10"/>
       <c r="C897" s="10"/>
       <c r="D897" s="10"/>
@@ -38123,7 +38130,7 @@
       <c r="AA897" s="10"/>
     </row>
     <row r="898">
-      <c r="A898" s="55"/>
+      <c r="A898" s="56"/>
       <c r="B898" s="10"/>
       <c r="C898" s="10"/>
       <c r="D898" s="10"/>
@@ -38152,7 +38159,7 @@
       <c r="AA898" s="10"/>
     </row>
     <row r="899">
-      <c r="A899" s="55"/>
+      <c r="A899" s="56"/>
       <c r="B899" s="10"/>
       <c r="C899" s="10"/>
       <c r="D899" s="10"/>
@@ -38181,7 +38188,7 @@
       <c r="AA899" s="10"/>
     </row>
     <row r="900">
-      <c r="A900" s="55"/>
+      <c r="A900" s="56"/>
       <c r="B900" s="10"/>
       <c r="C900" s="10"/>
       <c r="D900" s="10"/>
@@ -38210,7 +38217,7 @@
       <c r="AA900" s="10"/>
     </row>
     <row r="901">
-      <c r="A901" s="55"/>
+      <c r="A901" s="56"/>
       <c r="B901" s="10"/>
       <c r="C901" s="10"/>
       <c r="D901" s="10"/>
@@ -38239,7 +38246,7 @@
       <c r="AA901" s="10"/>
     </row>
     <row r="902">
-      <c r="A902" s="55"/>
+      <c r="A902" s="56"/>
       <c r="B902" s="10"/>
       <c r="C902" s="10"/>
       <c r="D902" s="10"/>
@@ -38268,7 +38275,7 @@
       <c r="AA902" s="10"/>
     </row>
     <row r="903">
-      <c r="A903" s="55"/>
+      <c r="A903" s="56"/>
       <c r="B903" s="10"/>
       <c r="C903" s="10"/>
       <c r="D903" s="10"/>
@@ -38297,7 +38304,7 @@
       <c r="AA903" s="10"/>
     </row>
     <row r="904">
-      <c r="A904" s="55"/>
+      <c r="A904" s="56"/>
       <c r="B904" s="10"/>
       <c r="C904" s="10"/>
       <c r="D904" s="10"/>
@@ -38326,7 +38333,7 @@
       <c r="AA904" s="10"/>
     </row>
     <row r="905">
-      <c r="A905" s="55"/>
+      <c r="A905" s="56"/>
       <c r="B905" s="10"/>
       <c r="C905" s="10"/>
       <c r="D905" s="10"/>
@@ -38355,7 +38362,7 @@
       <c r="AA905" s="10"/>
     </row>
     <row r="906">
-      <c r="A906" s="55"/>
+      <c r="A906" s="56"/>
       <c r="B906" s="10"/>
       <c r="C906" s="10"/>
       <c r="D906" s="10"/>
@@ -38384,7 +38391,7 @@
       <c r="AA906" s="10"/>
     </row>
     <row r="907">
-      <c r="A907" s="55"/>
+      <c r="A907" s="56"/>
       <c r="B907" s="10"/>
       <c r="C907" s="10"/>
       <c r="D907" s="10"/>
@@ -38413,7 +38420,7 @@
       <c r="AA907" s="10"/>
     </row>
     <row r="908">
-      <c r="A908" s="55"/>
+      <c r="A908" s="56"/>
       <c r="B908" s="10"/>
       <c r="C908" s="10"/>
       <c r="D908" s="10"/>
@@ -38442,7 +38449,7 @@
       <c r="AA908" s="10"/>
     </row>
     <row r="909">
-      <c r="A909" s="55"/>
+      <c r="A909" s="56"/>
       <c r="B909" s="10"/>
       <c r="C909" s="10"/>
       <c r="D909" s="10"/>
@@ -38471,7 +38478,7 @@
       <c r="AA909" s="10"/>
     </row>
     <row r="910">
-      <c r="A910" s="55"/>
+      <c r="A910" s="56"/>
       <c r="B910" s="10"/>
       <c r="C910" s="10"/>
       <c r="D910" s="10"/>
@@ -38500,7 +38507,7 @@
       <c r="AA910" s="10"/>
     </row>
     <row r="911">
-      <c r="A911" s="55"/>
+      <c r="A911" s="56"/>
       <c r="B911" s="10"/>
       <c r="C911" s="10"/>
       <c r="D911" s="10"/>
@@ -38529,7 +38536,7 @@
       <c r="AA911" s="10"/>
     </row>
     <row r="912">
-      <c r="A912" s="55"/>
+      <c r="A912" s="56"/>
       <c r="B912" s="10"/>
       <c r="C912" s="10"/>
       <c r="D912" s="10"/>
@@ -38558,7 +38565,7 @@
       <c r="AA912" s="10"/>
     </row>
     <row r="913">
-      <c r="A913" s="55"/>
+      <c r="A913" s="56"/>
       <c r="B913" s="10"/>
       <c r="C913" s="10"/>
       <c r="D913" s="10"/>
@@ -38587,7 +38594,7 @@
       <c r="AA913" s="10"/>
     </row>
     <row r="914">
-      <c r="A914" s="55"/>
+      <c r="A914" s="56"/>
       <c r="B914" s="10"/>
       <c r="C914" s="10"/>
       <c r="D914" s="10"/>
@@ -38616,7 +38623,7 @@
       <c r="AA914" s="10"/>
     </row>
     <row r="915">
-      <c r="A915" s="55"/>
+      <c r="A915" s="56"/>
       <c r="B915" s="10"/>
       <c r="C915" s="10"/>
       <c r="D915" s="10"/>
@@ -38645,7 +38652,7 @@
       <c r="AA915" s="10"/>
     </row>
     <row r="916">
-      <c r="A916" s="55"/>
+      <c r="A916" s="56"/>
       <c r="B916" s="10"/>
       <c r="C916" s="10"/>
       <c r="D916" s="10"/>
@@ -38674,7 +38681,7 @@
       <c r="AA916" s="10"/>
     </row>
     <row r="917">
-      <c r="A917" s="55"/>
+      <c r="A917" s="56"/>
       <c r="B917" s="10"/>
       <c r="C917" s="10"/>
       <c r="D917" s="10"/>
@@ -38703,7 +38710,7 @@
       <c r="AA917" s="10"/>
     </row>
     <row r="918">
-      <c r="A918" s="55"/>
+      <c r="A918" s="56"/>
       <c r="B918" s="10"/>
       <c r="C918" s="10"/>
       <c r="D918" s="10"/>
@@ -38732,7 +38739,7 @@
       <c r="AA918" s="10"/>
     </row>
     <row r="919">
-      <c r="A919" s="55"/>
+      <c r="A919" s="56"/>
       <c r="B919" s="10"/>
       <c r="C919" s="10"/>
       <c r="D919" s="10"/>
@@ -38761,7 +38768,7 @@
       <c r="AA919" s="10"/>
     </row>
     <row r="920">
-      <c r="A920" s="55"/>
+      <c r="A920" s="56"/>
       <c r="B920" s="10"/>
       <c r="C920" s="10"/>
       <c r="D920" s="10"/>
@@ -38790,7 +38797,7 @@
       <c r="AA920" s="10"/>
     </row>
     <row r="921">
-      <c r="A921" s="55"/>
+      <c r="A921" s="56"/>
       <c r="B921" s="10"/>
       <c r="C921" s="10"/>
       <c r="D921" s="10"/>
@@ -38819,7 +38826,7 @@
       <c r="AA921" s="10"/>
     </row>
     <row r="922">
-      <c r="A922" s="55"/>
+      <c r="A922" s="56"/>
       <c r="B922" s="10"/>
       <c r="C922" s="10"/>
       <c r="D922" s="10"/>
@@ -38848,7 +38855,7 @@
       <c r="AA922" s="10"/>
     </row>
     <row r="923">
-      <c r="A923" s="55"/>
+      <c r="A923" s="56"/>
       <c r="B923" s="10"/>
       <c r="C923" s="10"/>
       <c r="D923" s="10"/>
@@ -38877,7 +38884,7 @@
       <c r="AA923" s="10"/>
     </row>
     <row r="924">
-      <c r="A924" s="55"/>
+      <c r="A924" s="56"/>
       <c r="B924" s="10"/>
       <c r="C924" s="10"/>
       <c r="D924" s="10"/>
@@ -38906,7 +38913,7 @@
       <c r="AA924" s="10"/>
     </row>
     <row r="925">
-      <c r="A925" s="55"/>
+      <c r="A925" s="56"/>
       <c r="B925" s="10"/>
       <c r="C925" s="10"/>
       <c r="D925" s="10"/>
@@ -38935,7 +38942,7 @@
       <c r="AA925" s="10"/>
     </row>
     <row r="926">
-      <c r="A926" s="55"/>
+      <c r="A926" s="56"/>
       <c r="B926" s="10"/>
       <c r="C926" s="10"/>
       <c r="D926" s="10"/>
@@ -38964,7 +38971,7 @@
       <c r="AA926" s="10"/>
     </row>
     <row r="927">
-      <c r="A927" s="55"/>
+      <c r="A927" s="56"/>
       <c r="B927" s="10"/>
       <c r="C927" s="10"/>
       <c r="D927" s="10"/>
@@ -38993,7 +39000,7 @@
       <c r="AA927" s="10"/>
     </row>
     <row r="928">
-      <c r="A928" s="55"/>
+      <c r="A928" s="56"/>
       <c r="B928" s="10"/>
       <c r="C928" s="10"/>
       <c r="D928" s="10"/>
@@ -39022,7 +39029,7 @@
       <c r="AA928" s="10"/>
     </row>
     <row r="929">
-      <c r="A929" s="55"/>
+      <c r="A929" s="56"/>
       <c r="B929" s="10"/>
       <c r="C929" s="10"/>
       <c r="D929" s="10"/>
@@ -39051,7 +39058,7 @@
       <c r="AA929" s="10"/>
     </row>
     <row r="930">
-      <c r="A930" s="55"/>
+      <c r="A930" s="56"/>
       <c r="B930" s="10"/>
       <c r="C930" s="10"/>
       <c r="D930" s="10"/>
@@ -39080,7 +39087,7 @@
       <c r="AA930" s="10"/>
     </row>
     <row r="931">
-      <c r="A931" s="55"/>
+      <c r="A931" s="56"/>
       <c r="B931" s="10"/>
       <c r="C931" s="10"/>
       <c r="D931" s="10"/>
@@ -39109,7 +39116,7 @@
       <c r="AA931" s="10"/>
     </row>
     <row r="932">
-      <c r="A932" s="55"/>
+      <c r="A932" s="56"/>
       <c r="B932" s="10"/>
       <c r="C932" s="10"/>
       <c r="D932" s="10"/>
@@ -39138,7 +39145,7 @@
       <c r="AA932" s="10"/>
     </row>
     <row r="933">
-      <c r="A933" s="55"/>
+      <c r="A933" s="56"/>
       <c r="B933" s="10"/>
       <c r="C933" s="10"/>
       <c r="D933" s="10"/>
@@ -39167,7 +39174,7 @@
       <c r="AA933" s="10"/>
     </row>
     <row r="934">
-      <c r="A934" s="55"/>
+      <c r="A934" s="56"/>
       <c r="B934" s="10"/>
       <c r="C934" s="10"/>
       <c r="D934" s="10"/>
@@ -39196,7 +39203,7 @@
       <c r="AA934" s="10"/>
     </row>
     <row r="935">
-      <c r="A935" s="55"/>
+      <c r="A935" s="56"/>
       <c r="B935" s="10"/>
       <c r="C935" s="10"/>
       <c r="D935" s="10"/>
@@ -39225,7 +39232,7 @@
       <c r="AA935" s="10"/>
     </row>
     <row r="936">
-      <c r="A936" s="55"/>
+      <c r="A936" s="56"/>
       <c r="B936" s="10"/>
       <c r="C936" s="10"/>
       <c r="D936" s="10"/>
@@ -39254,7 +39261,7 @@
       <c r="AA936" s="10"/>
     </row>
     <row r="937">
-      <c r="A937" s="55"/>
+      <c r="A937" s="56"/>
       <c r="B937" s="10"/>
       <c r="C937" s="10"/>
       <c r="D937" s="10"/>
@@ -39283,7 +39290,7 @@
       <c r="AA937" s="10"/>
     </row>
     <row r="938">
-      <c r="A938" s="55"/>
+      <c r="A938" s="56"/>
       <c r="B938" s="10"/>
       <c r="C938" s="10"/>
       <c r="D938" s="10"/>
@@ -39312,7 +39319,7 @@
       <c r="AA938" s="10"/>
     </row>
     <row r="939">
-      <c r="A939" s="55"/>
+      <c r="A939" s="56"/>
       <c r="B939" s="10"/>
       <c r="C939" s="10"/>
       <c r="D939" s="10"/>
@@ -39341,7 +39348,7 @@
       <c r="AA939" s="10"/>
     </row>
     <row r="940">
-      <c r="A940" s="55"/>
+      <c r="A940" s="56"/>
       <c r="B940" s="10"/>
       <c r="C940" s="10"/>
       <c r="D940" s="10"/>
@@ -39370,7 +39377,7 @@
       <c r="AA940" s="10"/>
     </row>
     <row r="941">
-      <c r="A941" s="55"/>
+      <c r="A941" s="56"/>
       <c r="B941" s="10"/>
       <c r="C941" s="10"/>
       <c r="D941" s="10"/>
@@ -39399,7 +39406,7 @@
       <c r="AA941" s="10"/>
     </row>
     <row r="942">
-      <c r="A942" s="55"/>
+      <c r="A942" s="56"/>
       <c r="B942" s="10"/>
       <c r="C942" s="10"/>
       <c r="D942" s="10"/>
@@ -39428,7 +39435,7 @@
       <c r="AA942" s="10"/>
     </row>
     <row r="943">
-      <c r="A943" s="55"/>
+      <c r="A943" s="56"/>
       <c r="B943" s="10"/>
       <c r="C943" s="10"/>
       <c r="D943" s="10"/>
@@ -39457,7 +39464,7 @@
       <c r="AA943" s="10"/>
     </row>
     <row r="944">
-      <c r="A944" s="55"/>
+      <c r="A944" s="56"/>
       <c r="B944" s="10"/>
       <c r="C944" s="10"/>
       <c r="D944" s="10"/>
@@ -39486,7 +39493,7 @@
       <c r="AA944" s="10"/>
     </row>
     <row r="945">
-      <c r="A945" s="55"/>
+      <c r="A945" s="56"/>
       <c r="B945" s="10"/>
       <c r="C945" s="10"/>
       <c r="D945" s="10"/>
@@ -39515,7 +39522,7 @@
       <c r="AA945" s="10"/>
     </row>
     <row r="946">
-      <c r="A946" s="55"/>
+      <c r="A946" s="56"/>
       <c r="B946" s="10"/>
       <c r="C946" s="10"/>
       <c r="D946" s="10"/>
@@ -39544,7 +39551,7 @@
       <c r="AA946" s="10"/>
     </row>
     <row r="947">
-      <c r="A947" s="55"/>
+      <c r="A947" s="56"/>
       <c r="B947" s="10"/>
       <c r="C947" s="10"/>
       <c r="D947" s="10"/>
@@ -39573,7 +39580,7 @@
       <c r="AA947" s="10"/>
     </row>
     <row r="948">
-      <c r="A948" s="55"/>
+      <c r="A948" s="56"/>
       <c r="B948" s="10"/>
       <c r="C948" s="10"/>
       <c r="D948" s="10"/>
@@ -39602,7 +39609,7 @@
       <c r="AA948" s="10"/>
     </row>
     <row r="949">
-      <c r="A949" s="55"/>
+      <c r="A949" s="56"/>
       <c r="B949" s="10"/>
       <c r="C949" s="10"/>
       <c r="D949" s="10"/>
@@ -39631,7 +39638,7 @@
       <c r="AA949" s="10"/>
     </row>
     <row r="950">
-      <c r="A950" s="55"/>
+      <c r="A950" s="56"/>
       <c r="B950" s="10"/>
       <c r="C950" s="10"/>
       <c r="D950" s="10"/>
@@ -39660,7 +39667,7 @@
       <c r="AA950" s="10"/>
     </row>
     <row r="951">
-      <c r="A951" s="55"/>
+      <c r="A951" s="56"/>
       <c r="B951" s="10"/>
       <c r="C951" s="10"/>
       <c r="D951" s="10"/>
@@ -39689,7 +39696,7 @@
       <c r="AA951" s="10"/>
     </row>
     <row r="952">
-      <c r="A952" s="55"/>
+      <c r="A952" s="56"/>
       <c r="B952" s="10"/>
       <c r="C952" s="10"/>
       <c r="D952" s="10"/>
@@ -39718,7 +39725,7 @@
       <c r="AA952" s="10"/>
     </row>
     <row r="953">
-      <c r="A953" s="55"/>
+      <c r="A953" s="56"/>
       <c r="B953" s="10"/>
       <c r="C953" s="10"/>
       <c r="D953" s="10"/>
@@ -39747,7 +39754,7 @@
       <c r="AA953" s="10"/>
     </row>
     <row r="954">
-      <c r="A954" s="55"/>
+      <c r="A954" s="56"/>
       <c r="B954" s="10"/>
       <c r="C954" s="10"/>
       <c r="D954" s="10"/>
@@ -39776,7 +39783,7 @@
       <c r="AA954" s="10"/>
     </row>
     <row r="955">
-      <c r="A955" s="55"/>
+      <c r="A955" s="56"/>
       <c r="B955" s="10"/>
       <c r="C955" s="10"/>
       <c r="D955" s="10"/>
@@ -39805,7 +39812,7 @@
       <c r="AA955" s="10"/>
     </row>
     <row r="956">
-      <c r="A956" s="55"/>
+      <c r="A956" s="56"/>
       <c r="B956" s="10"/>
       <c r="C956" s="10"/>
       <c r="D956" s="10"/>
@@ -39834,7 +39841,7 @@
       <c r="AA956" s="10"/>
     </row>
     <row r="957">
-      <c r="A957" s="55"/>
+      <c r="A957" s="56"/>
       <c r="B957" s="10"/>
       <c r="C957" s="10"/>
       <c r="D957" s="10"/>
@@ -39863,7 +39870,7 @@
       <c r="AA957" s="10"/>
     </row>
     <row r="958">
-      <c r="A958" s="55"/>
+      <c r="A958" s="56"/>
       <c r="B958" s="10"/>
       <c r="C958" s="10"/>
       <c r="D958" s="10"/>
@@ -39892,7 +39899,7 @@
       <c r="AA958" s="10"/>
     </row>
     <row r="959">
-      <c r="A959" s="55"/>
+      <c r="A959" s="56"/>
       <c r="B959" s="10"/>
       <c r="C959" s="10"/>
       <c r="D959" s="10"/>
@@ -39921,7 +39928,7 @@
       <c r="AA959" s="10"/>
     </row>
     <row r="960">
-      <c r="A960" s="55"/>
+      <c r="A960" s="56"/>
       <c r="B960" s="10"/>
       <c r="C960" s="10"/>
       <c r="D960" s="10"/>
@@ -39950,7 +39957,7 @@
       <c r="AA960" s="10"/>
     </row>
     <row r="961">
-      <c r="A961" s="55"/>
+      <c r="A961" s="56"/>
       <c r="B961" s="10"/>
       <c r="C961" s="10"/>
       <c r="D961" s="10"/>
@@ -39979,7 +39986,7 @@
       <c r="AA961" s="10"/>
     </row>
     <row r="962">
-      <c r="A962" s="55"/>
+      <c r="A962" s="56"/>
       <c r="B962" s="10"/>
       <c r="C962" s="10"/>
       <c r="D962" s="10"/>
@@ -40008,7 +40015,7 @@
       <c r="AA962" s="10"/>
     </row>
     <row r="963">
-      <c r="A963" s="55"/>
+      <c r="A963" s="56"/>
       <c r="B963" s="10"/>
       <c r="C963" s="10"/>
       <c r="D963" s="10"/>
@@ -40037,7 +40044,7 @@
       <c r="AA963" s="10"/>
     </row>
     <row r="964">
-      <c r="A964" s="55"/>
+      <c r="A964" s="56"/>
       <c r="B964" s="10"/>
       <c r="C964" s="10"/>
       <c r="D964" s="10"/>
@@ -40066,7 +40073,7 @@
       <c r="AA964" s="10"/>
     </row>
     <row r="965">
-      <c r="A965" s="55"/>
+      <c r="A965" s="56"/>
       <c r="B965" s="10"/>
       <c r="C965" s="10"/>
       <c r="D965" s="10"/>
@@ -40095,7 +40102,7 @@
       <c r="AA965" s="10"/>
     </row>
     <row r="966">
-      <c r="A966" s="55"/>
+      <c r="A966" s="56"/>
       <c r="B966" s="10"/>
       <c r="C966" s="10"/>
       <c r="D966" s="10"/>
@@ -40124,7 +40131,7 @@
       <c r="AA966" s="10"/>
     </row>
     <row r="967">
-      <c r="A967" s="55"/>
+      <c r="A967" s="56"/>
       <c r="B967" s="10"/>
       <c r="C967" s="10"/>
       <c r="D967" s="10"/>
@@ -40153,7 +40160,7 @@
       <c r="AA967" s="10"/>
     </row>
     <row r="968">
-      <c r="A968" s="55"/>
+      <c r="A968" s="56"/>
       <c r="B968" s="10"/>
       <c r="C968" s="10"/>
       <c r="D968" s="10"/>
@@ -40182,7 +40189,7 @@
       <c r="AA968" s="10"/>
     </row>
     <row r="969">
-      <c r="A969" s="55"/>
+      <c r="A969" s="56"/>
       <c r="B969" s="10"/>
       <c r="C969" s="10"/>
       <c r="D969" s="10"/>
@@ -40211,7 +40218,7 @@
       <c r="AA969" s="10"/>
     </row>
     <row r="970">
-      <c r="A970" s="55"/>
+      <c r="A970" s="56"/>
       <c r="B970" s="10"/>
       <c r="C970" s="10"/>
       <c r="D970" s="10"/>
@@ -40240,7 +40247,7 @@
       <c r="AA970" s="10"/>
     </row>
     <row r="971">
-      <c r="A971" s="55"/>
+      <c r="A971" s="56"/>
       <c r="B971" s="10"/>
       <c r="C971" s="10"/>
       <c r="D971" s="10"/>
@@ -40269,7 +40276,7 @@
       <c r="AA971" s="10"/>
     </row>
     <row r="972">
-      <c r="A972" s="55"/>
+      <c r="A972" s="56"/>
       <c r="B972" s="10"/>
       <c r="C972" s="10"/>
       <c r="D972" s="10"/>
@@ -40298,7 +40305,7 @@
       <c r="AA972" s="10"/>
     </row>
     <row r="973">
-      <c r="A973" s="55"/>
+      <c r="A973" s="56"/>
       <c r="B973" s="10"/>
       <c r="C973" s="10"/>
       <c r="D973" s="10"/>
@@ -40327,7 +40334,7 @@
       <c r="AA973" s="10"/>
     </row>
     <row r="974">
-      <c r="A974" s="55"/>
+      <c r="A974" s="56"/>
       <c r="B974" s="10"/>
       <c r="C974" s="10"/>
       <c r="D974" s="10"/>
@@ -40356,7 +40363,7 @@
       <c r="AA974" s="10"/>
     </row>
     <row r="975">
-      <c r="A975" s="55"/>
+      <c r="A975" s="56"/>
       <c r="B975" s="10"/>
       <c r="C975" s="10"/>
       <c r="D975" s="10"/>
@@ -40385,7 +40392,7 @@
       <c r="AA975" s="10"/>
     </row>
     <row r="976">
-      <c r="A976" s="55"/>
+      <c r="A976" s="56"/>
       <c r="B976" s="10"/>
       <c r="C976" s="10"/>
       <c r="D976" s="10"/>
@@ -40414,7 +40421,7 @@
       <c r="AA976" s="10"/>
     </row>
     <row r="977">
-      <c r="A977" s="55"/>
+      <c r="A977" s="56"/>
       <c r="B977" s="10"/>
       <c r="C977" s="10"/>
       <c r="D977" s="10"/>
@@ -40443,7 +40450,7 @@
       <c r="AA977" s="10"/>
     </row>
     <row r="978">
-      <c r="A978" s="55"/>
+      <c r="A978" s="56"/>
       <c r="B978" s="10"/>
       <c r="C978" s="10"/>
       <c r="D978" s="10"/>
@@ -40472,7 +40479,7 @@
       <c r="AA978" s="10"/>
     </row>
     <row r="979">
-      <c r="A979" s="55"/>
+      <c r="A979" s="56"/>
       <c r="B979" s="10"/>
       <c r="C979" s="10"/>
       <c r="D979" s="10"/>
@@ -40501,7 +40508,7 @@
       <c r="AA979" s="10"/>
     </row>
     <row r="980">
-      <c r="A980" s="55"/>
+      <c r="A980" s="56"/>
       <c r="B980" s="10"/>
       <c r="C980" s="10"/>
       <c r="D980" s="10"/>
@@ -40530,7 +40537,7 @@
       <c r="AA980" s="10"/>
     </row>
     <row r="981">
-      <c r="A981" s="55"/>
+      <c r="A981" s="56"/>
       <c r="B981" s="10"/>
       <c r="C981" s="10"/>
       <c r="D981" s="10"/>
@@ -40559,7 +40566,7 @@
       <c r="AA981" s="10"/>
     </row>
     <row r="982">
-      <c r="A982" s="55"/>
+      <c r="A982" s="56"/>
       <c r="B982" s="10"/>
       <c r="C982" s="10"/>
       <c r="D982" s="10"/>
@@ -40588,7 +40595,7 @@
       <c r="AA982" s="10"/>
     </row>
     <row r="983">
-      <c r="A983" s="55"/>
+      <c r="A983" s="56"/>
       <c r="B983" s="10"/>
       <c r="C983" s="10"/>
       <c r="D983" s="10"/>
@@ -40617,7 +40624,7 @@
       <c r="AA983" s="10"/>
     </row>
     <row r="984">
-      <c r="A984" s="55"/>
+      <c r="A984" s="56"/>
       <c r="B984" s="10"/>
       <c r="C984" s="10"/>
       <c r="D984" s="10"/>
@@ -40646,7 +40653,7 @@
       <c r="AA984" s="10"/>
     </row>
     <row r="985">
-      <c r="A985" s="55"/>
+      <c r="A985" s="56"/>
       <c r="B985" s="10"/>
       <c r="C985" s="10"/>
       <c r="D985" s="10"/>
@@ -40675,7 +40682,7 @@
       <c r="AA985" s="10"/>
     </row>
     <row r="986">
-      <c r="A986" s="55"/>
+      <c r="A986" s="56"/>
       <c r="B986" s="10"/>
       <c r="C986" s="10"/>
       <c r="D986" s="10"/>
@@ -40704,7 +40711,7 @@
       <c r="AA986" s="10"/>
     </row>
     <row r="987">
-      <c r="A987" s="55"/>
+      <c r="A987" s="56"/>
       <c r="B987" s="10"/>
       <c r="C987" s="10"/>
       <c r="D987" s="10"/>
@@ -40733,7 +40740,7 @@
       <c r="AA987" s="10"/>
     </row>
     <row r="988">
-      <c r="A988" s="55"/>
+      <c r="A988" s="56"/>
       <c r="B988" s="10"/>
       <c r="C988" s="10"/>
       <c r="D988" s="10"/>
@@ -40762,7 +40769,7 @@
       <c r="AA988" s="10"/>
     </row>
     <row r="989">
-      <c r="A989" s="55"/>
+      <c r="A989" s="56"/>
       <c r="B989" s="10"/>
       <c r="C989" s="10"/>
       <c r="D989" s="10"/>
@@ -40791,7 +40798,7 @@
       <c r="AA989" s="10"/>
     </row>
     <row r="990">
-      <c r="A990" s="55"/>
+      <c r="A990" s="56"/>
       <c r="B990" s="10"/>
       <c r="C990" s="10"/>
       <c r="D990" s="10"/>
@@ -40820,7 +40827,7 @@
       <c r="AA990" s="10"/>
     </row>
     <row r="991">
-      <c r="A991" s="55"/>
+      <c r="A991" s="56"/>
       <c r="B991" s="10"/>
       <c r="C991" s="10"/>
       <c r="D991" s="10"/>
@@ -40849,7 +40856,7 @@
       <c r="AA991" s="10"/>
     </row>
     <row r="992">
-      <c r="A992" s="55"/>
+      <c r="A992" s="56"/>
       <c r="B992" s="10"/>
       <c r="C992" s="10"/>
       <c r="D992" s="10"/>
@@ -40878,7 +40885,7 @@
       <c r="AA992" s="10"/>
     </row>
     <row r="993">
-      <c r="A993" s="55"/>
+      <c r="A993" s="56"/>
       <c r="B993" s="10"/>
       <c r="C993" s="10"/>
       <c r="D993" s="10"/>
@@ -40907,7 +40914,7 @@
       <c r="AA993" s="10"/>
     </row>
     <row r="994">
-      <c r="A994" s="55"/>
+      <c r="A994" s="56"/>
       <c r="B994" s="10"/>
       <c r="C994" s="10"/>
       <c r="D994" s="10"/>
@@ -40936,7 +40943,7 @@
       <c r="AA994" s="10"/>
     </row>
     <row r="995">
-      <c r="A995" s="55"/>
+      <c r="A995" s="56"/>
       <c r="B995" s="10"/>
       <c r="C995" s="10"/>
       <c r="D995" s="10"/>
@@ -40965,7 +40972,7 @@
       <c r="AA995" s="10"/>
     </row>
     <row r="996">
-      <c r="A996" s="55"/>
+      <c r="A996" s="56"/>
       <c r="B996" s="10"/>
       <c r="C996" s="10"/>
       <c r="D996" s="10"/>
@@ -40994,7 +41001,7 @@
       <c r="AA996" s="10"/>
     </row>
     <row r="997">
-      <c r="A997" s="55"/>
+      <c r="A997" s="56"/>
       <c r="B997" s="10"/>
       <c r="C997" s="10"/>
       <c r="D997" s="10"/>
@@ -41023,7 +41030,7 @@
       <c r="AA997" s="10"/>
     </row>
     <row r="998">
-      <c r="A998" s="55"/>
+      <c r="A998" s="56"/>
       <c r="B998" s="10"/>
       <c r="C998" s="10"/>
       <c r="D998" s="10"/>
@@ -41052,7 +41059,7 @@
       <c r="AA998" s="10"/>
     </row>
     <row r="999">
-      <c r="A999" s="55"/>
+      <c r="A999" s="56"/>
       <c r="B999" s="10"/>
       <c r="C999" s="10"/>
       <c r="D999" s="10"/>
@@ -41081,7 +41088,7 @@
       <c r="AA999" s="10"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="55"/>
+      <c r="A1000" s="56"/>
       <c r="B1000" s="10"/>
       <c r="C1000" s="10"/>
       <c r="D1000" s="10"/>
@@ -41110,7 +41117,7 @@
       <c r="AA1000" s="10"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="55"/>
+      <c r="A1001" s="56"/>
       <c r="B1001" s="10"/>
       <c r="C1001" s="10"/>
       <c r="D1001" s="10"/>

--- a/DataGenerator/XLSXS/EventScript.xlsx
+++ b/DataGenerator/XLSXS/EventScript.xlsx
@@ -192,7 +192,7 @@
     <t>김 조교, 인재가 없다고!</t>
   </si>
   <si>
-    <t>어디 아주 똑똑하고 눈치 빠르고 착하고 매력있고 말도 잘 통하는...</t>
+    <t>어디 아주 똑똑하고 눈치 빠르고 착하고 생각도 깊고 말도 잘 통하는...</t>
   </si>
   <si>
     <t>그런 학생 없나?</t>
@@ -423,8 +423,7 @@
 조교님도 체육대회 해 보셨어요?</t>
   </si>
   <si>
-    <t>2인 3각에서 넘어져서 꼴찌를 했다고요?
-아하하!</t>
+    <t>2인 3각에서 넘어져서 꼴찌를 했다고요? 아하하!</t>
   </si>
   <si>
     <t>치킨 기프티콘도 받고? 재미있겠다!
@@ -1008,8 +1007,7 @@
     <t>bg_cafe</t>
   </si>
   <si>
-    <t>메가슈퍼킹슈림프머쉬룸버거 맞으시죠?
-결제 되셨습니다. 감사합니다!</t>
+    <t>메가슈퍼킹슈림프몬스터머쉬룸버거 맞으시죠? 결제 되셨습니다!</t>
   </si>
   <si>
     <t>일주일 뒤...</t>
@@ -1686,7 +1684,8 @@
   </si>
   <si>
     <t>어? 이벤트 시작했네?
-그럼 지금 보상 좀 받고… 부스터 좀 쓰고…</t>
+그럼 지금 보상 좀 받고…
+부스터 좀 쓰고…</t>
   </si>
   <si>
     <t>… 어라? 벌써?</t>
@@ -5565,7 +5564,7 @@
       <c r="C69" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E69" s="13" t="s">
@@ -16402,7 +16401,7 @@
       <c r="C300" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D300" s="32" t="s">
+      <c r="D300" s="38" t="s">
         <v>269</v>
       </c>
       <c r="E300" s="13" t="s">
@@ -25464,7 +25463,7 @@
       <c r="C493" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D493" s="27" t="s">
+      <c r="D493" s="39" t="s">
         <v>459</v>
       </c>
       <c r="E493" s="16" t="str">
@@ -28041,7 +28040,7 @@
       <c r="A550" s="56"/>
       <c r="B550" s="10"/>
       <c r="C550" s="10"/>
-      <c r="D550" s="10"/>
+      <c r="D550" s="16"/>
       <c r="E550" s="10"/>
       <c r="F550" s="10"/>
       <c r="G550" s="10"/>
@@ -28070,7 +28069,7 @@
       <c r="A551" s="56"/>
       <c r="B551" s="10"/>
       <c r="C551" s="10"/>
-      <c r="D551" s="10"/>
+      <c r="D551" s="16"/>
       <c r="E551" s="10"/>
       <c r="F551" s="10"/>
       <c r="G551" s="10"/>
@@ -28099,7 +28098,7 @@
       <c r="A552" s="56"/>
       <c r="B552" s="10"/>
       <c r="C552" s="10"/>
-      <c r="D552" s="10"/>
+      <c r="D552" s="13"/>
       <c r="E552" s="10"/>
       <c r="F552" s="10"/>
       <c r="G552" s="10"/>
@@ -28128,7 +28127,7 @@
       <c r="A553" s="56"/>
       <c r="B553" s="10"/>
       <c r="C553" s="10"/>
-      <c r="D553" s="10"/>
+      <c r="D553" s="16"/>
       <c r="E553" s="10"/>
       <c r="F553" s="10"/>
       <c r="G553" s="10"/>
@@ -28157,7 +28156,7 @@
       <c r="A554" s="56"/>
       <c r="B554" s="10"/>
       <c r="C554" s="10"/>
-      <c r="D554" s="10"/>
+      <c r="D554" s="13"/>
       <c r="E554" s="10"/>
       <c r="F554" s="10"/>
       <c r="G554" s="10"/>
@@ -28186,7 +28185,7 @@
       <c r="A555" s="56"/>
       <c r="B555" s="10"/>
       <c r="C555" s="10"/>
-      <c r="D555" s="10"/>
+      <c r="D555" s="16"/>
       <c r="E555" s="10"/>
       <c r="F555" s="10"/>
       <c r="G555" s="10"/>
@@ -28215,7 +28214,7 @@
       <c r="A556" s="56"/>
       <c r="B556" s="10"/>
       <c r="C556" s="10"/>
-      <c r="D556" s="10"/>
+      <c r="D556" s="16"/>
       <c r="E556" s="10"/>
       <c r="F556" s="10"/>
       <c r="G556" s="10"/>
@@ -28244,7 +28243,6 @@
       <c r="A557" s="56"/>
       <c r="B557" s="10"/>
       <c r="C557" s="10"/>
-      <c r="D557" s="10"/>
       <c r="E557" s="10"/>
       <c r="F557" s="10"/>
       <c r="G557" s="10"/>
@@ -28273,10 +28271,9 @@
       <c r="A558" s="56"/>
       <c r="B558" s="10"/>
       <c r="C558" s="10"/>
-      <c r="D558" s="10"/>
       <c r="E558" s="10"/>
       <c r="F558" s="10"/>
-      <c r="G558" s="10"/>
+      <c r="G558" s="16"/>
       <c r="H558" s="10"/>
       <c r="I558" s="10"/>
       <c r="J558" s="10"/>
@@ -28302,10 +28299,10 @@
       <c r="A559" s="56"/>
       <c r="B559" s="10"/>
       <c r="C559" s="10"/>
-      <c r="D559" s="10"/>
+      <c r="D559" s="51"/>
       <c r="E559" s="10"/>
       <c r="F559" s="10"/>
-      <c r="G559" s="10"/>
+      <c r="G559" s="16"/>
       <c r="H559" s="10"/>
       <c r="I559" s="10"/>
       <c r="J559" s="10"/>
@@ -28331,7 +28328,7 @@
       <c r="A560" s="56"/>
       <c r="B560" s="10"/>
       <c r="C560" s="10"/>
-      <c r="D560" s="10"/>
+      <c r="D560" s="51"/>
       <c r="E560" s="10"/>
       <c r="F560" s="10"/>
       <c r="G560" s="10"/>
@@ -28360,7 +28357,7 @@
       <c r="A561" s="56"/>
       <c r="B561" s="10"/>
       <c r="C561" s="10"/>
-      <c r="D561" s="10"/>
+      <c r="D561" s="51"/>
       <c r="E561" s="10"/>
       <c r="F561" s="10"/>
       <c r="G561" s="10"/>
@@ -28389,7 +28386,7 @@
       <c r="A562" s="56"/>
       <c r="B562" s="10"/>
       <c r="C562" s="10"/>
-      <c r="D562" s="10"/>
+      <c r="D562" s="51"/>
       <c r="E562" s="10"/>
       <c r="F562" s="10"/>
       <c r="G562" s="10"/>
@@ -28418,7 +28415,7 @@
       <c r="A563" s="56"/>
       <c r="B563" s="10"/>
       <c r="C563" s="10"/>
-      <c r="D563" s="10"/>
+      <c r="D563" s="51"/>
       <c r="E563" s="10"/>
       <c r="F563" s="10"/>
       <c r="G563" s="10"/>
@@ -28447,7 +28444,7 @@
       <c r="A564" s="56"/>
       <c r="B564" s="10"/>
       <c r="C564" s="10"/>
-      <c r="D564" s="10"/>
+      <c r="D564" s="51"/>
       <c r="E564" s="10"/>
       <c r="F564" s="10"/>
       <c r="G564" s="10"/>
@@ -28476,7 +28473,7 @@
       <c r="A565" s="56"/>
       <c r="B565" s="10"/>
       <c r="C565" s="10"/>
-      <c r="D565" s="10"/>
+      <c r="D565" s="51"/>
       <c r="E565" s="10"/>
       <c r="F565" s="10"/>
       <c r="G565" s="10"/>
@@ -28505,7 +28502,7 @@
       <c r="A566" s="56"/>
       <c r="B566" s="10"/>
       <c r="C566" s="10"/>
-      <c r="D566" s="10"/>
+      <c r="D566" s="51"/>
       <c r="E566" s="10"/>
       <c r="F566" s="10"/>
       <c r="G566" s="10"/>
@@ -28534,7 +28531,7 @@
       <c r="A567" s="56"/>
       <c r="B567" s="10"/>
       <c r="C567" s="10"/>
-      <c r="D567" s="10"/>
+      <c r="D567" s="51"/>
       <c r="E567" s="10"/>
       <c r="F567" s="10"/>
       <c r="G567" s="10"/>
@@ -28563,7 +28560,7 @@
       <c r="A568" s="56"/>
       <c r="B568" s="10"/>
       <c r="C568" s="10"/>
-      <c r="D568" s="10"/>
+      <c r="D568" s="51"/>
       <c r="E568" s="10"/>
       <c r="F568" s="10"/>
       <c r="G568" s="10"/>
@@ -28592,7 +28589,7 @@
       <c r="A569" s="56"/>
       <c r="B569" s="10"/>
       <c r="C569" s="10"/>
-      <c r="D569" s="10"/>
+      <c r="D569" s="51"/>
       <c r="E569" s="10"/>
       <c r="F569" s="10"/>
       <c r="G569" s="10"/>
@@ -28621,7 +28618,7 @@
       <c r="A570" s="56"/>
       <c r="B570" s="10"/>
       <c r="C570" s="10"/>
-      <c r="D570" s="10"/>
+      <c r="D570" s="51"/>
       <c r="E570" s="10"/>
       <c r="F570" s="10"/>
       <c r="G570" s="10"/>
@@ -28650,7 +28647,6 @@
       <c r="A571" s="56"/>
       <c r="B571" s="10"/>
       <c r="C571" s="10"/>
-      <c r="D571" s="10"/>
       <c r="E571" s="10"/>
       <c r="F571" s="10"/>
       <c r="G571" s="10"/>
@@ -28679,7 +28675,6 @@
       <c r="A572" s="56"/>
       <c r="B572" s="10"/>
       <c r="C572" s="10"/>
-      <c r="D572" s="10"/>
       <c r="E572" s="10"/>
       <c r="F572" s="10"/>
       <c r="G572" s="10"/>

--- a/DataGenerator/XLSXS/EventScript.xlsx
+++ b/DataGenerator/XLSXS/EventScript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RaisingStudent2\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF70FE5B-75E0-440F-9377-92E9732B81B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F180BBB8-F193-4DEC-A584-6CE57B5D30A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="517">
   <si>
     <t>스크립트 넘버</t>
   </si>
@@ -774,10 +774,6 @@
 부스 먼저 구경할래요!</t>
   </si>
   <si>
-    <t>팔로우 하면 경품 뽑기를 할 수 있다고요?
-헉, 1등상은 콘솔 게임기!</t>
-  </si>
-  <si>
     <t>직접 만드신 거라고요?
 이걸 전부 다요?!</t>
   </si>
@@ -799,10 +795,6 @@
 떼창까지 하고 나니 스트레스도 풀리는 기분이다!</t>
   </si>
   <si>
-    <t>밀, 밀지 마세요…!
-으아아아…!</t>
-  </si>
-  <si>
     <t>스탠딩에는 사람이 너무 많아서 계속 뒤로 밀려났다… 공연 내내 여기저기 치이기만 했다…</t>
   </si>
   <si>
@@ -814,16 +806,6 @@
 매년 열리는 게임 쇼 말이에요! 부산에서 하는 거!</t>
   </si>
   <si>
-    <t>신작 게임 시연도 하고,
-운 좋으면 경품도 타갈 수 있어요!</t>
-  </si>
-  <si>
-    <t>작년에 진짜 가고 싶었는데, 하필 그 때 엄청 어려운 과제가 나와서…</t>
-  </si>
-  <si>
-    <t>… 무, 물론 이번에도 과제가 있기는 하겠죠! 이번에는 미리 해 둘 거예요!</t>
-  </si>
-  <si>
     <t>역시 그렇죠!
 일단 티켓팅부터 해야겠다!</t>
   </si>
@@ -834,10 +816,6 @@
   <si>
     <t>역시 그렇죠…
 KTX 값도 비싸고…</t>
-  </si>
-  <si>
-    <t>시험공부도 해야 하고, 과제도 해야 하고…
-내년에 가면 되겠죠…</t>
   </si>
   <si>
     <t>몇 시지…</t>
@@ -1384,10 +1362,6 @@
     <t>… 그럼 내가 쏘는 거니까, 다들 맛있게 먹어!</t>
   </si>
   <si>
-    <t>모임에서 사람들과 즐거운 시간을 보냈다!
-뭔가 잊은 것 같긴 하지만…</t>
-  </si>
-  <si>
     <t>과제… 해야겠지…</t>
   </si>
   <si>
@@ -1454,10 +1428,6 @@
   <si>
     <t>그러니까, 뭐더라…
 과 사무실에 가서…</t>
-  </si>
-  <si>
-    <t>기억했던 대로 과에서 우산을 빌려주었고,
-다행히 우산을 쓰고 갈 수 있었다!</t>
   </si>
   <si>
     <t>…여보세요?</t>
@@ -2146,12 +2116,1569 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기억했던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우산을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빌려주었고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다행히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우산을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있었다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팔로우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다고요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등상은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>콘솔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">… </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이번에도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있기는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하겠죠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이번에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거예요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜예요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>약속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작년에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싶었는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하필</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엄청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어려운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나와서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시연도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경품도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타갈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시험공부도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과제도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">… </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내년에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되겠죠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으아아아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모임에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람들과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>즐거운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냈다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뭔가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잊은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2216,6 +3743,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -2319,7 +3853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2366,6 +3900,16 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2587,8 +4131,8 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D476" sqref="D476"/>
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2601,7 +4145,7 @@
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +4241,7 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2744,7 +4288,7 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>0</v>
       </c>
@@ -2791,7 +4335,7 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -2838,7 +4382,7 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2885,7 +4429,7 @@
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2932,7 +4476,7 @@
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -2979,7 +4523,7 @@
       <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -3026,7 +4570,7 @@
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -3073,7 +4617,7 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -3120,7 +4664,7 @@
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -3167,7 +4711,7 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -3214,7 +4758,7 @@
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -3261,7 +4805,7 @@
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -3289,7 +4833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -3317,7 +4861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -3345,7 +4889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -3373,7 +4917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -3401,7 +4945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -3429,7 +4973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -3457,7 +5001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>18</v>
       </c>
@@ -3485,7 +5029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -3513,7 +5057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -10382,7 +11926,7 @@
       <c r="Z170" s="8"/>
       <c r="AA170" s="8"/>
     </row>
-    <row r="171" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>167</v>
       </c>
@@ -10392,8 +11936,8 @@
       <c r="C171" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D171" s="10" t="s">
-        <v>174</v>
+      <c r="D171" s="31" t="s">
+        <v>509</v>
       </c>
       <c r="E171" s="10" t="str">
         <f t="shared" si="19"/>
@@ -10487,7 +12031,7 @@
         <v>56</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E173" s="10" t="str">
         <f t="shared" si="19"/>
@@ -10581,7 +12125,7 @@
         <v>56</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E175" s="10" t="str">
         <f t="shared" si="19"/>
@@ -10675,7 +12219,7 @@
         <v>56</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E177" s="10" t="str">
         <f t="shared" si="19"/>
@@ -10769,7 +12313,7 @@
         <v>56</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>58</v>
@@ -10817,7 +12361,7 @@
         <v>56</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>58</v>
@@ -10863,7 +12407,7 @@
         <v>23</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E181" s="10" t="str">
         <f>IF(OR(C181="Narration", C181="Player"), "none", "basic")</f>
@@ -10899,7 +12443,7 @@
       <c r="Z181" s="8"/>
       <c r="AA181" s="8"/>
     </row>
-    <row r="182" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" ht="33" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>178</v>
       </c>
@@ -10909,8 +12453,8 @@
       <c r="C182" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D182" s="20" t="s">
-        <v>181</v>
+      <c r="D182" s="35" t="s">
+        <v>515</v>
       </c>
       <c r="E182" s="10" t="s">
         <v>86</v>
@@ -10956,7 +12500,7 @@
         <v>23</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E183" s="10" t="str">
         <f t="shared" ref="E183:E186" si="20">IF(OR(C183="Narration", C183="Player"), "none", "basic")</f>
@@ -11003,7 +12547,7 @@
         <v>56</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E184" s="10" t="str">
         <f t="shared" si="20"/>
@@ -11050,7 +12594,7 @@
         <v>56</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E185" s="10" t="str">
         <f t="shared" si="20"/>
@@ -11086,7 +12630,7 @@
       <c r="Z185" s="8"/>
       <c r="AA185" s="8"/>
     </row>
-    <row r="186" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" ht="33" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>182</v>
       </c>
@@ -11096,8 +12640,8 @@
       <c r="C186" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D186" s="10" t="s">
-        <v>185</v>
+      <c r="D186" s="34" t="s">
+        <v>513</v>
       </c>
       <c r="E186" s="10" t="str">
         <f t="shared" si="20"/>
@@ -11133,7 +12677,7 @@
       <c r="Z186" s="8"/>
       <c r="AA186" s="8"/>
     </row>
-    <row r="187" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>183</v>
       </c>
@@ -11143,8 +12687,8 @@
       <c r="C187" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D187" s="10" t="s">
-        <v>186</v>
+      <c r="D187" s="31" t="s">
+        <v>512</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>86</v>
@@ -11179,7 +12723,7 @@
       <c r="Z187" s="8"/>
       <c r="AA187" s="8"/>
     </row>
-    <row r="188" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>184</v>
       </c>
@@ -11190,7 +12734,7 @@
         <v>56</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>187</v>
+        <v>510</v>
       </c>
       <c r="E188" s="10" t="str">
         <f t="shared" ref="E188:E203" si="21">IF(OR(C188="Narration", C188="Player"), "none", "basic")</f>
@@ -11226,7 +12770,7 @@
       <c r="Z188" s="8"/>
       <c r="AA188" s="8"/>
     </row>
-    <row r="189" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>185</v>
       </c>
@@ -11236,8 +12780,8 @@
       <c r="C189" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D189" s="10" t="s">
-        <v>166</v>
+      <c r="D189" s="31" t="s">
+        <v>511</v>
       </c>
       <c r="E189" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11286,7 +12830,7 @@
         <v>56</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E190" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11333,7 +12877,7 @@
         <v>56</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E191" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11380,7 +12924,7 @@
         <v>56</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E192" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11416,7 +12960,7 @@
       <c r="Z192" s="8"/>
       <c r="AA192" s="8"/>
     </row>
-    <row r="193" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" ht="33" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>189</v>
       </c>
@@ -11426,8 +12970,8 @@
       <c r="C193" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D193" s="21" t="s">
-        <v>191</v>
+      <c r="D193" s="33" t="s">
+        <v>514</v>
       </c>
       <c r="E193" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11474,7 +13018,7 @@
         <v>56</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E194" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11521,7 +13065,7 @@
         <v>56</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E195" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11615,7 +13159,7 @@
         <v>27</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E197" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11664,7 +13208,7 @@
         <v>56</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E198" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11758,7 +13302,7 @@
         <v>56</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E200" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11852,7 +13396,7 @@
         <v>56</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E202" s="10" t="str">
         <f t="shared" si="21"/>
@@ -11946,7 +13490,7 @@
         <v>56</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>58</v>
@@ -11992,7 +13536,7 @@
         <v>56</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>58</v>
@@ -12038,7 +13582,7 @@
         <v>23</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E206" s="10" t="str">
         <f t="shared" ref="E206:E207" si="22">IF(OR(C206="Narration", C206="Player"), "none", "basic")</f>
@@ -12178,7 +13722,7 @@
         <v>23</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E209" s="10" t="str">
         <f t="shared" ref="E209:E215" si="23">IF(OR(C209="Narration", C209="Player"), "none", "basic")</f>
@@ -12225,7 +13769,7 @@
         <v>56</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E210" s="10" t="str">
         <f t="shared" si="23"/>
@@ -12319,7 +13863,7 @@
         <v>56</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E212" s="10" t="str">
         <f t="shared" si="23"/>
@@ -12413,7 +13957,7 @@
         <v>56</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E214" s="10" t="str">
         <f t="shared" si="23"/>
@@ -12507,7 +14051,7 @@
         <v>56</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>86</v>
@@ -12553,7 +14097,7 @@
         <v>23</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E217" s="10" t="str">
         <f t="shared" ref="E217:E218" si="24">IF(OR(C217="Narration", C217="Player"), "none", "basic")</f>
@@ -12787,7 +14331,7 @@
         <v>56</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E222" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12802,7 +14346,7 @@
       </c>
       <c r="H222" s="14"/>
       <c r="I222" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
@@ -12849,7 +14393,7 @@
       </c>
       <c r="H223" s="14"/>
       <c r="I223" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
@@ -12881,7 +14425,7 @@
         <v>56</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E224" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12896,7 +14440,7 @@
       </c>
       <c r="H224" s="14"/>
       <c r="I224" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
@@ -12928,7 +14472,7 @@
         <v>56</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E225" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12943,7 +14487,7 @@
       </c>
       <c r="H225" s="14"/>
       <c r="I225" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J225" s="8"/>
       <c r="K225" s="8"/>
@@ -12975,7 +14519,7 @@
         <v>56</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E226" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12990,7 +14534,7 @@
       </c>
       <c r="H226" s="14"/>
       <c r="I226" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
@@ -13037,7 +14581,7 @@
       </c>
       <c r="H227" s="14"/>
       <c r="I227" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
@@ -13069,7 +14613,7 @@
         <v>56</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E228" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13084,7 +14628,7 @@
       </c>
       <c r="H228" s="14"/>
       <c r="I228" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J228" s="8"/>
       <c r="K228" s="8"/>
@@ -13131,7 +14675,7 @@
       </c>
       <c r="H229" s="14"/>
       <c r="I229" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
@@ -13163,7 +14707,7 @@
         <v>56</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E230" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13178,7 +14722,7 @@
       </c>
       <c r="H230" s="14"/>
       <c r="I230" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
@@ -13225,7 +14769,7 @@
       </c>
       <c r="H231" s="14"/>
       <c r="I231" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
@@ -13257,7 +14801,7 @@
         <v>56</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E232" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13272,7 +14816,7 @@
       </c>
       <c r="H232" s="14"/>
       <c r="I232" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
@@ -13321,7 +14865,7 @@
         <v>6</v>
       </c>
       <c r="I233" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
@@ -13353,7 +14897,7 @@
         <v>56</v>
       </c>
       <c r="D234" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E234" s="10" t="s">
         <v>58</v>
@@ -13367,7 +14911,7 @@
       </c>
       <c r="H234" s="14"/>
       <c r="I234" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
@@ -13399,7 +14943,7 @@
         <v>23</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E235" s="10" t="str">
         <f>IF(OR(C235="Narration", C235="Player"), "none", "basic")</f>
@@ -13414,7 +14958,7 @@
       </c>
       <c r="H235" s="14"/>
       <c r="I235" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
@@ -13446,7 +14990,7 @@
         <v>56</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E236" s="10" t="s">
         <v>86</v>
@@ -13460,7 +15004,7 @@
       </c>
       <c r="H236" s="14"/>
       <c r="I236" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
@@ -13492,7 +15036,7 @@
         <v>23</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E237" s="10" t="str">
         <f>IF(OR(C237="Narration", C237="Player"), "none", "basic")</f>
@@ -13507,7 +15051,7 @@
       </c>
       <c r="H237" s="18"/>
       <c r="I237" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
@@ -13539,7 +15083,7 @@
         <v>56</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E238" s="10" t="s">
         <v>86</v>
@@ -13585,7 +15129,7 @@
         <v>56</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E239" s="10" t="str">
         <f t="shared" ref="E239:E247" si="26">IF(OR(C239="Narration", C239="Player"), "none", "basic")</f>
@@ -13679,7 +15223,7 @@
         <v>27</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E241" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13728,7 +15272,7 @@
         <v>56</v>
       </c>
       <c r="D242" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E242" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13822,7 +15366,7 @@
         <v>56</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E244" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13916,7 +15460,7 @@
         <v>56</v>
       </c>
       <c r="D246" s="22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E246" s="10" t="str">
         <f t="shared" si="26"/>
@@ -14010,7 +15554,7 @@
         <v>56</v>
       </c>
       <c r="D248" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E248" s="10" t="s">
         <v>58</v>
@@ -14056,7 +15600,7 @@
         <v>56</v>
       </c>
       <c r="D249" s="22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E249" s="10" t="s">
         <v>58</v>
@@ -14102,7 +15646,7 @@
         <v>23</v>
       </c>
       <c r="D250" s="22" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E250" s="10" t="str">
         <f t="shared" ref="E250:E251" si="27">IF(OR(C250="Narration", C250="Player"), "none", "basic")</f>
@@ -14242,7 +15786,7 @@
         <v>23</v>
       </c>
       <c r="D253" s="22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E253" s="10" t="str">
         <f t="shared" ref="E253:E259" si="28">IF(OR(C253="Narration", C253="Player"), "none", "basic")</f>
@@ -14289,7 +15833,7 @@
         <v>56</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E254" s="10" t="str">
         <f t="shared" si="28"/>
@@ -14383,7 +15927,7 @@
         <v>56</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E256" s="10" t="str">
         <f t="shared" si="28"/>
@@ -14477,7 +16021,7 @@
         <v>56</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E258" s="10" t="str">
         <f t="shared" si="28"/>
@@ -14571,7 +16115,7 @@
         <v>56</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E260" s="10" t="s">
         <v>86</v>
@@ -14617,7 +16161,7 @@
         <v>23</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E261" s="10" t="str">
         <f t="shared" ref="E261:E262" si="30">IF(OR(C261="Narration", C261="Player"), "none", "basic")</f>
@@ -14804,7 +16348,7 @@
         <v>23</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E265" s="10" t="str">
         <f t="shared" si="31"/>
@@ -14851,7 +16395,7 @@
         <v>27</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E266" s="10" t="str">
         <f t="shared" si="31"/>
@@ -14898,7 +16442,7 @@
         <v>27</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E267" s="10" t="str">
         <f t="shared" si="31"/>
@@ -14992,7 +16536,7 @@
         <v>56</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E269" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15036,10 +16580,10 @@
         <v>100</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E270" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15083,10 +16627,10 @@
         <v>100</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E271" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15130,10 +16674,10 @@
         <v>100</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E272" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15180,7 +16724,7 @@
         <v>56</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E273" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15227,7 +16771,7 @@
         <v>56</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E274" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15276,7 +16820,7 @@
         <v>56</v>
       </c>
       <c r="D275" s="22" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E275" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15320,10 +16864,10 @@
         <v>100</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E276" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15367,10 +16911,10 @@
         <v>100</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E277" s="10" t="str">
         <f t="shared" si="31"/>
@@ -15417,7 +16961,7 @@
         <v>56</v>
       </c>
       <c r="D278" s="22" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E278" s="10" t="s">
         <v>58</v>
@@ -15460,10 +17004,10 @@
         <v>100</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D279" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E279" s="10" t="str">
         <f t="shared" ref="E279:E292" si="32">IF(OR(C279="Narration", C279="Player"), "none", "basic")</f>
@@ -15510,7 +17054,7 @@
         <v>56</v>
       </c>
       <c r="D280" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E280" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15557,7 +17101,7 @@
         <v>23</v>
       </c>
       <c r="D281" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E281" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15648,10 +17192,10 @@
         <v>100</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E283" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15695,10 +17239,10 @@
         <v>100</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E284" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15742,10 +17286,10 @@
         <v>100</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E285" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15792,7 +17336,7 @@
         <v>56</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E286" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15839,7 +17383,7 @@
         <v>23</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E287" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15886,7 +17430,7 @@
         <v>56</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E288" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15933,7 +17477,7 @@
         <v>56</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E289" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16074,7 +17618,7 @@
         <v>56</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E292" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16121,10 +17665,10 @@
         <v>56</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F293" s="13" t="b">
         <f t="shared" si="29"/>
@@ -16167,7 +17711,7 @@
         <v>56</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E294" s="10" t="s">
         <v>86</v>
@@ -16215,7 +17759,7 @@
         <v>56</v>
       </c>
       <c r="D295" s="22" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E295" s="10" t="s">
         <v>86</v>
@@ -16261,7 +17805,7 @@
         <v>23</v>
       </c>
       <c r="D296" s="22" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E296" s="10" t="str">
         <f t="shared" ref="E296:E303" si="33">IF(OR(C296="Narration", C296="Player"), "none", "basic")</f>
@@ -16308,7 +17852,7 @@
         <v>56</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E297" s="10" t="str">
         <f t="shared" si="33"/>
@@ -16355,7 +17899,7 @@
         <v>56</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E298" s="10" t="str">
         <f t="shared" si="33"/>
@@ -16449,7 +17993,7 @@
         <v>56</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E300" s="10" t="str">
         <f t="shared" si="33"/>
@@ -16496,7 +18040,7 @@
         <v>56</v>
       </c>
       <c r="D301" s="20" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E301" s="10" t="str">
         <f t="shared" si="33"/>
@@ -16543,7 +18087,7 @@
         <v>23</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E302" s="10" t="str">
         <f t="shared" si="33"/>
@@ -16590,7 +18134,7 @@
         <v>27</v>
       </c>
       <c r="D303" s="20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E303" s="10" t="str">
         <f t="shared" si="33"/>
@@ -16637,7 +18181,7 @@
         <v>56</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E304" s="10" t="s">
         <v>86</v>
@@ -16683,7 +18227,7 @@
         <v>23</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E305" s="10" t="str">
         <f t="shared" ref="E305:E307" si="34">IF(OR(C305="Narration", C305="Player"), "none", "basic")</f>
@@ -16730,7 +18274,7 @@
         <v>56</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E306" s="10" t="str">
         <f t="shared" si="34"/>
@@ -16777,7 +18321,7 @@
         <v>56</v>
       </c>
       <c r="D307" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E307" s="10" t="str">
         <f t="shared" si="34"/>
@@ -16824,7 +18368,7 @@
         <v>56</v>
       </c>
       <c r="D308" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E308" s="10" t="s">
         <v>86</v>
@@ -16872,10 +18416,10 @@
         <v>56</v>
       </c>
       <c r="D309" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F309" s="13" t="b">
         <f t="shared" si="29"/>
@@ -16886,7 +18430,7 @@
       </c>
       <c r="H309" s="14"/>
       <c r="I309" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J309" s="8"/>
       <c r="K309" s="8"/>
@@ -16918,10 +18462,10 @@
         <v>56</v>
       </c>
       <c r="D310" s="22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F310" s="13" t="b">
         <f t="shared" si="29"/>
@@ -16932,7 +18476,7 @@
       </c>
       <c r="H310" s="14"/>
       <c r="I310" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J310" s="8"/>
       <c r="K310" s="8"/>
@@ -16964,7 +18508,7 @@
         <v>23</v>
       </c>
       <c r="D311" s="22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E311" s="10" t="str">
         <f>IF(OR(C311="Narration", C311="Player"), "none", "basic")</f>
@@ -16979,7 +18523,7 @@
       </c>
       <c r="H311" s="14"/>
       <c r="I311" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J311" s="8"/>
       <c r="K311" s="8"/>
@@ -17011,7 +18555,7 @@
         <v>56</v>
       </c>
       <c r="D312" s="22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E312" s="10" t="s">
         <v>58</v>
@@ -17025,7 +18569,7 @@
       </c>
       <c r="H312" s="14"/>
       <c r="I312" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J312" s="8"/>
       <c r="K312" s="8"/>
@@ -17057,7 +18601,7 @@
         <v>56</v>
       </c>
       <c r="D313" s="22" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E313" s="10" t="s">
         <v>58</v>
@@ -17071,7 +18615,7 @@
       </c>
       <c r="H313" s="14"/>
       <c r="I313" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J313" s="8"/>
       <c r="K313" s="8"/>
@@ -17103,7 +18647,7 @@
         <v>23</v>
       </c>
       <c r="D314" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E314" s="10" t="str">
         <f t="shared" ref="E314:E318" si="35">IF(OR(C314="Narration", C314="Player"), "none", "basic")</f>
@@ -17118,7 +18662,7 @@
       </c>
       <c r="H314" s="14"/>
       <c r="I314" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J314" s="8"/>
       <c r="K314" s="8"/>
@@ -17150,7 +18694,7 @@
         <v>56</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E315" s="10" t="str">
         <f t="shared" si="35"/>
@@ -17197,7 +18741,7 @@
         <v>23</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E316" s="10" t="str">
         <f t="shared" si="35"/>
@@ -17244,7 +18788,7 @@
         <v>56</v>
       </c>
       <c r="D317" s="20" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E317" s="10" t="str">
         <f t="shared" si="35"/>
@@ -17291,7 +18835,7 @@
         <v>56</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E318" s="10" t="str">
         <f t="shared" si="35"/>
@@ -17338,7 +18882,7 @@
         <v>56</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E319" s="10" t="s">
         <v>86</v>
@@ -17384,7 +18928,7 @@
         <v>56</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E320" s="10" t="s">
         <v>86</v>
@@ -17430,7 +18974,7 @@
         <v>23</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E321" s="10" t="str">
         <f>IF(OR(C321="Narration", C321="Player"), "none", "basic")</f>
@@ -17477,7 +19021,7 @@
         <v>56</v>
       </c>
       <c r="D322" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E322" s="10" t="s">
         <v>86</v>
@@ -17520,10 +19064,10 @@
         <v>103</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E323" s="10" t="str">
         <f t="shared" ref="E323:E324" si="36">IF(OR(C323="Narration", C323="Player"), "none", "basic")</f>
@@ -17570,7 +19114,7 @@
         <v>56</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E324" s="10" t="str">
         <f t="shared" si="36"/>
@@ -17617,7 +19161,7 @@
         <v>56</v>
       </c>
       <c r="D325" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E325" s="10" t="s">
         <v>58</v>
@@ -17660,10 +19204,10 @@
         <v>103</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E326" s="10" t="str">
         <f t="shared" ref="E326:E337" si="37">IF(OR(C326="Narration", C326="Player"), "none", "basic")</f>
@@ -17725,7 +19269,7 @@
       </c>
       <c r="H327" s="14"/>
       <c r="I327" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J327" s="8"/>
       <c r="K327" s="8"/>
@@ -17757,7 +19301,7 @@
         <v>56</v>
       </c>
       <c r="D328" s="10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E328" s="10" t="str">
         <f t="shared" si="37"/>
@@ -17772,7 +19316,7 @@
       </c>
       <c r="H328" s="14"/>
       <c r="I328" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J328" s="8"/>
       <c r="K328" s="8"/>
@@ -17801,10 +19345,10 @@
         <v>103</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D329" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E329" s="10" t="str">
         <f t="shared" si="37"/>
@@ -17819,7 +19363,7 @@
       </c>
       <c r="H329" s="14"/>
       <c r="I329" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J329" s="8"/>
       <c r="K329" s="8"/>
@@ -17848,10 +19392,10 @@
         <v>103</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D330" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E330" s="10" t="str">
         <f t="shared" si="37"/>
@@ -17866,7 +19410,7 @@
       </c>
       <c r="H330" s="14"/>
       <c r="I330" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J330" s="8"/>
       <c r="K330" s="8"/>
@@ -17895,10 +19439,10 @@
         <v>103</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D331" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E331" s="10" t="str">
         <f t="shared" si="37"/>
@@ -17913,7 +19457,7 @@
       </c>
       <c r="H331" s="14"/>
       <c r="I331" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J331" s="8"/>
       <c r="K331" s="8"/>
@@ -17945,7 +19489,7 @@
         <v>56</v>
       </c>
       <c r="D332" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E332" s="10" t="str">
         <f t="shared" si="37"/>
@@ -17960,7 +19504,7 @@
       </c>
       <c r="H332" s="14"/>
       <c r="I332" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J332" s="8"/>
       <c r="K332" s="8"/>
@@ -17989,10 +19533,10 @@
         <v>103</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D333" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E333" s="10" t="str">
         <f t="shared" si="37"/>
@@ -18007,7 +19551,7 @@
       </c>
       <c r="H333" s="14"/>
       <c r="I333" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J333" s="8"/>
       <c r="K333" s="8"/>
@@ -18039,7 +19583,7 @@
         <v>56</v>
       </c>
       <c r="D334" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E334" s="10" t="str">
         <f t="shared" si="37"/>
@@ -18056,7 +19600,7 @@
         <v>103</v>
       </c>
       <c r="I334" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J334" s="8"/>
       <c r="K334" s="8"/>
@@ -18088,7 +19632,7 @@
         <v>56</v>
       </c>
       <c r="D335" s="22" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E335" s="10" t="str">
         <f t="shared" si="37"/>
@@ -18103,7 +19647,7 @@
       </c>
       <c r="H335" s="14"/>
       <c r="I335" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J335" s="8"/>
       <c r="K335" s="8"/>
@@ -18135,7 +19679,7 @@
         <v>56</v>
       </c>
       <c r="D336" s="22" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E336" s="10" t="str">
         <f t="shared" si="37"/>
@@ -18150,7 +19694,7 @@
       </c>
       <c r="H336" s="14"/>
       <c r="I336" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J336" s="8"/>
       <c r="K336" s="8"/>
@@ -18179,10 +19723,10 @@
         <v>103</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D337" s="22" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E337" s="10" t="str">
         <f t="shared" si="37"/>
@@ -18197,7 +19741,7 @@
       </c>
       <c r="H337" s="14"/>
       <c r="I337" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J337" s="8"/>
       <c r="K337" s="8"/>
@@ -18229,7 +19773,7 @@
         <v>56</v>
       </c>
       <c r="D338" s="22" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E338" s="10" t="s">
         <v>58</v>
@@ -18243,7 +19787,7 @@
       </c>
       <c r="H338" s="14"/>
       <c r="I338" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J338" s="8"/>
       <c r="K338" s="8"/>
@@ -18275,7 +19819,7 @@
         <v>23</v>
       </c>
       <c r="D339" s="22" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E339" s="10" t="str">
         <f t="shared" ref="E339:E340" si="38">IF(OR(C339="Narration", C339="Player"), "none", "basic")</f>
@@ -18415,7 +19959,7 @@
         <v>56</v>
       </c>
       <c r="D342" s="22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E342" s="10" t="s">
         <v>86</v>
@@ -18461,7 +20005,7 @@
         <v>23</v>
       </c>
       <c r="D343" s="22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E343" s="10" t="str">
         <f t="shared" ref="E343:E350" si="39">IF(OR(C343="Narration", C343="Player"), "none", "basic")</f>
@@ -18505,10 +20049,10 @@
         <v>103</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D344" s="20" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E344" s="10" t="str">
         <f t="shared" si="39"/>
@@ -18523,7 +20067,7 @@
       </c>
       <c r="H344" s="14"/>
       <c r="I344" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J344" s="8"/>
       <c r="K344" s="8"/>
@@ -18555,7 +20099,7 @@
         <v>56</v>
       </c>
       <c r="D345" s="20" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E345" s="10" t="str">
         <f t="shared" si="39"/>
@@ -18570,7 +20114,7 @@
       </c>
       <c r="H345" s="14"/>
       <c r="I345" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J345" s="8"/>
       <c r="K345" s="8"/>
@@ -18599,10 +20143,10 @@
         <v>103</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D346" s="20" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E346" s="10" t="str">
         <f t="shared" si="39"/>
@@ -18617,7 +20161,7 @@
       </c>
       <c r="H346" s="14"/>
       <c r="I346" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J346" s="8"/>
       <c r="K346" s="8"/>
@@ -18649,7 +20193,7 @@
         <v>23</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E347" s="10" t="str">
         <f t="shared" si="39"/>
@@ -18664,7 +20208,7 @@
       </c>
       <c r="H347" s="18"/>
       <c r="I347" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J347" s="8"/>
       <c r="K347" s="8"/>
@@ -18696,7 +20240,7 @@
         <v>27</v>
       </c>
       <c r="D348" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E348" s="10" t="str">
         <f t="shared" si="39"/>
@@ -18743,7 +20287,7 @@
         <v>27</v>
       </c>
       <c r="D349" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E349" s="10" t="str">
         <f t="shared" si="39"/>
@@ -18787,10 +20331,10 @@
         <v>104</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D350" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E350" s="10" t="str">
         <f t="shared" si="39"/>
@@ -18837,7 +20381,7 @@
         <v>56</v>
       </c>
       <c r="D351" s="10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E351" s="10" t="s">
         <v>86</v>
@@ -18883,7 +20427,7 @@
         <v>23</v>
       </c>
       <c r="D352" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E352" s="10" t="str">
         <f t="shared" ref="E352:E369" si="40">IF(OR(C352="Narration", C352="Player"), "none", "basic")</f>
@@ -18930,7 +20474,7 @@
         <v>56</v>
       </c>
       <c r="D353" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E353" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18977,7 +20521,7 @@
         <v>56</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E354" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19026,7 +20570,7 @@
         <v>23</v>
       </c>
       <c r="D355" s="22" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E355" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19073,7 +20617,7 @@
         <v>23</v>
       </c>
       <c r="D356" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E356" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19120,7 +20664,7 @@
         <v>56</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E357" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19167,7 +20711,7 @@
         <v>56</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E358" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19214,7 +20758,7 @@
         <v>56</v>
       </c>
       <c r="D359" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E359" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19263,7 +20807,7 @@
         <v>56</v>
       </c>
       <c r="D360" s="22" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E360" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19310,7 +20854,7 @@
         <v>23</v>
       </c>
       <c r="D361" s="22" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E361" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19357,7 +20901,7 @@
         <v>56</v>
       </c>
       <c r="D362" s="20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E362" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19401,10 +20945,10 @@
         <v>105</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D363" s="20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E363" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19451,7 +20995,7 @@
         <v>56</v>
       </c>
       <c r="D364" s="20" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E364" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19495,10 +21039,10 @@
         <v>105</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D365" s="20" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E365" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19545,7 +21089,7 @@
         <v>56</v>
       </c>
       <c r="D366" s="20" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E366" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19592,7 +21136,7 @@
         <v>23</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E367" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19639,7 +21183,7 @@
         <v>56</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E368" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19654,7 +21198,7 @@
       </c>
       <c r="H368" s="14"/>
       <c r="I368" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J368" s="8"/>
       <c r="K368" s="8"/>
@@ -19686,7 +21230,7 @@
         <v>56</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E369" s="10" t="str">
         <f t="shared" si="40"/>
@@ -19701,7 +21245,7 @@
       </c>
       <c r="H369" s="14"/>
       <c r="I369" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J369" s="8"/>
       <c r="K369" s="8"/>
@@ -19733,7 +21277,7 @@
         <v>56</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E370" s="10" t="s">
         <v>58</v>
@@ -19747,7 +21291,7 @@
       </c>
       <c r="H370" s="14"/>
       <c r="I370" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J370" s="8"/>
       <c r="K370" s="8"/>
@@ -19779,10 +21323,10 @@
         <v>56</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F371" s="13" t="b">
         <f t="shared" si="29"/>
@@ -19795,7 +21339,7 @@
         <v>106</v>
       </c>
       <c r="I371" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J371" s="8"/>
       <c r="K371" s="8"/>
@@ -19827,7 +21371,7 @@
         <v>56</v>
       </c>
       <c r="D372" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E372" s="10" t="str">
         <f>IF(OR(C372="Narration", C372="Player"), "none", "basic")</f>
@@ -19842,7 +21386,7 @@
       </c>
       <c r="H372" s="14"/>
       <c r="I372" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J372" s="8"/>
       <c r="K372" s="8"/>
@@ -19874,7 +21418,7 @@
         <v>56</v>
       </c>
       <c r="D373" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E373" s="10" t="s">
         <v>58</v>
@@ -19888,7 +21432,7 @@
       </c>
       <c r="H373" s="14"/>
       <c r="I373" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J373" s="8"/>
       <c r="K373" s="8"/>
@@ -19920,7 +21464,7 @@
         <v>23</v>
       </c>
       <c r="D374" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E374" s="10" t="str">
         <f>IF(OR(C374="Narration", C374="Player"), "none", "basic")</f>
@@ -19935,7 +21479,7 @@
       </c>
       <c r="H374" s="14"/>
       <c r="I374" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J374" s="8"/>
       <c r="K374" s="8"/>
@@ -19967,7 +21511,7 @@
         <v>56</v>
       </c>
       <c r="D375" s="20" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E375" s="10" t="s">
         <v>86</v>
@@ -19981,7 +21525,7 @@
       </c>
       <c r="H375" s="14"/>
       <c r="I375" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J375" s="8"/>
       <c r="K375" s="8"/>
@@ -20013,7 +21557,7 @@
         <v>23</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E376" s="10" t="str">
         <f t="shared" ref="E376:E385" si="41">IF(OR(C376="Narration", C376="Player"), "none", "basic")</f>
@@ -20028,7 +21572,7 @@
       </c>
       <c r="H376" s="18"/>
       <c r="I376" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J376" s="8"/>
       <c r="K376" s="8"/>
@@ -20060,7 +21604,7 @@
         <v>56</v>
       </c>
       <c r="D377" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E377" s="10" t="str">
         <f t="shared" si="41"/>
@@ -20107,7 +21651,7 @@
         <v>56</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E378" s="10" t="str">
         <f t="shared" si="41"/>
@@ -20154,7 +21698,7 @@
         <v>56</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E379" s="10" t="str">
         <f t="shared" si="41"/>
@@ -20200,10 +21744,10 @@
         <v>107</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D380" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E380" s="10" t="str">
         <f t="shared" si="41"/>
@@ -20218,7 +21762,7 @@
       </c>
       <c r="H380" s="14"/>
       <c r="I380" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J380" s="8"/>
       <c r="K380" s="8"/>
@@ -20250,7 +21794,7 @@
         <v>56</v>
       </c>
       <c r="D381" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E381" s="10" t="str">
         <f t="shared" si="41"/>
@@ -20265,7 +21809,7 @@
       </c>
       <c r="H381" s="14"/>
       <c r="I381" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J381" s="8"/>
       <c r="K381" s="8"/>
@@ -20294,10 +21838,10 @@
         <v>107</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D382" s="22" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E382" s="10" t="str">
         <f t="shared" si="41"/>
@@ -20312,7 +21856,7 @@
       </c>
       <c r="H382" s="14"/>
       <c r="I382" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J382" s="8"/>
       <c r="K382" s="8"/>
@@ -20359,7 +21903,7 @@
       </c>
       <c r="H383" s="14"/>
       <c r="I383" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J383" s="8"/>
       <c r="K383" s="8"/>
@@ -20388,10 +21932,10 @@
         <v>107</v>
       </c>
       <c r="C384" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D384" s="22" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E384" s="10" t="str">
         <f t="shared" si="41"/>
@@ -20406,7 +21950,7 @@
       </c>
       <c r="H384" s="14"/>
       <c r="I384" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J384" s="8"/>
       <c r="K384" s="8"/>
@@ -20427,7 +21971,7 @@
       <c r="Z384" s="8"/>
       <c r="AA384" s="8"/>
     </row>
-    <row r="385" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A385" s="11">
         <v>1119</v>
       </c>
@@ -20437,8 +21981,8 @@
       <c r="C385" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D385" s="22" t="s">
-        <v>351</v>
+      <c r="D385" s="32" t="s">
+        <v>516</v>
       </c>
       <c r="E385" s="10" t="str">
         <f t="shared" si="41"/>
@@ -20453,7 +21997,7 @@
       </c>
       <c r="H385" s="14"/>
       <c r="I385" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J385" s="8"/>
       <c r="K385" s="8"/>
@@ -20485,7 +22029,7 @@
         <v>56</v>
       </c>
       <c r="D386" s="20" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E386" s="10" t="s">
         <v>86</v>
@@ -20575,10 +22119,10 @@
         <v>107</v>
       </c>
       <c r="C388" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D388" s="20" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E388" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20625,7 +22169,7 @@
         <v>56</v>
       </c>
       <c r="D389" s="20" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E389" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20669,10 +22213,10 @@
         <v>107</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D390" s="20" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E390" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20719,7 +22263,7 @@
         <v>23</v>
       </c>
       <c r="D391" s="21" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E391" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20766,7 +22310,7 @@
         <v>56</v>
       </c>
       <c r="D392" s="10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E392" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20813,7 +22357,7 @@
         <v>56</v>
       </c>
       <c r="D393" s="10" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E393" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20862,7 +22406,7 @@
         <v>56</v>
       </c>
       <c r="D394" s="22" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E394" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20909,7 +22453,7 @@
         <v>23</v>
       </c>
       <c r="D395" s="22" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E395" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20956,7 +22500,7 @@
         <v>56</v>
       </c>
       <c r="D396" s="20" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E396" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21003,7 +22547,7 @@
         <v>23</v>
       </c>
       <c r="D397" s="21" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E397" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21050,7 +22594,7 @@
         <v>56</v>
       </c>
       <c r="D398" s="10" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E398" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21097,7 +22641,7 @@
         <v>56</v>
       </c>
       <c r="D399" s="10" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E399" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21159,7 +22703,7 @@
       </c>
       <c r="H400" s="14"/>
       <c r="I400" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J400" s="8"/>
       <c r="K400" s="8"/>
@@ -21188,10 +22732,10 @@
         <v>109</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D401" s="10" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E401" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21206,7 +22750,7 @@
       </c>
       <c r="H401" s="14"/>
       <c r="I401" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J401" s="8"/>
       <c r="K401" s="8"/>
@@ -21238,7 +22782,7 @@
         <v>56</v>
       </c>
       <c r="D402" s="10" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E402" s="10" t="s">
         <v>86</v>
@@ -21254,7 +22798,7 @@
         <v>109</v>
       </c>
       <c r="I402" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J402" s="8"/>
       <c r="K402" s="8"/>
@@ -21286,7 +22830,7 @@
         <v>56</v>
       </c>
       <c r="D403" s="22" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E403" s="10" t="str">
         <f t="shared" ref="E403:E410" si="43">IF(OR(C403="Narration", C403="Player"), "none", "basic")</f>
@@ -21333,7 +22877,7 @@
         <v>56</v>
       </c>
       <c r="D404" s="22" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E404" s="10" t="str">
         <f t="shared" si="43"/>
@@ -21380,7 +22924,7 @@
         <v>56</v>
       </c>
       <c r="D405" s="22" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E405" s="10" t="str">
         <f t="shared" si="43"/>
@@ -21416,7 +22960,7 @@
       <c r="Z405" s="8"/>
       <c r="AA405" s="8"/>
     </row>
-    <row r="406" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A406" s="11">
         <v>1140</v>
       </c>
@@ -21426,8 +22970,8 @@
       <c r="C406" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D406" s="22" t="s">
-        <v>371</v>
+      <c r="D406" s="32" t="s">
+        <v>508</v>
       </c>
       <c r="E406" s="10" t="str">
         <f t="shared" si="43"/>
@@ -21474,7 +23018,7 @@
         <v>56</v>
       </c>
       <c r="D407" s="20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E407" s="10" t="str">
         <f t="shared" si="43"/>
@@ -21518,10 +23062,10 @@
         <v>109</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D408" s="20" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E408" s="10" t="str">
         <f t="shared" si="43"/>
@@ -21568,7 +23112,7 @@
         <v>56</v>
       </c>
       <c r="D409" s="20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E409" s="10" t="str">
         <f t="shared" si="43"/>
@@ -21612,10 +23156,10 @@
         <v>109</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D410" s="20" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E410" s="10" t="str">
         <f t="shared" si="43"/>
@@ -21662,7 +23206,7 @@
         <v>56</v>
       </c>
       <c r="D411" s="20" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E411" s="10" t="s">
         <v>58</v>
@@ -21708,7 +23252,7 @@
         <v>23</v>
       </c>
       <c r="D412" s="21" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E412" s="10" t="str">
         <f t="shared" ref="E412:E423" si="44">IF(OR(C412="Narration", C412="Player"), "none", "basic")</f>
@@ -21755,7 +23299,7 @@
         <v>56</v>
       </c>
       <c r="D413" s="10" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E413" s="10" t="str">
         <f t="shared" si="44"/>
@@ -21804,7 +23348,7 @@
         <v>23</v>
       </c>
       <c r="D414" s="22" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E414" s="10" t="str">
         <f t="shared" si="44"/>
@@ -21851,7 +23395,7 @@
         <v>23</v>
       </c>
       <c r="D415" s="21" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E415" s="10" t="str">
         <f t="shared" si="44"/>
@@ -21898,7 +23442,7 @@
         <v>56</v>
       </c>
       <c r="D416" s="10" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E416" s="10" t="str">
         <f t="shared" si="44"/>
@@ -21945,7 +23489,7 @@
         <v>56</v>
       </c>
       <c r="D417" s="10" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E417" s="10" t="str">
         <f t="shared" si="44"/>
@@ -21994,7 +23538,7 @@
         <v>56</v>
       </c>
       <c r="D418" s="22" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E418" s="10" t="str">
         <f t="shared" si="44"/>
@@ -22041,7 +23585,7 @@
         <v>23</v>
       </c>
       <c r="D419" s="22" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E419" s="10" t="str">
         <f t="shared" si="44"/>
@@ -22088,7 +23632,7 @@
         <v>56</v>
       </c>
       <c r="D420" s="20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E420" s="10" t="str">
         <f t="shared" si="44"/>
@@ -22135,7 +23679,7 @@
         <v>23</v>
       </c>
       <c r="D421" s="21" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E421" s="10" t="str">
         <f t="shared" si="44"/>
@@ -22182,7 +23726,7 @@
         <v>56</v>
       </c>
       <c r="D422" s="10" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E422" s="10" t="str">
         <f t="shared" si="44"/>
@@ -22229,7 +23773,7 @@
         <v>56</v>
       </c>
       <c r="D423" s="10" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E423" s="10" t="str">
         <f t="shared" si="44"/>
@@ -22276,7 +23820,7 @@
         <v>56</v>
       </c>
       <c r="D424" s="10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E424" s="10" t="s">
         <v>58</v>
@@ -22322,7 +23866,7 @@
         <v>23</v>
       </c>
       <c r="D425" s="10" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E425" s="10" t="str">
         <f t="shared" ref="E425:E433" si="45">IF(OR(C425="Narration", C425="Player"), "none", "basic")</f>
@@ -22369,7 +23913,7 @@
         <v>23</v>
       </c>
       <c r="D426" s="16" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E426" s="10" t="str">
         <f t="shared" si="45"/>
@@ -22416,7 +23960,7 @@
         <v>56</v>
       </c>
       <c r="D427" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E427" s="10" t="str">
         <f t="shared" si="45"/>
@@ -22463,7 +24007,7 @@
         <v>56</v>
       </c>
       <c r="D428" s="10" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E428" s="10" t="str">
         <f t="shared" si="45"/>
@@ -22510,7 +24054,7 @@
         <v>56</v>
       </c>
       <c r="D429" s="10" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E429" s="10" t="str">
         <f t="shared" si="45"/>
@@ -22557,7 +24101,7 @@
         <v>56</v>
       </c>
       <c r="D430" s="10" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E430" s="10" t="str">
         <f t="shared" si="45"/>
@@ -22604,7 +24148,7 @@
         <v>56</v>
       </c>
       <c r="D431" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E431" s="10" t="str">
         <f t="shared" si="45"/>
@@ -22651,7 +24195,7 @@
         <v>23</v>
       </c>
       <c r="D432" s="10" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E432" s="10" t="str">
         <f t="shared" si="45"/>
@@ -22698,7 +24242,7 @@
         <v>23</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E433" s="10" t="str">
         <f t="shared" si="45"/>
@@ -22745,7 +24289,7 @@
         <v>56</v>
       </c>
       <c r="D434" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E434" s="10" t="s">
         <v>86</v>
@@ -22791,7 +24335,7 @@
         <v>56</v>
       </c>
       <c r="D435" s="10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E435" s="10" t="s">
         <v>86</v>
@@ -22837,7 +24381,7 @@
         <v>56</v>
       </c>
       <c r="D436" s="10" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E436" s="10" t="s">
         <v>86</v>
@@ -22883,7 +24427,7 @@
         <v>56</v>
       </c>
       <c r="D437" s="10" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E437" s="10" t="str">
         <f t="shared" ref="E437:E439" si="46">IF(OR(C437="Narration", C437="Player"), "none", "basic")</f>
@@ -22974,10 +24518,10 @@
         <v>114</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D439" s="10" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E439" s="10" t="str">
         <f t="shared" si="46"/>
@@ -23024,7 +24568,7 @@
         <v>56</v>
       </c>
       <c r="D440" s="10" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E440" s="10" t="s">
         <v>58</v>
@@ -23070,7 +24614,7 @@
         <v>23</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E441" s="10" t="str">
         <f t="shared" ref="E441:E443" si="47">IF(OR(C441="Narration", C441="Player"), "none", "basic")</f>
@@ -23117,7 +24661,7 @@
         <v>56</v>
       </c>
       <c r="D442" s="10" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E442" s="10" t="str">
         <f t="shared" si="47"/>
@@ -23164,7 +24708,7 @@
         <v>56</v>
       </c>
       <c r="D443" s="10" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E443" s="10" t="str">
         <f t="shared" si="47"/>
@@ -23211,7 +24755,7 @@
         <v>56</v>
       </c>
       <c r="D444" s="10" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E444" s="10" t="s">
         <v>86</v>
@@ -23259,7 +24803,7 @@
         <v>56</v>
       </c>
       <c r="D445" s="22" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E445" s="10" t="str">
         <f t="shared" ref="E445:E446" si="48">IF(OR(C445="Narration", C445="Player"), "none", "basic")</f>
@@ -23306,7 +24850,7 @@
         <v>23</v>
       </c>
       <c r="D446" s="22" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E446" s="10" t="str">
         <f t="shared" si="48"/>
@@ -23353,7 +24897,7 @@
         <v>56</v>
       </c>
       <c r="D447" s="20" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E447" s="10" t="s">
         <v>58</v>
@@ -23399,7 +24943,7 @@
         <v>23</v>
       </c>
       <c r="D448" s="21" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E448" s="10" t="str">
         <f t="shared" ref="E448:E457" si="49">IF(OR(C448="Narration", C448="Player"), "none", "basic")</f>
@@ -23446,7 +24990,7 @@
         <v>56</v>
       </c>
       <c r="D449" s="10" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E449" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23493,7 +25037,7 @@
         <v>56</v>
       </c>
       <c r="D450" s="10" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E450" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23540,7 +25084,7 @@
         <v>56</v>
       </c>
       <c r="D451" s="10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E451" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23587,7 +25131,7 @@
         <v>56</v>
       </c>
       <c r="D452" s="10" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E452" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23634,7 +25178,7 @@
         <v>56</v>
       </c>
       <c r="D453" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E453" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23681,7 +25225,7 @@
         <v>23</v>
       </c>
       <c r="D454" s="16" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E454" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23728,7 +25272,7 @@
         <v>56</v>
       </c>
       <c r="D455" s="10" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E455" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23775,7 +25319,7 @@
         <v>56</v>
       </c>
       <c r="D456" s="10" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E456" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23822,7 +25366,7 @@
         <v>56</v>
       </c>
       <c r="D457" s="10" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E457" s="10" t="str">
         <f t="shared" si="49"/>
@@ -23869,7 +25413,7 @@
         <v>56</v>
       </c>
       <c r="D458" s="10" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E458" s="10" t="s">
         <v>58</v>
@@ -23915,7 +25459,7 @@
         <v>56</v>
       </c>
       <c r="D459" s="10" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E459" s="10" t="str">
         <f>IF(OR(C459="Narration", C459="Player"), "none", "basic")</f>
@@ -23962,7 +25506,7 @@
         <v>56</v>
       </c>
       <c r="D460" s="10" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E460" s="10" t="s">
         <v>58</v>
@@ -24008,7 +25552,7 @@
         <v>23</v>
       </c>
       <c r="D461" s="16" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E461" s="10" t="str">
         <f>IF(OR(C461="Narration", C461="Player"), "none", "basic")</f>
@@ -24055,7 +25599,7 @@
         <v>56</v>
       </c>
       <c r="D462" s="10" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E462" s="10" t="s">
         <v>86</v>
@@ -24101,7 +25645,7 @@
         <v>56</v>
       </c>
       <c r="D463" s="10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E463" s="10" t="s">
         <v>86</v>
@@ -24147,7 +25691,7 @@
         <v>56</v>
       </c>
       <c r="D464" s="10" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E464" s="10" t="str">
         <f t="shared" ref="E464:E466" si="50">IF(OR(C464="Narration", C464="Player"), "none", "basic")</f>
@@ -24196,7 +25740,7 @@
         <v>56</v>
       </c>
       <c r="D465" s="22" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E465" s="10" t="str">
         <f t="shared" si="50"/>
@@ -24243,7 +25787,7 @@
         <v>23</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E466" s="10" t="str">
         <f t="shared" si="50"/>
@@ -24290,7 +25834,7 @@
         <v>56</v>
       </c>
       <c r="D467" s="20" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E467" s="10" t="s">
         <v>86</v>
@@ -24336,7 +25880,7 @@
         <v>23</v>
       </c>
       <c r="D468" s="21" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E468" s="10" t="str">
         <f>IF(OR(C468="Narration", C468="Player"), "none", "basic")</f>
@@ -24383,7 +25927,7 @@
         <v>56</v>
       </c>
       <c r="D469" s="10" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E469" s="10" t="s">
         <v>86</v>
@@ -24429,7 +25973,7 @@
         <v>56</v>
       </c>
       <c r="D470" s="10" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E470" s="10" t="s">
         <v>86</v>
@@ -24475,7 +26019,7 @@
         <v>56</v>
       </c>
       <c r="D471" s="10" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E471" s="10" t="s">
         <v>86</v>
@@ -24521,7 +26065,7 @@
         <v>56</v>
       </c>
       <c r="D472" s="10" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E472" s="10" t="s">
         <v>86</v>
@@ -24567,7 +26111,7 @@
         <v>56</v>
       </c>
       <c r="D473" s="10" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E473" s="10" t="s">
         <v>86</v>
@@ -24613,7 +26157,7 @@
         <v>23</v>
       </c>
       <c r="D474" s="16" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E474" s="10" t="str">
         <f t="shared" ref="E474:E479" si="51">IF(OR(C474="Narration", C474="Player"), "none", "basic")</f>
@@ -24660,7 +26204,7 @@
         <v>56</v>
       </c>
       <c r="D475" s="10" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E475" s="10" t="str">
         <f t="shared" si="51"/>
@@ -24707,7 +26251,7 @@
         <v>56</v>
       </c>
       <c r="D476" s="31" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E476" s="10" t="str">
         <f t="shared" si="51"/>
@@ -24754,7 +26298,7 @@
         <v>56</v>
       </c>
       <c r="D477" s="10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E477" s="10" t="str">
         <f t="shared" si="51"/>
@@ -24801,7 +26345,7 @@
         <v>56</v>
       </c>
       <c r="D478" s="10" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E478" s="10" t="str">
         <f t="shared" si="51"/>
@@ -24848,7 +26392,7 @@
         <v>56</v>
       </c>
       <c r="D479" s="10" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E479" s="10" t="str">
         <f t="shared" si="51"/>
@@ -24897,7 +26441,7 @@
         <v>56</v>
       </c>
       <c r="D480" s="22" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E480" s="10" t="s">
         <v>58</v>
@@ -24943,7 +26487,7 @@
         <v>23</v>
       </c>
       <c r="D481" s="22" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E481" s="10" t="str">
         <f>IF(OR(C481="Narration", C481="Player"), "none", "basic")</f>
@@ -24990,7 +26534,7 @@
         <v>56</v>
       </c>
       <c r="D482" s="20" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E482" s="10" t="s">
         <v>86</v>
@@ -25036,7 +26580,7 @@
         <v>56</v>
       </c>
       <c r="D483" s="20" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E483" s="10" t="str">
         <f t="shared" ref="E483:E484" si="52">IF(OR(C483="Narration", C483="Player"), "none", "basic")</f>
@@ -25083,7 +26627,7 @@
         <v>23</v>
       </c>
       <c r="D484" s="21" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E484" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25130,7 +26674,7 @@
         <v>56</v>
       </c>
       <c r="D485" s="10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E485" s="10" t="s">
         <v>86</v>
@@ -25176,7 +26720,7 @@
         <v>56</v>
       </c>
       <c r="D486" s="10" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E486" s="10" t="str">
         <f t="shared" ref="E486:E499" si="53">IF(OR(C486="Narration", C486="Player"), "none", "basic")</f>
@@ -25223,7 +26767,7 @@
         <v>56</v>
       </c>
       <c r="D487" s="10" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E487" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25270,7 +26814,7 @@
         <v>56</v>
       </c>
       <c r="D488" s="10" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E488" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25319,7 +26863,7 @@
         <v>56</v>
       </c>
       <c r="D489" s="22" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E489" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25366,7 +26910,7 @@
         <v>23</v>
       </c>
       <c r="D490" s="22" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E490" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25413,7 +26957,7 @@
         <v>56</v>
       </c>
       <c r="D491" s="20" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E491" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25460,7 +27004,7 @@
         <v>23</v>
       </c>
       <c r="D492" s="21" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E492" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25504,10 +27048,10 @@
         <v>122</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D493" s="10" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E493" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25522,7 +27066,7 @@
       </c>
       <c r="H493" s="14"/>
       <c r="I493" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J493" s="8"/>
       <c r="K493" s="8"/>
@@ -25554,7 +27098,7 @@
         <v>56</v>
       </c>
       <c r="D494" s="10" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E494" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25569,7 +27113,7 @@
       </c>
       <c r="H494" s="14"/>
       <c r="I494" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J494" s="8"/>
       <c r="K494" s="8"/>
@@ -25601,7 +27145,7 @@
         <v>56</v>
       </c>
       <c r="D495" s="10" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E495" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25618,14 +27162,14 @@
         <v>122</v>
       </c>
       <c r="I495" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J495" s="8"/>
       <c r="K495" s="8"/>
       <c r="L495" s="8"/>
       <c r="M495" s="8"/>
       <c r="N495" s="8" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="O495" s="8"/>
       <c r="P495" s="8"/>
@@ -25652,7 +27196,7 @@
         <v>56</v>
       </c>
       <c r="D496" s="19" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E496" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25667,7 +27211,7 @@
       </c>
       <c r="H496" s="14"/>
       <c r="I496" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J496" s="8"/>
       <c r="K496" s="8"/>
@@ -25714,7 +27258,7 @@
       </c>
       <c r="H497" s="14"/>
       <c r="I497" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J497" s="8"/>
       <c r="K497" s="8"/>
@@ -25746,7 +27290,7 @@
         <v>56</v>
       </c>
       <c r="D498" s="19" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E498" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25761,7 +27305,7 @@
       </c>
       <c r="H498" s="14"/>
       <c r="I498" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J498" s="8"/>
       <c r="K498" s="8"/>
@@ -25790,10 +27334,10 @@
         <v>122</v>
       </c>
       <c r="C499" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D499" s="19" t="s">
         <v>456</v>
-      </c>
-      <c r="D499" s="19" t="s">
-        <v>464</v>
       </c>
       <c r="E499" s="10" t="str">
         <f t="shared" si="53"/>
@@ -25808,7 +27352,7 @@
       </c>
       <c r="H499" s="14"/>
       <c r="I499" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J499" s="8"/>
       <c r="K499" s="8"/>
@@ -25840,7 +27384,7 @@
         <v>56</v>
       </c>
       <c r="D500" s="19" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E500" s="10" t="s">
         <v>86</v>
@@ -25854,7 +27398,7 @@
       </c>
       <c r="H500" s="14"/>
       <c r="I500" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J500" s="8"/>
       <c r="K500" s="8"/>
@@ -25886,7 +27430,7 @@
         <v>23</v>
       </c>
       <c r="D501" s="19" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E501" s="10" t="str">
         <f t="shared" ref="E501:E513" si="54">IF(OR(C501="Narration", C501="Player"), "none", "basic")</f>
@@ -25901,7 +27445,7 @@
       </c>
       <c r="H501" s="14"/>
       <c r="I501" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J501" s="8"/>
       <c r="K501" s="8"/>
@@ -25933,7 +27477,7 @@
         <v>56</v>
       </c>
       <c r="D502" s="20" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E502" s="10" t="str">
         <f t="shared" si="54"/>
@@ -25948,7 +27492,7 @@
       </c>
       <c r="H502" s="14"/>
       <c r="I502" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J502" s="8"/>
       <c r="K502" s="8"/>
@@ -25980,7 +27524,7 @@
         <v>56</v>
       </c>
       <c r="D503" s="20" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E503" s="10" t="str">
         <f t="shared" si="54"/>
@@ -25995,7 +27539,7 @@
       </c>
       <c r="H503" s="14"/>
       <c r="I503" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J503" s="8"/>
       <c r="K503" s="8"/>
@@ -26042,7 +27586,7 @@
       </c>
       <c r="H504" s="14"/>
       <c r="I504" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J504" s="8"/>
       <c r="K504" s="8"/>
@@ -26071,10 +27615,10 @@
         <v>122</v>
       </c>
       <c r="C505" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D505" s="20" t="s">
         <v>456</v>
-      </c>
-      <c r="D505" s="20" t="s">
-        <v>464</v>
       </c>
       <c r="E505" s="10" t="str">
         <f t="shared" si="54"/>
@@ -26089,7 +27633,7 @@
       </c>
       <c r="H505" s="14"/>
       <c r="I505" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J505" s="8"/>
       <c r="K505" s="8"/>
@@ -26121,7 +27665,7 @@
         <v>56</v>
       </c>
       <c r="D506" s="20" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E506" s="10" t="str">
         <f t="shared" si="54"/>
@@ -26136,7 +27680,7 @@
       </c>
       <c r="H506" s="14"/>
       <c r="I506" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J506" s="8"/>
       <c r="K506" s="8"/>
@@ -26168,7 +27712,7 @@
         <v>23</v>
       </c>
       <c r="D507" s="21" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E507" s="10" t="str">
         <f t="shared" si="54"/>
@@ -26183,7 +27727,7 @@
       </c>
       <c r="H507" s="18"/>
       <c r="I507" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J507" s="8"/>
       <c r="K507" s="8"/>
@@ -26215,7 +27759,7 @@
         <v>56</v>
       </c>
       <c r="D508" s="10" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E508" s="10" t="str">
         <f t="shared" si="54"/>
@@ -26262,7 +27806,7 @@
         <v>56</v>
       </c>
       <c r="D509" s="10" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E509" s="10" t="str">
         <f t="shared" si="54"/>
@@ -26309,7 +27853,7 @@
         <v>56</v>
       </c>
       <c r="D510" s="10" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E510" s="10" t="str">
         <f t="shared" si="54"/>
@@ -26358,7 +27902,7 @@
         <v>56</v>
       </c>
       <c r="D511" s="19" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E511" s="10" t="str">
         <f t="shared" si="54"/>
@@ -26405,7 +27949,7 @@
         <v>56</v>
       </c>
       <c r="D512" s="19" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E512" s="10" t="str">
         <f t="shared" si="54"/>
@@ -26499,7 +28043,7 @@
         <v>56</v>
       </c>
       <c r="D514" s="19" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E514" s="10" t="s">
         <v>86</v>
@@ -26545,7 +28089,7 @@
         <v>23</v>
       </c>
       <c r="D515" s="19" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E515" s="10" t="str">
         <f>IF(OR(C515="Narration", C515="Player"), "none", "basic")</f>
@@ -26592,7 +28136,7 @@
         <v>56</v>
       </c>
       <c r="D516" s="20" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E516" s="10" t="s">
         <v>58</v>
@@ -26638,7 +28182,7 @@
         <v>56</v>
       </c>
       <c r="D517" s="20" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E517" s="10" t="s">
         <v>58</v>
@@ -26684,7 +28228,7 @@
         <v>23</v>
       </c>
       <c r="D518" s="21" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E518" s="10" t="str">
         <f>IF(OR(C518="Narration", C518="Player"), "none", "basic")</f>
@@ -26731,7 +28275,7 @@
         <v>56</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E519" s="10" t="s">
         <v>86</v>
@@ -26745,7 +28289,7 @@
       </c>
       <c r="H519" s="14"/>
       <c r="I519" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J519" s="8"/>
       <c r="K519" s="8"/>
@@ -26777,7 +28321,7 @@
         <v>56</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E520" s="10" t="str">
         <f t="shared" ref="E520:E530" si="56">IF(OR(C520="Narration", C520="Player"), "none", "basic")</f>
@@ -26792,7 +28336,7 @@
       </c>
       <c r="H520" s="14"/>
       <c r="I520" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J520" s="8"/>
       <c r="K520" s="8"/>
@@ -26824,7 +28368,7 @@
         <v>56</v>
       </c>
       <c r="D521" s="10" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E521" s="10" t="str">
         <f t="shared" si="56"/>
@@ -26841,7 +28385,7 @@
         <v>124</v>
       </c>
       <c r="I521" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J521" s="8"/>
       <c r="K521" s="8"/>
@@ -26873,7 +28417,7 @@
         <v>56</v>
       </c>
       <c r="D522" s="19" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E522" s="10" t="str">
         <f t="shared" si="56"/>
@@ -26888,7 +28432,7 @@
       </c>
       <c r="H522" s="14"/>
       <c r="I522" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J522" s="8"/>
       <c r="K522" s="8"/>
@@ -26935,7 +28479,7 @@
       </c>
       <c r="H523" s="14"/>
       <c r="I523" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J523" s="8"/>
       <c r="K523" s="8"/>
@@ -26967,7 +28511,7 @@
         <v>56</v>
       </c>
       <c r="D524" s="19" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E524" s="10" t="str">
         <f t="shared" si="56"/>
@@ -26982,7 +28526,7 @@
       </c>
       <c r="H524" s="14"/>
       <c r="I524" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J524" s="8"/>
       <c r="K524" s="8"/>
@@ -27014,7 +28558,7 @@
         <v>23</v>
       </c>
       <c r="D525" s="19" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E525" s="10" t="str">
         <f t="shared" si="56"/>
@@ -27029,7 +28573,7 @@
       </c>
       <c r="H525" s="14"/>
       <c r="I525" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J525" s="8"/>
       <c r="K525" s="8"/>
@@ -27061,7 +28605,7 @@
         <v>56</v>
       </c>
       <c r="D526" s="28" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E526" s="10" t="str">
         <f t="shared" si="56"/>
@@ -27076,7 +28620,7 @@
       </c>
       <c r="H526" s="14"/>
       <c r="I526" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J526" s="8"/>
       <c r="K526" s="8"/>
@@ -27108,7 +28652,7 @@
         <v>56</v>
       </c>
       <c r="D527" s="28" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E527" s="10" t="str">
         <f t="shared" si="56"/>
@@ -27123,7 +28667,7 @@
       </c>
       <c r="H527" s="14"/>
       <c r="I527" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J527" s="8"/>
       <c r="K527" s="8"/>
@@ -27155,7 +28699,7 @@
         <v>23</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E528" s="10" t="str">
         <f t="shared" si="56"/>
@@ -27170,7 +28714,7 @@
       </c>
       <c r="H528" s="18"/>
       <c r="I528" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J528" s="8"/>
       <c r="K528" s="8"/>
@@ -27202,7 +28746,7 @@
         <v>56</v>
       </c>
       <c r="D529" s="10" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E529" s="10" t="str">
         <f t="shared" si="56"/>
@@ -27217,7 +28761,7 @@
       </c>
       <c r="H529" s="14"/>
       <c r="I529" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J529" s="8"/>
       <c r="K529" s="8"/>
@@ -27246,10 +28790,10 @@
         <v>125</v>
       </c>
       <c r="C530" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D530" s="10" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E530" s="10" t="str">
         <f t="shared" si="56"/>
@@ -27264,7 +28808,7 @@
       </c>
       <c r="H530" s="14"/>
       <c r="I530" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J530" s="8"/>
       <c r="K530" s="8"/>
@@ -27296,7 +28840,7 @@
         <v>56</v>
       </c>
       <c r="D531" s="10" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E531" s="10" t="s">
         <v>58</v>
@@ -27310,7 +28854,7 @@
       </c>
       <c r="H531" s="14"/>
       <c r="I531" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J531" s="8"/>
       <c r="K531" s="8"/>
@@ -27339,10 +28883,10 @@
         <v>125</v>
       </c>
       <c r="C532" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D532" s="10" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E532" s="10" t="str">
         <f t="shared" ref="E532:E539" si="57">IF(OR(C532="Narration", C532="Player"), "none", "basic")</f>
@@ -27357,7 +28901,7 @@
       </c>
       <c r="H532" s="14"/>
       <c r="I532" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J532" s="8"/>
       <c r="K532" s="8"/>
@@ -27389,7 +28933,7 @@
         <v>56</v>
       </c>
       <c r="D533" s="10" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E533" s="10" t="str">
         <f t="shared" si="57"/>
@@ -27404,7 +28948,7 @@
       </c>
       <c r="H533" s="14"/>
       <c r="I533" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J533" s="8"/>
       <c r="K533" s="8"/>
@@ -27433,10 +28977,10 @@
         <v>125</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D534" s="10" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E534" s="10" t="str">
         <f t="shared" si="57"/>
@@ -27453,7 +28997,7 @@
         <v>125</v>
       </c>
       <c r="I534" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J534" s="8"/>
       <c r="K534" s="8"/>
@@ -27482,10 +29026,10 @@
         <v>125</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D535" s="19" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E535" s="10" t="str">
         <f t="shared" si="57"/>
@@ -27500,7 +29044,7 @@
       </c>
       <c r="H535" s="14"/>
       <c r="I535" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J535" s="8"/>
       <c r="K535" s="8"/>
@@ -27547,7 +29091,7 @@
       </c>
       <c r="H536" s="14"/>
       <c r="I536" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J536" s="8"/>
       <c r="K536" s="8"/>
@@ -27576,10 +29120,10 @@
         <v>125</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D537" s="19" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E537" s="10" t="str">
         <f t="shared" si="57"/>
@@ -27594,7 +29138,7 @@
       </c>
       <c r="H537" s="14"/>
       <c r="I537" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J537" s="8"/>
       <c r="K537" s="8"/>
@@ -27623,10 +29167,10 @@
         <v>125</v>
       </c>
       <c r="C538" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D538" s="19" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E538" s="10" t="str">
         <f t="shared" si="57"/>
@@ -27641,7 +29185,7 @@
       </c>
       <c r="H538" s="14"/>
       <c r="I538" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J538" s="8"/>
       <c r="K538" s="8"/>
@@ -27673,7 +29217,7 @@
         <v>56</v>
       </c>
       <c r="D539" s="19" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E539" s="10" t="str">
         <f t="shared" si="57"/>
@@ -27688,7 +29232,7 @@
       </c>
       <c r="H539" s="14"/>
       <c r="I539" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J539" s="8"/>
       <c r="K539" s="8"/>
@@ -27720,7 +29264,7 @@
         <v>56</v>
       </c>
       <c r="D540" s="19" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E540" s="10" t="s">
         <v>58</v>
@@ -27734,7 +29278,7 @@
       </c>
       <c r="H540" s="14"/>
       <c r="I540" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J540" s="8"/>
       <c r="K540" s="8"/>
@@ -27766,7 +29310,7 @@
         <v>23</v>
       </c>
       <c r="D541" s="19" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E541" s="10" t="str">
         <f t="shared" ref="E541:E542" si="58">IF(OR(C541="Narration", C541="Player"), "none", "basic")</f>
@@ -27781,7 +29325,7 @@
       </c>
       <c r="H541" s="14"/>
       <c r="I541" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J541" s="8"/>
       <c r="K541" s="8"/>
@@ -27810,10 +29354,10 @@
         <v>125</v>
       </c>
       <c r="C542" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D542" s="28" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E542" s="10" t="str">
         <f t="shared" si="58"/>
@@ -27828,7 +29372,7 @@
       </c>
       <c r="H542" s="14"/>
       <c r="I542" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J542" s="8"/>
       <c r="K542" s="8"/>
@@ -27860,7 +29404,7 @@
         <v>56</v>
       </c>
       <c r="D543" s="28" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E543" s="10" t="s">
         <v>58</v>
@@ -27874,7 +29418,7 @@
       </c>
       <c r="H543" s="14"/>
       <c r="I543" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J543" s="8"/>
       <c r="K543" s="8"/>
@@ -27903,10 +29447,10 @@
         <v>125</v>
       </c>
       <c r="C544" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D544" s="28" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E544" s="10" t="str">
         <f t="shared" ref="E544:E545" si="59">IF(OR(C544="Narration", C544="Player"), "none", "basic")</f>
@@ -27921,7 +29465,7 @@
       </c>
       <c r="H544" s="14"/>
       <c r="I544" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J544" s="8"/>
       <c r="K544" s="8"/>
@@ -27953,7 +29497,7 @@
         <v>23</v>
       </c>
       <c r="D545" s="29" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E545" s="10" t="str">
         <f t="shared" si="59"/>
@@ -27968,7 +29512,7 @@
       </c>
       <c r="H545" s="18"/>
       <c r="I545" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J545" s="8"/>
       <c r="K545" s="8"/>
@@ -28000,7 +29544,7 @@
         <v>56</v>
       </c>
       <c r="D546" s="10" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E546" s="10" t="s">
         <v>58</v>
@@ -28046,7 +29590,7 @@
         <v>56</v>
       </c>
       <c r="D547" s="10" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E547" s="10" t="str">
         <f t="shared" ref="E547:E549" si="60">IF(OR(C547="Narration", C547="Player"), "none", "basic")</f>
@@ -28093,7 +29637,7 @@
         <v>56</v>
       </c>
       <c r="D548" s="10" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E548" s="10" t="str">
         <f t="shared" si="60"/>
@@ -28140,7 +29684,7 @@
         <v>56</v>
       </c>
       <c r="D549" s="10" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E549" s="10" t="str">
         <f t="shared" si="60"/>
@@ -28187,7 +29731,7 @@
         <v>56</v>
       </c>
       <c r="D550" s="10" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E550" s="10" t="s">
         <v>86</v>
@@ -28233,7 +29777,7 @@
         <v>56</v>
       </c>
       <c r="D551" s="10" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E551" s="10" t="s">
         <v>86</v>
@@ -28279,7 +29823,7 @@
         <v>56</v>
       </c>
       <c r="D552" s="10" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E552" s="10" t="s">
         <v>86</v>
@@ -28325,7 +29869,7 @@
         <v>56</v>
       </c>
       <c r="D553" s="10" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E553" s="10" t="s">
         <v>58</v>
@@ -28371,7 +29915,7 @@
         <v>23</v>
       </c>
       <c r="D554" s="10" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E554" s="10" t="str">
         <f>IF(OR(C554="Narration", C554="Player"), "none", "basic")</f>

--- a/DataGenerator/XLSXS/EventScript.xlsx
+++ b/DataGenerator/XLSXS/EventScript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RaisingStudent2\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F180BBB8-F193-4DEC-A584-6CE57B5D30A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31B2FED-1D3F-4594-92A4-72A861B95ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>스크립트 넘버
@@ -60,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">동일한 이벤트의 대사끼리 묶어주기 위해 사용함.
@@ -75,6 +77,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>캐릭터 고유값
@@ -90,6 +93,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>캐릭터의 감정에 따라 스프라이트를 변경
@@ -107,6 +111,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>버블 우측 상단에 뜰 캐릭터 이름 표시 여부
@@ -122,6 +127,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이벤트 내에서 두 개 이상의 갈래(이하 '분기')가 생기는 경우 분기가 발생하는 스크립트에 사용.
@@ -139,6 +145,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>분기타입BranchType에 알맞은 레코드를 참조하기 위한 파라미터.
@@ -156,6 +163,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">해당 이벤트에서 사용할 배경 파일 명을 기입
@@ -171,6 +179,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이벤트 스크립트를 위한 시트입니다.
@@ -3678,7 +3687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3751,6 +3760,13 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4131,8 +4147,8 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D385" sqref="D385"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23062,7 +23078,7 @@
         <v>109</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D408" s="20" t="s">
         <v>365</v>
@@ -23156,7 +23172,7 @@
         <v>109</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D410" s="20" t="s">
         <v>367</v>
@@ -28790,7 +28806,7 @@
         <v>125</v>
       </c>
       <c r="C530" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D530" s="10" t="s">
         <v>483</v>
@@ -28883,7 +28899,7 @@
         <v>125</v>
       </c>
       <c r="C532" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D532" s="10" t="s">
         <v>485</v>
@@ -28977,7 +28993,7 @@
         <v>125</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D534" s="10" t="s">
         <v>487</v>
@@ -29026,7 +29042,7 @@
         <v>125</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D535" s="19" t="s">
         <v>488</v>
@@ -29167,7 +29183,7 @@
         <v>125</v>
       </c>
       <c r="C538" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D538" s="19" t="s">
         <v>490</v>
@@ -29354,7 +29370,7 @@
         <v>125</v>
       </c>
       <c r="C542" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D542" s="28" t="s">
         <v>494</v>
@@ -29447,7 +29463,7 @@
         <v>125</v>
       </c>
       <c r="C544" s="10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="D544" s="28" t="s">
         <v>496</v>
